--- a/EmailBlast/Excel/Countries/UnitedStates.xlsx
+++ b/EmailBlast/Excel/Countries/UnitedStates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Robots\Ruby\EmailBlast\Excel\Countries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CBCA7A-D5BB-4DB2-96DF-9CAA450E9C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741AC054-31C8-433C-BDBD-A1AE524F1DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="1245" windowWidth="10200" windowHeight="7875" firstSheet="6" activeTab="6" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
+    <workbookView xWindow="-435" yWindow="1320" windowWidth="10200" windowHeight="7875" firstSheet="4" activeTab="6" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrumental" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="720">
   <si>
     <t>Name</t>
   </si>
@@ -121,13 +121,2135 @@
   </si>
   <si>
     <t xml:space="preserve">facebook.com/Albumism </t>
+  </si>
+  <si>
+    <t>American Pancake</t>
+  </si>
+  <si>
+    <t>https://www.americanpancake.com</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/american-pancake</t>
+  </si>
+  <si>
+    <t>Audiofemme</t>
+  </si>
+  <si>
+    <t>info@audiofemme.com</t>
+  </si>
+  <si>
+    <t>https://www.audiofemme.com</t>
+  </si>
+  <si>
+    <t>audiofemme</t>
+  </si>
+  <si>
+    <t>facebook.com/AudioFemme</t>
+  </si>
+  <si>
+    <t>B-Sides &amp; Badlands</t>
+  </si>
+  <si>
+    <t>https://bsidesbadlands.com</t>
+  </si>
+  <si>
+    <t>facebook.com/bsidesbadlands</t>
+  </si>
+  <si>
+    <t>bsidesbadlands</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/b-sides-badlands</t>
+  </si>
+  <si>
+    <t>BIRP! / BIRP! TV</t>
+  </si>
+  <si>
+    <t>http://www.birp.fm</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/birp-fm</t>
+  </si>
+  <si>
+    <t>BIRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/birp.fm </t>
+  </si>
+  <si>
+    <t>PO Box 6676, Paris, TX 75461</t>
+  </si>
+  <si>
+    <t>The Bops Collective</t>
+  </si>
+  <si>
+    <t>https://thebopscollective.com</t>
+  </si>
+  <si>
+    <t>instagram.com/nighttimebops</t>
+  </si>
+  <si>
+    <t>Bubblingbox</t>
+  </si>
+  <si>
+    <t>submissions@bubblingbox.com</t>
+  </si>
+  <si>
+    <t>https://bubblingbox.com</t>
+  </si>
+  <si>
+    <t>bubblingbox</t>
+  </si>
+  <si>
+    <t>instagram.com/bubblingbox</t>
+  </si>
+  <si>
+    <t>The Burning Ear</t>
+  </si>
+  <si>
+    <t>https://www.theburningear.com</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/the-burning-ear</t>
+  </si>
+  <si>
+    <t>Cereal + Sounds</t>
+  </si>
+  <si>
+    <t>music.cerealandsounds@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cerealandsounds.com</t>
+  </si>
+  <si>
+    <t>cerealandsounds</t>
+  </si>
+  <si>
+    <t>Cheers To The Vikings</t>
+  </si>
+  <si>
+    <t>https://cheerstothevikings.com</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/cheers-to-the-vikings</t>
+  </si>
+  <si>
+    <t>cheersvikings</t>
+  </si>
+  <si>
+    <t>Concert Crap</t>
+  </si>
+  <si>
+    <t>corey.kleinsasser@gmail.com</t>
+  </si>
+  <si>
+    <t>https://concertcrap.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/ConcertCrap </t>
+  </si>
+  <si>
+    <t>Concert_Crap</t>
+  </si>
+  <si>
+    <t>Death or Desire</t>
+  </si>
+  <si>
+    <t>https://www.deathordesire.com</t>
+  </si>
+  <si>
+    <t>deathordesire</t>
+  </si>
+  <si>
+    <t>instagram.com/deathordesire</t>
+  </si>
+  <si>
+    <t>Desert Island Cloud</t>
+  </si>
+  <si>
+    <t>https://www.desertislandcloud.com</t>
+  </si>
+  <si>
+    <t>TheIslandCloud</t>
+  </si>
+  <si>
+    <t>facebook.com/desertislandcloud</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/deathordesire</t>
+  </si>
+  <si>
+    <t>Ear Tapas</t>
+  </si>
+  <si>
+    <t>https://eartapas.tumblr.com</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/ear-tapas</t>
+  </si>
+  <si>
+    <t>EarToTheGround Music</t>
+  </si>
+  <si>
+    <t>https://www.eartothegroundmusic.co</t>
+  </si>
+  <si>
+    <t>EarToThe_Ground</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/eartotheground-music</t>
+  </si>
+  <si>
+    <t>electric sound of joy</t>
+  </si>
+  <si>
+    <t>https://www.electricsoundofjoy.com</t>
+  </si>
+  <si>
+    <t>elsojoy</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/electric-sound-of-joy</t>
+  </si>
+  <si>
+    <t>Endless Crate</t>
+  </si>
+  <si>
+    <t>https://endlesscrate.com</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>instagram.com/endless.crate</t>
+  </si>
+  <si>
+    <t>Fingertips</t>
+  </si>
+  <si>
+    <t>fingertipsmusic@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.fingertipsmusic.com</t>
+  </si>
+  <si>
+    <t>facebook.com/fingertipsmusic</t>
+  </si>
+  <si>
+    <t>fingertipsmusic</t>
+  </si>
+  <si>
+    <t>Flex Music Blog</t>
+  </si>
+  <si>
+    <t>https://www.flexmusicblog.com</t>
+  </si>
+  <si>
+    <t>forestpunk</t>
+  </si>
+  <si>
+    <t>https://forestpunk.wordpress.com</t>
+  </si>
+  <si>
+    <t>instagram.com/for3stpunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/for3stpunk </t>
+  </si>
+  <si>
+    <t>Fourculture</t>
+  </si>
+  <si>
+    <t>submissions@fourculture.com</t>
+  </si>
+  <si>
+    <t>https://fourculture.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/Fourculture </t>
+  </si>
+  <si>
+    <t>fourculture</t>
+  </si>
+  <si>
+    <t>Funk In The Trunk</t>
+  </si>
+  <si>
+    <t>https://www.funkinthetrunk.com</t>
+  </si>
+  <si>
+    <t>facebook.com/FunkInTheTrunkBlog</t>
+  </si>
+  <si>
+    <t>Gems &amp; Secrets</t>
+  </si>
+  <si>
+    <t>https://gemsandsecrets.com/blog</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/gems-and-secrets</t>
+  </si>
+  <si>
+    <t>gemsandsecrets</t>
+  </si>
+  <si>
+    <t>Generation Clash</t>
+  </si>
+  <si>
+    <t>thegenerationclash@gmail.com</t>
+  </si>
+  <si>
+    <t>https://generationclash.webador.com</t>
+  </si>
+  <si>
+    <t>instagram.com/thegenerationclash</t>
+  </si>
+  <si>
+    <t>TheGenClash</t>
+  </si>
+  <si>
+    <t>Girl at the Rock Shows</t>
+  </si>
+  <si>
+    <t>girlattherockshows@gmail.com</t>
+  </si>
+  <si>
+    <t>https://girlattherockshows.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/girlattherockshows </t>
+  </si>
+  <si>
+    <t>girlatrockshows</t>
+  </si>
+  <si>
+    <t>glamglare</t>
+  </si>
+  <si>
+    <t>https://glamglare.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/glamglare </t>
+  </si>
+  <si>
+    <t>Grotesqualizer</t>
+  </si>
+  <si>
+    <t>https://gtqlizer.blogspot.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/gtqlizer </t>
+  </si>
+  <si>
+    <t>gtqlizer</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/grotesqualizer</t>
+  </si>
+  <si>
+    <t>Havoc Underground</t>
+  </si>
+  <si>
+    <t>https://www.havocunderground.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/havocunderground </t>
+  </si>
+  <si>
+    <t>HVCUNDERGROUND</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/havoc-underground</t>
+  </si>
+  <si>
+    <t>Hell Hound Music</t>
+  </si>
+  <si>
+    <t>dave@hellhoundmusic.com</t>
+  </si>
+  <si>
+    <t>https://www.hellhoundmusic.com</t>
+  </si>
+  <si>
+    <t>facebook.com/HellhoundMusic</t>
+  </si>
+  <si>
+    <t>Homesick Magazine</t>
+  </si>
+  <si>
+    <t>https://www.homesickmag.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homesickmag_ </t>
+  </si>
+  <si>
+    <t>instagram.com/homesickmag_</t>
+  </si>
+  <si>
+    <t>I AM TUNED UP</t>
+  </si>
+  <si>
+    <t>iamtunedup@gmail.com</t>
+  </si>
+  <si>
+    <t>http://iamtunedup.com</t>
+  </si>
+  <si>
+    <t>facebook.com/iamtunedup</t>
+  </si>
+  <si>
+    <t>immersed in cool music</t>
+  </si>
+  <si>
+    <t>immersedinm@gmail.com</t>
+  </si>
+  <si>
+    <t>https://immersedincoolmusic.com</t>
+  </si>
+  <si>
+    <t>facebook.com/immersedincoolmusic</t>
+  </si>
+  <si>
+    <t>immersedincoolm</t>
+  </si>
+  <si>
+    <t>Imperfect Fifth</t>
+  </si>
+  <si>
+    <t>imperfectfifthmag@gmail.com</t>
+  </si>
+  <si>
+    <t>http://imperfectfifth.com</t>
+  </si>
+  <si>
+    <t>facebook.com/Imperfect5th</t>
+  </si>
+  <si>
+    <t>https://theindependentspirits.com</t>
+  </si>
+  <si>
+    <t>Independent Spirits</t>
+  </si>
+  <si>
+    <t>TheIndieSpirits</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/independent-spirits</t>
+  </si>
+  <si>
+    <t>Indie Mixtape</t>
+  </si>
+  <si>
+    <t>indiemixtape@uproxx.com</t>
+  </si>
+  <si>
+    <t>http://indiemixtape.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/IndieMixtape </t>
+  </si>
+  <si>
+    <t>Indie_Mixtape</t>
+  </si>
+  <si>
+    <t>Indie Music Review</t>
+  </si>
+  <si>
+    <t>http://www.indiemusicreview.com</t>
+  </si>
+  <si>
+    <t>Indie Music Spin</t>
+  </si>
+  <si>
+    <t>https://www.avaliveradio.info/indie-music-spin-submission</t>
+  </si>
+  <si>
+    <t>instagram.com/indiemusicspin</t>
+  </si>
+  <si>
+    <t>Indie Obsessive</t>
+  </si>
+  <si>
+    <t>https://indieobsessive.blogspot.com</t>
+  </si>
+  <si>
+    <t>IndieObsessive</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/indie-obsessive</t>
+  </si>
+  <si>
+    <t>Indie Shuffle</t>
+  </si>
+  <si>
+    <t>https://www.indieshuffle.com</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/indie-shuffle</t>
+  </si>
+  <si>
+    <t>indieshuffle</t>
+  </si>
+  <si>
+    <t>It's All Dead</t>
+  </si>
+  <si>
+    <t>contact@itsalldead.com</t>
+  </si>
+  <si>
+    <t>https://itsalldead.com</t>
+  </si>
+  <si>
+    <t>facebook.com/itsalldead</t>
+  </si>
+  <si>
+    <t>Its_All_Dead</t>
+  </si>
+  <si>
+    <t>The Joy of Violent Movement</t>
+  </si>
+  <si>
+    <t>https://joyofviolentmovement.com</t>
+  </si>
+  <si>
+    <t>facebook.com/TheJoyofViolentMovement</t>
+  </si>
+  <si>
+    <t>kid with a vinyl</t>
+  </si>
+  <si>
+    <t>kidwithavinylblog@gmail.com</t>
+  </si>
+  <si>
+    <t>https://kidwithavinyl.wordpress.com</t>
+  </si>
+  <si>
+    <t>instagram.com/kidwithavinyl</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/kid-with-a-vinyl</t>
+  </si>
+  <si>
+    <t>Kings of A&amp;R</t>
+  </si>
+  <si>
+    <t>https://www.kingsofar.com</t>
+  </si>
+  <si>
+    <t>facebook.com/kingsofar</t>
+  </si>
+  <si>
+    <t>kingsofar</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/kings-of-a-r</t>
+  </si>
+  <si>
+    <t>The Listening Post Blog</t>
+  </si>
+  <si>
+    <t>https://thelisteningpostblog.wordpress.com</t>
+  </si>
+  <si>
+    <t>facebook.com/thelisteningpostblog</t>
+  </si>
+  <si>
+    <t>Listen2myPost</t>
+  </si>
+  <si>
+    <t>The Minimalistic Music</t>
+  </si>
+  <si>
+    <t>https://minimalisticmusic.com</t>
+  </si>
+  <si>
+    <t>Music &amp; Fashion Blog</t>
+  </si>
+  <si>
+    <t>https://musicfashionblog.com</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/music-fashion-blog</t>
+  </si>
+  <si>
+    <t>facebook.com/musicfashionblog</t>
+  </si>
+  <si>
+    <t>instagram.com/musicfashionblog</t>
+  </si>
+  <si>
+    <t>musiccourt@gmail.com</t>
+  </si>
+  <si>
+    <t>https://musiccourtblog.com</t>
+  </si>
+  <si>
+    <t>musiccourt</t>
+  </si>
+  <si>
+    <t>The Music Court</t>
+  </si>
+  <si>
+    <t>Music Existence</t>
+  </si>
+  <si>
+    <t>stephen@musicexistence.com</t>
+  </si>
+  <si>
+    <t>https://musicexistence.com</t>
+  </si>
+  <si>
+    <t>facebook.com/MusicExists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">music_existence </t>
+  </si>
+  <si>
+    <t>Music Mecca</t>
+  </si>
+  <si>
+    <t>https://musicmecca.org</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/music-mecca</t>
+  </si>
+  <si>
+    <t>_musicmecca_</t>
+  </si>
+  <si>
+    <t>facebook.com/musicmeccanash</t>
+  </si>
+  <si>
+    <t>The Music Ninja</t>
+  </si>
+  <si>
+    <t>blas@themusicninja.com</t>
+  </si>
+  <si>
+    <t>http://www.themusicninja.com</t>
+  </si>
+  <si>
+    <t>2131 Lawrence St. #639, Denver, CO 80205</t>
+  </si>
+  <si>
+    <t>Musical Notes Global</t>
+  </si>
+  <si>
+    <t>musicalnotesglobal@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.musicalnotesglobal.com</t>
+  </si>
+  <si>
+    <t>MNGBlog</t>
+  </si>
+  <si>
+    <t>Musoscribe.com</t>
+  </si>
+  <si>
+    <t>http://blog.musoscribe.com</t>
+  </si>
+  <si>
+    <t>Muzique Magazine</t>
+  </si>
+  <si>
+    <t>https://muziquemagazine.com</t>
+  </si>
+  <si>
+    <t>facebook.com/muziquemagazine</t>
+  </si>
+  <si>
+    <t>MuziqueMag2</t>
+  </si>
+  <si>
+    <t>theneedledrop</t>
+  </si>
+  <si>
+    <t>The Needle Drop</t>
+  </si>
+  <si>
+    <t>https://www.theneedledrop.com</t>
+  </si>
+  <si>
+    <t>Nuevoculture</t>
+  </si>
+  <si>
+    <t>social@nuevoculture.com</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/nuevo-culture-3</t>
+  </si>
+  <si>
+    <t>https://www.nuevoculture.com</t>
+  </si>
+  <si>
+    <t>Obscure Sound</t>
+  </si>
+  <si>
+    <t>https://obscuresound.com</t>
+  </si>
+  <si>
+    <t>facebook.com/ObscureSound</t>
+  </si>
+  <si>
+    <t>ObscureSound</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/obscure-sound</t>
+  </si>
+  <si>
+    <t>Opus</t>
+  </si>
+  <si>
+    <t>jasonmorehead@gmail.com</t>
+  </si>
+  <si>
+    <t>https://opuszine.us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/opuszine </t>
+  </si>
+  <si>
+    <t>jasonopus</t>
+  </si>
+  <si>
+    <t>PopFad Music Blog</t>
+  </si>
+  <si>
+    <t>https://popfadblog.com</t>
+  </si>
+  <si>
+    <t>facebook.com/popfad.musicblog</t>
+  </si>
+  <si>
+    <t>instagram.com/popfadblog</t>
+  </si>
+  <si>
+    <t>Puddlegum</t>
+  </si>
+  <si>
+    <t>https://puddlegum.blog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/Puddlegum </t>
+  </si>
+  <si>
+    <t>instagram.com/puddlegum.blog</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/puddlegum</t>
+  </si>
+  <si>
+    <t>Punchland</t>
+  </si>
+  <si>
+    <t>https://www.punchland.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/punchlandnyc </t>
+  </si>
+  <si>
+    <t>punchland</t>
+  </si>
+  <si>
+    <t>Purple Melon Music</t>
+  </si>
+  <si>
+    <t>https://purplemelonmu.com</t>
+  </si>
+  <si>
+    <t>facebook.com/purplemelonmu</t>
+  </si>
+  <si>
+    <t>purplemelonmu</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/purple-melon-music</t>
+  </si>
+  <si>
+    <t>Qore Music Co.</t>
+  </si>
+  <si>
+    <t>https://www.qoremusicco.com</t>
+  </si>
+  <si>
+    <t>QoreMusicCo</t>
+  </si>
+  <si>
+    <t>instagram.com/qoremusicco</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/qore-music-co</t>
+  </si>
+  <si>
+    <t>Record Dept. Music Reviews</t>
+  </si>
+  <si>
+    <t>info@recorddept.com</t>
+  </si>
+  <si>
+    <t>https://www.recorddept.com</t>
+  </si>
+  <si>
+    <t>11640 SW Sheffield Cir. Tigard, OR 97223</t>
+  </si>
+  <si>
+    <t>The Resident Sound</t>
+  </si>
+  <si>
+    <t>https://residentsound.com</t>
+  </si>
+  <si>
+    <t>therecordclerk</t>
+  </si>
+  <si>
+    <t>instagram.com/residentsound</t>
+  </si>
+  <si>
+    <t>Rising Artists Music Blog</t>
+  </si>
+  <si>
+    <t>submissions@risingartistsblog.com</t>
+  </si>
+  <si>
+    <t>https://risingartistsblog.com</t>
+  </si>
+  <si>
+    <t>facebook.com/risingartists.musicblog</t>
+  </si>
+  <si>
+    <t>instagram.com/risingartists_musicblog</t>
+  </si>
+  <si>
+    <t>Sheesh Media</t>
+  </si>
+  <si>
+    <t>https://www.sheeshmedia.com</t>
+  </si>
+  <si>
+    <t>sheeshmediaa</t>
+  </si>
+  <si>
+    <t>instagram.com/sheeshmedia</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/sheesh</t>
+  </si>
+  <si>
+    <t>SOUNDAZED</t>
+  </si>
+  <si>
+    <t>soundazed@gmail.com</t>
+  </si>
+  <si>
+    <t>https://soundazed.com</t>
+  </si>
+  <si>
+    <t>soundazed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/soundazed </t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/soundazed</t>
+  </si>
+  <si>
+    <t>SoundThread Music Blog</t>
+  </si>
+  <si>
+    <t>https://www.soundthread.net</t>
+  </si>
+  <si>
+    <t>instagram.com/soundthreadblog</t>
+  </si>
+  <si>
+    <t>facebook.com/soundthreadblog</t>
+  </si>
+  <si>
+    <t>Staccatofy</t>
+  </si>
+  <si>
+    <t>https://www.staccatofy.com</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/staccatofy</t>
+  </si>
+  <si>
+    <t>Start Track</t>
+  </si>
+  <si>
+    <t>https://start-track.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/ztapes </t>
+  </si>
+  <si>
+    <t>starttracker</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/start-track</t>
+  </si>
+  <si>
+    <t>Surviving the Golden Age</t>
+  </si>
+  <si>
+    <t>http://survivingthegoldenage.com</t>
+  </si>
+  <si>
+    <t>StGABlog</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/surviving-the-golden-ages</t>
+  </si>
+  <si>
+    <t>Swell Tone</t>
+  </si>
+  <si>
+    <t>https://swelltonemusic.com</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/swell-tone</t>
+  </si>
+  <si>
+    <t>facebook.com/swelltonemusic</t>
+  </si>
+  <si>
+    <t>SwellToneMusic</t>
+  </si>
+  <si>
+    <t>To The Point Music</t>
+  </si>
+  <si>
+    <t>https://tothepointmusic.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/tothepointmusic </t>
+  </si>
+  <si>
+    <t>instagram.com/tothepointmusic</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/to-the-point-music</t>
+  </si>
+  <si>
+    <t>Tonic Grain</t>
+  </si>
+  <si>
+    <t>https://graintonic.blogspot.com</t>
+  </si>
+  <si>
+    <t>graintonic</t>
+  </si>
+  <si>
+    <t>instagram.com/tonicgrain</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/tonic-grain</t>
+  </si>
+  <si>
+    <t>Too Good Music</t>
+  </si>
+  <si>
+    <t>austin@toogoodmusic.com</t>
+  </si>
+  <si>
+    <t>https://toogoodmusic.com</t>
+  </si>
+  <si>
+    <t>instagram.com/itstoogoodmusic</t>
+  </si>
+  <si>
+    <t>itstoogoodmusic</t>
+  </si>
+  <si>
+    <t>Two Story Melody</t>
+  </si>
+  <si>
+    <t>https://twostorymelody.com</t>
+  </si>
+  <si>
+    <t>facebook.com/twostorymelody</t>
+  </si>
+  <si>
+    <t>TwoStoryMelody</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/two-story-melody</t>
+  </si>
+  <si>
+    <t>Unheard Gems</t>
+  </si>
+  <si>
+    <t>https://www.unheardgems.com</t>
+  </si>
+  <si>
+    <t>UnheardGems</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/unheard-gems</t>
+  </si>
+  <si>
+    <t>Unrecorded</t>
+  </si>
+  <si>
+    <t>submissions@unrecordedmu.com</t>
+  </si>
+  <si>
+    <t>https://unrecordedmu.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/Unrecorded </t>
+  </si>
+  <si>
+    <t>Unrecordedmu</t>
+  </si>
+  <si>
+    <t>Upstream Indie</t>
+  </si>
+  <si>
+    <t>https://upstreamindie.com</t>
+  </si>
+  <si>
+    <t>Vizaural Music</t>
+  </si>
+  <si>
+    <t>https://vizaural.music.blog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/VizauralMusic </t>
+  </si>
+  <si>
+    <t>VizauralMusic</t>
+  </si>
+  <si>
+    <t>The Weekly Coos</t>
+  </si>
+  <si>
+    <t>pigeonmontes@gmail.com</t>
+  </si>
+  <si>
+    <t>https://theweeklycoos.blog</t>
+  </si>
+  <si>
+    <t>instagram.com/pigeonmontes</t>
+  </si>
+  <si>
+    <t>The Wild Honey Pie</t>
+  </si>
+  <si>
+    <t>https://www.thewildhoneypie.com</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/the-wild-honey-pie</t>
+  </si>
+  <si>
+    <t>thewildhoneypie</t>
+  </si>
+  <si>
+    <t>facebook.com/thewildhoneypie</t>
+  </si>
+  <si>
+    <t>Wild Patterns</t>
+  </si>
+  <si>
+    <t>wildpatternsrecords@gmail.com</t>
+  </si>
+  <si>
+    <t>https://wldpttrns.tumblr.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/wildpatterns </t>
+  </si>
+  <si>
+    <t>WildPatterns</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/wild-patterns</t>
+  </si>
+  <si>
+    <t>Wolf in a Suit</t>
+  </si>
+  <si>
+    <t>suitforawolf@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.wolfinasuit.com</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/wolf-in-a-suit</t>
+  </si>
+  <si>
+    <t>facebook.com/wolfinasuit</t>
+  </si>
+  <si>
+    <t>wolfinasuitblog</t>
+  </si>
+  <si>
+    <t>2DopeBoyz</t>
+  </si>
+  <si>
+    <t>2dbz.music@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.2dopeboyz.com</t>
+  </si>
+  <si>
+    <t>America’s Realest Music Blog</t>
+  </si>
+  <si>
+    <t>https://www.americasrealestmusic.com</t>
+  </si>
+  <si>
+    <t>instagram.com/americasrealestmusic</t>
+  </si>
+  <si>
+    <t>_ARMusicBlog</t>
+  </si>
+  <si>
+    <t>BangerOfTheDay</t>
+  </si>
+  <si>
+    <t>https://www.bangeroftheday.co</t>
+  </si>
+  <si>
+    <t>facebook.com/bangeroftheday</t>
+  </si>
+  <si>
+    <t>instagram.com/_bangeroftheday</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/bangeroftheday</t>
+  </si>
+  <si>
+    <t>Beat Tape Co-Op</t>
+  </si>
+  <si>
+    <t>beattapeco.op@gmail.com</t>
+  </si>
+  <si>
+    <t>https://beattapeco-op.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/BeatTapeCoOpSite </t>
+  </si>
+  <si>
+    <t>BeatTapeCo_Op</t>
+  </si>
+  <si>
+    <t>Bird City View</t>
+  </si>
+  <si>
+    <t>https://birdcityview.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/BirdCityView </t>
+  </si>
+  <si>
+    <t>instagram.com/birdcityview</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/birdcityview</t>
+  </si>
+  <si>
+    <t>Bong Mines Entertainment Blog</t>
+  </si>
+  <si>
+    <t>https://www.bongminesentertainment.com</t>
+  </si>
+  <si>
+    <t>facebook.com/bongminesentertainment</t>
+  </si>
+  <si>
+    <t>bongminesent</t>
+  </si>
+  <si>
+    <t>PO. Box 1745, Baldwin, NY 11510</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/bong-mines-entertainment</t>
+  </si>
+  <si>
+    <t>Buzz Club Music Blog</t>
+  </si>
+  <si>
+    <t>https://buzzclub-musicblog.godaddysites.com</t>
+  </si>
+  <si>
+    <t>instagram.com/buzzclubmusic</t>
+  </si>
+  <si>
+    <t>Central Sauce</t>
+  </si>
+  <si>
+    <t>https://centralsauce.com</t>
+  </si>
+  <si>
+    <t>central_sauce</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/centralsauce</t>
+  </si>
+  <si>
+    <t>Critiques by SwanoDown</t>
+  </si>
+  <si>
+    <t>https://swanodown.com</t>
+  </si>
+  <si>
+    <t>instagram.com/imaniwjwright1</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/critiques-by-swanodown</t>
+  </si>
+  <si>
+    <t>Daily Chiefers</t>
+  </si>
+  <si>
+    <t>https://dailychiefers.com</t>
+  </si>
+  <si>
+    <t>ChiefersDaily</t>
+  </si>
+  <si>
+    <t>DOPECAUSEWESAID</t>
+  </si>
+  <si>
+    <t>info@dopecausewesaid.com</t>
+  </si>
+  <si>
+    <t>https://www.dopecausewesaid.com</t>
+  </si>
+  <si>
+    <t>facebook.com/dopecausewesaid</t>
+  </si>
+  <si>
+    <t>Earmilk</t>
+  </si>
+  <si>
+    <t>https://www.earmilk.com</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/earmilk</t>
+  </si>
+  <si>
+    <t>EARMILK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/earmilk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/ElevatorMag </t>
+  </si>
+  <si>
+    <t>ELEVATOR_</t>
+  </si>
+  <si>
+    <t>ELEVATOR</t>
+  </si>
+  <si>
+    <t>info@elevatormag.com</t>
+  </si>
+  <si>
+    <t>https://www.elevatormag.com</t>
+  </si>
+  <si>
+    <t>ESSINCE.com</t>
+  </si>
+  <si>
+    <t>essince@royalheirent.com</t>
+  </si>
+  <si>
+    <t>https://www.essince.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/itsessince </t>
+  </si>
+  <si>
+    <t>Essince</t>
+  </si>
+  <si>
+    <t>Fashionably Early</t>
+  </si>
+  <si>
+    <t>https://fashionably-early.com</t>
+  </si>
+  <si>
+    <t>fashearlymusic</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/fashionably-early</t>
+  </si>
+  <si>
+    <t>Global Money World</t>
+  </si>
+  <si>
+    <t>https://globalmoneyworld.com</t>
+  </si>
+  <si>
+    <t>facebook.com/globalmoneyworld</t>
+  </si>
+  <si>
+    <t>AllGlobalWorld</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/global-money-world</t>
+  </si>
+  <si>
+    <t>GRID MAGAZINE</t>
+  </si>
+  <si>
+    <t>https://thegridmagazine.com</t>
+  </si>
+  <si>
+    <t>thegridmagazine</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/grid-magazine</t>
+  </si>
+  <si>
+    <t>GrungeCake</t>
+  </si>
+  <si>
+    <t>https://grungecake.com</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/grungecake</t>
+  </si>
+  <si>
+    <t>THEYAMS &amp; GrungeCake</t>
+  </si>
+  <si>
+    <t>IndieHipHop.com</t>
+  </si>
+  <si>
+    <t>contact@indiehiphop.com</t>
+  </si>
+  <si>
+    <t>http://www.indiehiphop.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/indiehiphopofficial </t>
+  </si>
+  <si>
+    <t>IndieHipHop101</t>
+  </si>
+  <si>
+    <t>Melobeam</t>
+  </si>
+  <si>
+    <t>https://melobeam.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/melobeammagazine </t>
+  </si>
+  <si>
+    <t>_Melobeam</t>
+  </si>
+  <si>
+    <t>Music Life Social</t>
+  </si>
+  <si>
+    <t>submissions@musiclifesocial.com</t>
+  </si>
+  <si>
+    <t>https://musiclifesocial.com</t>
+  </si>
+  <si>
+    <t>facebook.com/musiclifesocial</t>
+  </si>
+  <si>
+    <t>instagram.com/MusicLifeSocial</t>
+  </si>
+  <si>
+    <t>Nevernaire Stomping Ground</t>
+  </si>
+  <si>
+    <t>https://nevernaire.com</t>
+  </si>
+  <si>
+    <t>instagram.com/nevernaire</t>
+  </si>
+  <si>
+    <t>New Sick Music</t>
+  </si>
+  <si>
+    <t>contact@newsickmusic.com</t>
+  </si>
+  <si>
+    <t>https://newsickmusic.com</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/newsickmusic</t>
+  </si>
+  <si>
+    <t>Now Entertainment</t>
+  </si>
+  <si>
+    <t>https://www.nowentertainment.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/OfficialNOWEnt </t>
+  </si>
+  <si>
+    <t>OfficialNOWEnt</t>
+  </si>
+  <si>
+    <t>PO Box 271, Gordon, GA 31031</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/now-entertainment</t>
+  </si>
+  <si>
+    <t>OK-THO</t>
+  </si>
+  <si>
+    <t>info@ok-tho.com</t>
+  </si>
+  <si>
+    <t>http://www.ok-tho.com</t>
+  </si>
+  <si>
+    <t>facebook.com/okthodotcom</t>
+  </si>
+  <si>
+    <t>OkThoMag</t>
+  </si>
+  <si>
+    <t>On the Scene New York</t>
+  </si>
+  <si>
+    <t>jonathan@onthesceneny.com</t>
+  </si>
+  <si>
+    <t>http://www.onthesceneny.com</t>
+  </si>
+  <si>
+    <t>facebook.com/OnTheSceneNY/</t>
+  </si>
+  <si>
+    <t>OnTheSceneNY</t>
+  </si>
+  <si>
+    <t>Platinum Indies</t>
+  </si>
+  <si>
+    <t>https://bitsubmit.net/THISISPLATINUMHIPHOP</t>
+  </si>
+  <si>
+    <t>PlatinumIndies</t>
+  </si>
+  <si>
+    <t>Ratings Game Music</t>
+  </si>
+  <si>
+    <t>https://ratingsgamemusic.com</t>
+  </si>
+  <si>
+    <t>RatingsGame</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/ratings-game-music</t>
+  </si>
+  <si>
+    <t>Shebloggin</t>
+  </si>
+  <si>
+    <t>shebloggin@gmail.com</t>
+  </si>
+  <si>
+    <t>http://shebloggin.com</t>
+  </si>
+  <si>
+    <t>facebook.com/officialshebloggin</t>
+  </si>
+  <si>
+    <t>shebloggin</t>
+  </si>
+  <si>
+    <t>SoundoftheDrill</t>
+  </si>
+  <si>
+    <t>https://soundofthedrill.com</t>
+  </si>
+  <si>
+    <t>facebook.com/SOTDcom</t>
+  </si>
+  <si>
+    <t>instagram.com/SoundoftheDrill</t>
+  </si>
+  <si>
+    <t>Sphere of Hip Hop</t>
+  </si>
+  <si>
+    <t>https://www.sphereofhiphop.com</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/sphere-of-hip-hop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/sphereofhiphop </t>
+  </si>
+  <si>
+    <t>sphereofhiphop</t>
+  </si>
+  <si>
+    <t>Str8OutDaDen</t>
+  </si>
+  <si>
+    <t>https://str8outdaden.com</t>
+  </si>
+  <si>
+    <t>instagram.com/str8outdaden</t>
+  </si>
+  <si>
+    <t>str8outdaden</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/str8outdaden</t>
+  </si>
+  <si>
+    <t>Topcitysound</t>
+  </si>
+  <si>
+    <t>topcitysound1@gmail.com</t>
+  </si>
+  <si>
+    <t>https://us.topcitysound.net</t>
+  </si>
+  <si>
+    <t>facebook.com/hitbazemusic</t>
+  </si>
+  <si>
+    <t>UGSMAG</t>
+  </si>
+  <si>
+    <t>info@ugsmag.com</t>
+  </si>
+  <si>
+    <t>https://ugsmag.com</t>
+  </si>
+  <si>
+    <t>ugsmag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/ugsmag </t>
+  </si>
+  <si>
+    <t>UndergroundHipHopBLOG.com</t>
+  </si>
+  <si>
+    <t>ughhblog@gmail.com</t>
+  </si>
+  <si>
+    <t>https://undergroundhiphopblog.com</t>
+  </si>
+  <si>
+    <t>ughhblog</t>
+  </si>
+  <si>
+    <t>facebook.com/ughhblog</t>
+  </si>
+  <si>
+    <t>The Word Is Bond</t>
+  </si>
+  <si>
+    <t>https://www.thewordisbond.com</t>
+  </si>
+  <si>
+    <t>thewordisbond</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/the-word-is-bond</t>
+  </si>
+  <si>
+    <t>World Wide Waves</t>
+  </si>
+  <si>
+    <t>https://www.worldwidewaves.co</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/world-wide-waves</t>
+  </si>
+  <si>
+    <t>facebook.com/worldwidewavesofficial</t>
+  </si>
+  <si>
+    <t>instagram.com/worldwidewaves_</t>
+  </si>
+  <si>
+    <t>Xttrawave</t>
+  </si>
+  <si>
+    <t>https://xttrawave.com</t>
+  </si>
+  <si>
+    <t>xttrawave</t>
+  </si>
+  <si>
+    <t>instagram.com/xttrawave</t>
+  </si>
+  <si>
+    <t>Yellow &amp; Black</t>
+  </si>
+  <si>
+    <t>https://yellowblackmusic.com</t>
+  </si>
+  <si>
+    <t>YBMusical</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/yellow-black</t>
+  </si>
+  <si>
+    <t>The New LoFi</t>
+  </si>
+  <si>
+    <t>http://thenewlofi.com</t>
+  </si>
+  <si>
+    <t>THENEWLOFI</t>
+  </si>
+  <si>
+    <t>https://www.submithub.com/blog/the-new-lofi</t>
+  </si>
+  <si>
+    <t>Grown Folks Music</t>
+  </si>
+  <si>
+    <t>submissions@grownfolksmusic.com</t>
+  </si>
+  <si>
+    <t>https://grownfolksmusic.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/GrownFolksMusic1 </t>
+  </si>
+  <si>
+    <t>GrownFolksMusic</t>
+  </si>
+  <si>
+    <t>Urban Radio Nation</t>
+  </si>
+  <si>
+    <t>http://www.urbanradionation.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/UrbanRadioNation </t>
+  </si>
+  <si>
+    <t>UrbnRadioNation</t>
+  </si>
+  <si>
+    <t>24Hip-Hop</t>
+  </si>
+  <si>
+    <t>24hiphop.com@gmail.com</t>
+  </si>
+  <si>
+    <t>https://24hip-hop.com</t>
+  </si>
+  <si>
+    <t>_24HipHop</t>
+  </si>
+  <si>
+    <t>instagram.com/24hiphop</t>
+  </si>
+  <si>
+    <t>AllDatNoise</t>
+  </si>
+  <si>
+    <t>https://alldatnoise.com</t>
+  </si>
+  <si>
+    <t>facebook.com/alldatnoise1</t>
+  </si>
+  <si>
+    <t>instagram.com/alldatnoise</t>
+  </si>
+  <si>
+    <t>BLAC TV</t>
+  </si>
+  <si>
+    <t>brandonblac@yahoo.com</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/BrandonBLAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/BlacMuzic </t>
+  </si>
+  <si>
+    <t>blacmuzic</t>
+  </si>
+  <si>
+    <t>Creative-HipHop</t>
+  </si>
+  <si>
+    <t>https://www.creative-hiphop.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/creativehiphop </t>
+  </si>
+  <si>
+    <t>instagram.com/creative_hiphop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead End Hip Hop </t>
+  </si>
+  <si>
+    <t>deadendhiphop@gmail.com</t>
+  </si>
+  <si>
+    <t>https://deadendhiphop.com</t>
+  </si>
+  <si>
+    <t>facebook.com/DeadEndHipHop</t>
+  </si>
+  <si>
+    <t>DeadEndHipHop</t>
+  </si>
+  <si>
+    <t>Getmybuzzup</t>
+  </si>
+  <si>
+    <t>submissions@getmybuzzup.com</t>
+  </si>
+  <si>
+    <t>https://getmybuzzup.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/getmybuzzup </t>
+  </si>
+  <si>
+    <t>instagram.com/getmybuzzup</t>
+  </si>
+  <si>
+    <t>The HYPE Magazine</t>
+  </si>
+  <si>
+    <t>contact@thehypemagazine.com</t>
+  </si>
+  <si>
+    <t>https://www.thehypemagazine.com</t>
+  </si>
+  <si>
+    <t>facebook.com/thehypemagazine</t>
+  </si>
+  <si>
+    <t>TheHypeMagazine</t>
+  </si>
+  <si>
+    <t>HYPE OFF LIFE Magazine</t>
+  </si>
+  <si>
+    <t>info@hypeofflife.com</t>
+  </si>
+  <si>
+    <t>https://hypeofflife.com</t>
+  </si>
+  <si>
+    <t>HypeOffLife</t>
+  </si>
+  <si>
+    <t>instagram.com/hypeofflife</t>
+  </si>
+  <si>
+    <t>Miixtapechiick</t>
+  </si>
+  <si>
+    <t>https://miixtapechiick.com</t>
+  </si>
+  <si>
+    <t>facebook.com/miixtapechiickllc</t>
+  </si>
+  <si>
+    <t>instagram.com/miixtapechiickdotcom</t>
+  </si>
+  <si>
+    <t>FunkCity.net</t>
+  </si>
+  <si>
+    <t>facebook.com/FunkCity.net</t>
+  </si>
+  <si>
+    <t>FunkCityATL</t>
+  </si>
+  <si>
+    <t>https://funkcity.net</t>
+  </si>
+  <si>
+    <t>jake@funkcity.net</t>
+  </si>
+  <si>
+    <t>Soul Tracks</t>
+  </si>
+  <si>
+    <t>info@soultracks.com</t>
+  </si>
+  <si>
+    <t>https://www.soultracks.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/soultracks </t>
+  </si>
+  <si>
+    <t>soultrackscom</t>
+  </si>
+  <si>
+    <t>Soul Bounce</t>
+  </si>
+  <si>
+    <t>soulbounceonline@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.soulbounce.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/soulbounceonline </t>
+  </si>
+  <si>
+    <t>SoulBounce</t>
+  </si>
+  <si>
+    <t>KXCI</t>
+  </si>
+  <si>
+    <t>duncan@kxci.org</t>
+  </si>
+  <si>
+    <t>https://www.kxci.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/KXCITucson </t>
+  </si>
+  <si>
+    <t>KXCIofficial</t>
+  </si>
+  <si>
+    <r>
+      <t>220 S. 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">th </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ave. Tucson, AZ 85701</t>
+    </r>
+  </si>
+  <si>
+    <t>KXUA</t>
+  </si>
+  <si>
+    <t>charts@uark.edu</t>
+  </si>
+  <si>
+    <t>http://kxua.uark.edu</t>
+  </si>
+  <si>
+    <t>A657 Arkansas Union, Fayetteville, AR 72701</t>
+  </si>
+  <si>
+    <t>KALX</t>
+  </si>
+  <si>
+    <t>music@kalx.berkeley.edu</t>
+  </si>
+  <si>
+    <t>https://kalx.berkeley.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/90.7fm </t>
+  </si>
+  <si>
+    <t>KALXradio</t>
+  </si>
+  <si>
+    <t>KDAWG</t>
+  </si>
+  <si>
+    <t>kdawg@redlands.edu</t>
+  </si>
+  <si>
+    <t>https://www.kdawgradio.com</t>
+  </si>
+  <si>
+    <t>instagram.com/kdawg_media</t>
+  </si>
+  <si>
+    <t>KSCR</t>
+  </si>
+  <si>
+    <t>RadioKSCR</t>
+  </si>
+  <si>
+    <t>http://www.radiokscr.com</t>
+  </si>
+  <si>
+    <t>4728 N. Peck Rd. Ste. A, El Monte, CA 91732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSFS </t>
+  </si>
+  <si>
+    <t>info@ksfsmedia.net</t>
+  </si>
+  <si>
+    <t>https://www.becamedia.net</t>
+  </si>
+  <si>
+    <t>facebook.com/KSFSradio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSJS </t>
+  </si>
+  <si>
+    <t>https://www.ksjs.org</t>
+  </si>
+  <si>
+    <t>ksjsfm</t>
+  </si>
+  <si>
+    <t>facebook.com/ksjsfm</t>
+  </si>
+  <si>
+    <t>Hugh Gillis Hall #132, San Jose, CA 95192-0094</t>
+  </si>
+  <si>
+    <t>KZFR</t>
+  </si>
+  <si>
+    <t>grant@kzfr.org</t>
+  </si>
+  <si>
+    <t>http://www.kzfr.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/kzfr90.1fm </t>
+  </si>
+  <si>
+    <t>kzfr901FM</t>
+  </si>
+  <si>
+    <t>341 Broadway #411, Chico, CA 95928</t>
+  </si>
+  <si>
+    <t>KRBX</t>
+  </si>
+  <si>
+    <t>music@radioboise.org</t>
+  </si>
+  <si>
+    <t>https://radioboise.us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/radioboise </t>
+  </si>
+  <si>
+    <t>radioboise</t>
+  </si>
+  <si>
+    <t>1020 W. Main St. #50, Boise, ID 83702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIUS (The Dog) </t>
+  </si>
+  <si>
+    <t>https://www.883thedog.com</t>
+  </si>
+  <si>
+    <t>instagram.com/883thedog</t>
+  </si>
+  <si>
+    <t>326 Sallee Hall, Macomb, IL 61455</t>
+  </si>
+  <si>
+    <t>WMXM</t>
+  </si>
+  <si>
+    <t>md@wmxm.org</t>
+  </si>
+  <si>
+    <t>http://wmxm.org</t>
+  </si>
+  <si>
+    <t>instagram.com/wmxm88.9</t>
+  </si>
+  <si>
+    <t>555 N. Sheridan Rd. Lake Forest, IL 60045</t>
+  </si>
+  <si>
+    <t>KJHK</t>
+  </si>
+  <si>
+    <t>submitmusic@kjhk.org</t>
+  </si>
+  <si>
+    <t>https://kjhk.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/KJHK907 </t>
+  </si>
+  <si>
+    <t>kjhk</t>
+  </si>
+  <si>
+    <t>1301 Jayhawk Blvd. Kansas Union, Rm. 427, Lawrence, KS 66045</t>
+  </si>
+  <si>
+    <t>WERS</t>
+  </si>
+  <si>
+    <t>aaamc@wers.org</t>
+  </si>
+  <si>
+    <t>https://www.wers.org</t>
+  </si>
+  <si>
+    <t>facebook.com/wers889fm @</t>
+  </si>
+  <si>
+    <t>WERS889FM</t>
+  </si>
+  <si>
+    <t>120 Boylston St., Boston, MA 02116</t>
+  </si>
+  <si>
+    <t>WYCE</t>
+  </si>
+  <si>
+    <t>shane@grcmc.org</t>
+  </si>
+  <si>
+    <t>http://www.wyce.org</t>
+  </si>
+  <si>
+    <t>facebook.com/WYCEradio</t>
+  </si>
+  <si>
+    <t>WYCEradio</t>
+  </si>
+  <si>
+    <t>711 Bridge St. NW, Grand Rapids, MI 49504</t>
+  </si>
+  <si>
+    <t>KUMM</t>
+  </si>
+  <si>
+    <t>music@kumm.org</t>
+  </si>
+  <si>
+    <t>http://www.kumm.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/kummradio </t>
+  </si>
+  <si>
+    <t>kumm_radio</t>
+  </si>
+  <si>
+    <r>
+      <t>600 E. 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">th </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>St., Morris, MN 56267</t>
+    </r>
+  </si>
+  <si>
+    <t>KKFI</t>
+  </si>
+  <si>
+    <t>newmusic@kkfi.org</t>
+  </si>
+  <si>
+    <t>https://www.kkfi.org</t>
+  </si>
+  <si>
+    <t>kkfi901fm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instagram.com/kkfi901fm </t>
+  </si>
+  <si>
+    <t>PO Box 32250, Kansas City, MO 64171</t>
+  </si>
+  <si>
+    <t>KWNK</t>
+  </si>
+  <si>
+    <t>https://www.kwnkradio.org</t>
+  </si>
+  <si>
+    <t>facebook.com/kwnkradio</t>
+  </si>
+  <si>
+    <t>instagram.com/kwnk97.7</t>
+  </si>
+  <si>
+    <t>1717 S. Wells Ave. Reno, NV 89502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WNTI </t>
+  </si>
+  <si>
+    <t>radio@centenaryuniversity.edu</t>
+  </si>
+  <si>
+    <t>http://www.wnti.org</t>
+  </si>
+  <si>
+    <t>400 Jefferson St., Hackettstown, NJ 07840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/wnti919fm </t>
+  </si>
+  <si>
+    <t>instagram.com/wnti_radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldies Garage </t>
+  </si>
+  <si>
+    <t>genya@genyaravan.com</t>
+  </si>
+  <si>
+    <t>https://www.goldiesgarageshow.com</t>
+  </si>
+  <si>
+    <t>facebook.com/genya.ravan &amp; facebook.com/goldiesgarage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +2285,47 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +2348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -200,6 +2363,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,13 +2750,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B53813-76F7-4E64-937E-CDEC69F32CA0}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -631,111 +2818,1261 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="J24">
+        <v>5743860851</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="J49">
+        <v>6464041638</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="J51">
+        <v>4783875392</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="J56">
+        <v>2064761693</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>555</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K8" r:id="rId1" xr:uid="{77BD1266-DCA0-44D2-9BFB-1EAD846B19A3}"/>
+    <hyperlink ref="K45" r:id="rId2" xr:uid="{531E7929-3EF2-47BF-B856-41354967AA66}"/>
+    <hyperlink ref="K49" r:id="rId3" xr:uid="{DECE8D29-24D9-4196-A9E0-E90061DAD18E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6720E4D-9D5E-4E29-A3B7-B145B88A400E}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48D386E-CBEC-4FB1-9297-C88EC9A93379}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D679B3A-6FF4-4113-9593-1BFF859C82FF}">
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,6 +4112,267 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="J5">
+        <v>4795755883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>687</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="J6">
+        <v>6164594788</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48D386E-CBEC-4FB1-9297-C88EC9A93379}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D679B3A-6FF4-4113-9593-1BFF859C82FF}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="J2">
+        <v>8169313122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -782,10 +4380,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988ACEB1-FA3D-4126-B542-EE42033E74EA}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,6 +4417,75 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -826,10 +4493,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A4ED0D-F936-4DD5-9947-764A260F3F05}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,6 +4525,165 @@
       </c>
       <c r="H1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -868,13 +4694,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A6A3AF-62F5-4C78-98DC-37EEC5A78B58}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="E11:F11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -955,6 +4784,1205 @@
         <v>22</v>
       </c>
       <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7">
+        <v>4057621909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J19">
+        <v>7742710483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="J34">
+        <v>3473076721</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="J39">
+        <v>6788169778</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="J43">
+        <v>3015794973</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>598</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="J51">
+        <v>4089245757</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="J52">
+        <v>5308950131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="J53">
+        <v>2082582072</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="J54">
+        <v>3092983218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="J55">
+        <v>6178248084</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="J56">
+        <v>3205896076</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="J58">
+        <v>9089794355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>719</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -963,15 +5991,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF7842E-30DE-4CF5-9B0E-49CE2A73BCB7}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -999,13 +6030,598 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="J16">
+        <v>4049831205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>617</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="J23">
+        <v>5206231000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="J25">
+        <v>8477355220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="J26">
+        <v>7858645483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{70FA6A80-4CC1-473B-938D-88A46B7C11A8}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{F3E0F696-504E-4814-91FE-A87CC8DB0B3E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/EmailBlast/Excel/Countries/UnitedStates.xlsx
+++ b/EmailBlast/Excel/Countries/UnitedStates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Robots\Ruby\EmailBlast\Excel\Countries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DB60E0-403B-4B18-800A-51EC6878BCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F490C3B9-E7DE-4CB4-A8D6-875D157DB4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1320" windowWidth="10200" windowHeight="7875" firstSheet="6" activeTab="8" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
+    <workbookView xWindow="0" yWindow="1320" windowWidth="10200" windowHeight="7875" firstSheet="7" activeTab="8" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrumental" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Everything" sheetId="6" r:id="rId9"/>
     <sheet name="SubmitHub" sheetId="11" r:id="rId10"/>
     <sheet name="Album" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4763" uniqueCount="3053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6474" uniqueCount="4003">
   <si>
     <t>Name</t>
   </si>
@@ -9507,12 +9508,2974 @@
   <si>
     <t>prairiepublic</t>
   </si>
+  <si>
+    <t>KDSU</t>
+  </si>
+  <si>
+    <t>info@prairiepublic.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/prairiepublic </t>
+  </si>
+  <si>
+    <t>KRFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pissin' on the Mainframe </t>
+  </si>
+  <si>
+    <t>tbkatiep@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untitled DJ Rollie D Radio Show </t>
+  </si>
+  <si>
+    <t>djrollied@gmail.com</t>
+  </si>
+  <si>
+    <t>ACRN</t>
+  </si>
+  <si>
+    <t>music4acrn@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.acrn.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/ACRNRockLobster </t>
+  </si>
+  <si>
+    <t>1 Park Place #329, Athens, OH 45701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BearCast Radio </t>
+  </si>
+  <si>
+    <t>alexmacon@bearcastmedia.com</t>
+  </si>
+  <si>
+    <t>https://www.bearcastradio.com</t>
+  </si>
+  <si>
+    <t>2217 Mary Emery Hall, PO Box 210003, Cincinnati, OH 45221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/bearcastmedia </t>
+  </si>
+  <si>
+    <t>bearcastmedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cream of Broccoli Radio Hour </t>
+  </si>
+  <si>
+    <t>md@wruw.org</t>
+  </si>
+  <si>
+    <t>https://wruw.org</t>
+  </si>
+  <si>
+    <t>facebook.com/wruwfm</t>
+  </si>
+  <si>
+    <t>11220 Bellflower Rd. Cleveland, OH 44106</t>
+  </si>
+  <si>
+    <t>WBGU</t>
+  </si>
+  <si>
+    <t>bgfalconmedia@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.bgfalconmedia.com/wbgu-fm</t>
+  </si>
+  <si>
+    <t>101 Kuhlin Ctr. Bowling Green, OH 43403</t>
+  </si>
+  <si>
+    <t>wbgufm</t>
+  </si>
+  <si>
+    <t>WCBE</t>
+  </si>
+  <si>
+    <t>mbrennan@wcbe.org</t>
+  </si>
+  <si>
+    <t>http://www.wcbe.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/WCBE90.5 </t>
+  </si>
+  <si>
+    <t>WCBE905Columbus</t>
+  </si>
+  <si>
+    <t>540 Jack Gibbs Blvd. Columbus, OH 43215</t>
+  </si>
+  <si>
+    <t>WCSB</t>
+  </si>
+  <si>
+    <t>mdirector.wcsb@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.wcsb.org</t>
+  </si>
+  <si>
+    <t>facebook.com/WCSB89.3fm</t>
+  </si>
+  <si>
+    <t>3100 Chester Ave. Cleveland, OH 44115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WJCU </t>
+  </si>
+  <si>
+    <t>wjcu.md@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.wjcu.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/wjcu887 </t>
+  </si>
+  <si>
+    <t>WJCU887</t>
+  </si>
+  <si>
+    <t>1 John Carroll Blvd. University Heights, OH 44118</t>
+  </si>
+  <si>
+    <t>Red Hawk Radio</t>
+  </si>
+  <si>
+    <t>davidsd6@miamioh.edu</t>
+  </si>
+  <si>
+    <t>http://www.redhawkradio.com</t>
+  </si>
+  <si>
+    <t>instagram.com/redhawkradio</t>
+  </si>
+  <si>
+    <t>221-C Williams Hall, Oxford, OH 45056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRUW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/wruwfm </t>
+  </si>
+  <si>
+    <t>WRUW</t>
+  </si>
+  <si>
+    <t>WWSU</t>
+  </si>
+  <si>
+    <t>wwsu3@wright.edu</t>
+  </si>
+  <si>
+    <t>https://www.wright.edu/wwsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/WWSU1069 </t>
+  </si>
+  <si>
+    <t>WWSU1069</t>
+  </si>
+  <si>
+    <t>018 Student Union, Dayton, OH 45435</t>
+  </si>
+  <si>
+    <t>WXUT</t>
+  </si>
+  <si>
+    <t>wxutmusic@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.wxut.com</t>
+  </si>
+  <si>
+    <t>Mail Stop 118, 2801 W. Bancroft, SU2515, Toledo, OH 43606</t>
+  </si>
+  <si>
+    <t>WYSO</t>
+  </si>
+  <si>
+    <t>jfromholt@wyso.org</t>
+  </si>
+  <si>
+    <t>https://www.wyso.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/wyso91.3 </t>
+  </si>
+  <si>
+    <t>150 E. South College St., Yellow Springs, OH 45387</t>
+  </si>
+  <si>
+    <t>KRSC</t>
+  </si>
+  <si>
+    <t>onlyoklahoma@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.rsuradio.com</t>
+  </si>
+  <si>
+    <t>facebook.com/RSURADIO</t>
+  </si>
+  <si>
+    <t>1701 W. Will Rogers Blvd. Claremore, OK 74017</t>
+  </si>
+  <si>
+    <t>STUDIOU</t>
+  </si>
+  <si>
+    <t>griffin.lowder@ou.edu</t>
+  </si>
+  <si>
+    <t>http://www.ou.edu/studiou</t>
+  </si>
+  <si>
+    <t>395 W. Lindsey St., Norman, OK 73019</t>
+  </si>
+  <si>
+    <t>StudiOURadio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weeknights with Ferris O'Brien </t>
+  </si>
+  <si>
+    <t>ferris@thespyfm.com</t>
+  </si>
+  <si>
+    <t>https://thespyfm.com</t>
+  </si>
+  <si>
+    <t>instagram.com/ferrisobrien</t>
+  </si>
+  <si>
+    <t>ferrisobrien</t>
+  </si>
+  <si>
+    <t>33 NE 7th St., Oklahoma City, OK 73104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drinking from Puddles </t>
+  </si>
+  <si>
+    <t>rockmd@kboo.fm</t>
+  </si>
+  <si>
+    <t>https://www.kboo.fm</t>
+  </si>
+  <si>
+    <r>
+      <t>20 SE. 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">th </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ave. Portland, OR 97214</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/kbooradio </t>
+  </si>
+  <si>
+    <t>KBOO</t>
+  </si>
+  <si>
+    <t>Freeform Portland</t>
+  </si>
+  <si>
+    <t>musicdept@freeformportland.org</t>
+  </si>
+  <si>
+    <t>https://www.freeformportland.org</t>
+  </si>
+  <si>
+    <t>c/o Music Library, 5511 N. Albina Ave. Portland, OR 97217</t>
+  </si>
+  <si>
+    <t>FreeformPDX</t>
+  </si>
+  <si>
+    <t>facebook.com/freeformpdx</t>
+  </si>
+  <si>
+    <t>KBVR</t>
+  </si>
+  <si>
+    <t>fm.music@oregonstate.edu</t>
+  </si>
+  <si>
+    <t>https://kbvrfm.orangemedianetwork.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instagram.com/kbvrfm </t>
+  </si>
+  <si>
+    <t>KBVR_FM</t>
+  </si>
+  <si>
+    <t>406 Student Experience Ctr. 2251 SW Jefferson Way. Corvallis, OR 97331</t>
+  </si>
+  <si>
+    <t>KEOL</t>
+  </si>
+  <si>
+    <t>91.7keol@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.eou.edu/keol</t>
+  </si>
+  <si>
+    <t>1 University Blvd. La Grande, OR 97850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLC </t>
+  </si>
+  <si>
+    <t>klc@lclark.edu</t>
+  </si>
+  <si>
+    <t>http://www.klcradio.com</t>
+  </si>
+  <si>
+    <t>615 S. Palatine Hill Rd. Portland OR 97219</t>
+  </si>
+  <si>
+    <t>instagram.com/klcradio</t>
+  </si>
+  <si>
+    <t>KMUN</t>
+  </si>
+  <si>
+    <t>music@kmun.org</t>
+  </si>
+  <si>
+    <t>https://www.coastradio.org</t>
+  </si>
+  <si>
+    <t>1445 Exchange Ave. PO Box 269, Astoria, OR 97103</t>
+  </si>
+  <si>
+    <t>KPSU</t>
+  </si>
+  <si>
+    <t>music@kpsu.org</t>
+  </si>
+  <si>
+    <t>https://www.kpsu.org</t>
+  </si>
+  <si>
+    <t>instagram.com/kpsu_radio</t>
+  </si>
+  <si>
+    <t>PO Box 751-KPSU/VG, Portland, OR 97207</t>
+  </si>
+  <si>
+    <t>KRVM</t>
+  </si>
+  <si>
+    <t>debi@krvm.org</t>
+  </si>
+  <si>
+    <t>https://www.krvm.org</t>
+  </si>
+  <si>
+    <t>1574 Coburg Rd. PMB 237, Eugene, OR 97401</t>
+  </si>
+  <si>
+    <t>KTEC</t>
+  </si>
+  <si>
+    <t>musicdirector@ktec895.com</t>
+  </si>
+  <si>
+    <t>https://www.ktec895.com</t>
+  </si>
+  <si>
+    <t>3201 Campus Dr. Klamath Falls, OR 97601</t>
+  </si>
+  <si>
+    <t>KWVA</t>
+  </si>
+  <si>
+    <t>music@kwvaradio.org</t>
+  </si>
+  <si>
+    <t>https://kwva.uoregon.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/KWVA88.1 </t>
+  </si>
+  <si>
+    <t>kwva</t>
+  </si>
+  <si>
+    <t>PO Box 3157, Eugene, OR 97403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARC </t>
+  </si>
+  <si>
+    <t>warc@allegheny.edu</t>
+  </si>
+  <si>
+    <t>http://warc.allegheny.edu</t>
+  </si>
+  <si>
+    <t>instagram.com/warc903</t>
+  </si>
+  <si>
+    <t>520 N. Main St. Box C, Meadville, PA 16335</t>
+  </si>
+  <si>
+    <t>WDCV</t>
+  </si>
+  <si>
+    <t>wdcvmd@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.wdcvfm.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/wdcvfm </t>
+  </si>
+  <si>
+    <t>wdcvfm</t>
+  </si>
+  <si>
+    <t>PO Box 1773, Carlisle, PA 17013-2896</t>
+  </si>
+  <si>
+    <t>WDIY</t>
+  </si>
+  <si>
+    <t>WERG</t>
+  </si>
+  <si>
+    <t>drew002@gannon.edu</t>
+  </si>
+  <si>
+    <t>https://www.wergfm.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/905WERG </t>
+  </si>
+  <si>
+    <t>905WERGFM</t>
+  </si>
+  <si>
+    <t>109 University Sq. Erie, PA 16541</t>
+  </si>
+  <si>
+    <t>WIUP</t>
+  </si>
+  <si>
+    <t>90.1wiupfm@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.wiupfm.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/WIUPFM </t>
+  </si>
+  <si>
+    <t>instagram.com/wiupfm</t>
+  </si>
+  <si>
+    <t>121 Stouffer Hall, Indiana, PA 15705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIXQ </t>
+  </si>
+  <si>
+    <t>musicdirector@917theville.com</t>
+  </si>
+  <si>
+    <t>https://www.917theville.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/WIXQ917 </t>
+  </si>
+  <si>
+    <t>WIXQ</t>
+  </si>
+  <si>
+    <t>Student Memorial Ctr. Millersville, PA 17551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WJRH </t>
+  </si>
+  <si>
+    <t>wjrh@lafayette.edu</t>
+  </si>
+  <si>
+    <t>http://www.wjrh.org</t>
+  </si>
+  <si>
+    <t>Farinon Ctr., PO Box 9473, Easton, PA 18042</t>
+  </si>
+  <si>
+    <t>instagram.com/wjrh_radio</t>
+  </si>
+  <si>
+    <t>WMSS</t>
+  </si>
+  <si>
+    <t>music@wmssfm.com</t>
+  </si>
+  <si>
+    <t>https://www.wmssfm.com</t>
+  </si>
+  <si>
+    <t>facebook.com/wmssfm</t>
+  </si>
+  <si>
+    <t>215 Oberlin Rd. Middletown, PA 17057</t>
+  </si>
+  <si>
+    <t>WMUH</t>
+  </si>
+  <si>
+    <t>wmuhmusic@muhlenberg.edu</t>
+  </si>
+  <si>
+    <t>https://www.muhlenberg.edu/wmuh</t>
+  </si>
+  <si>
+    <t>2400 Chew St., Allentown, PA 18104</t>
+  </si>
+  <si>
+    <t>WPTS</t>
+  </si>
+  <si>
+    <t>music@wptsradio.org</t>
+  </si>
+  <si>
+    <t>https://wptsradio.org</t>
+  </si>
+  <si>
+    <t>411 William Pitt Union, Pittsburgh, PA 15260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/wptsradiofm </t>
+  </si>
+  <si>
+    <t>WPTSRadio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WQSU </t>
+  </si>
+  <si>
+    <t>wqsufm@susqu.edu</t>
+  </si>
+  <si>
+    <t>http://www.wqsu.com</t>
+  </si>
+  <si>
+    <t>514 University Ave. Selinsgrove, PA 17870</t>
+  </si>
+  <si>
+    <t>facebook.com/wqsufm889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRCT </t>
+  </si>
+  <si>
+    <t>music@wrct.org</t>
+  </si>
+  <si>
+    <t>http://www.wrct.org</t>
+  </si>
+  <si>
+    <t>1 WRCT Plaza, 5000 Forbes Ave. Pittsburgh, PA 15213</t>
+  </si>
+  <si>
+    <t>facebook.com/wrct883</t>
+  </si>
+  <si>
+    <t>WRKC</t>
+  </si>
+  <si>
+    <t>wrkc@kings.edu</t>
+  </si>
+  <si>
+    <t>https://wrkc.kings.edu</t>
+  </si>
+  <si>
+    <t>133 N. Franklin St., Wilkes Barre, PA 18711</t>
+  </si>
+  <si>
+    <t>facebook.com/885WRKC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WSYC </t>
+  </si>
+  <si>
+    <t>ss2438@ship.edu</t>
+  </si>
+  <si>
+    <t>http://www.wsyc.org</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fl. CUB 246, 1871 Old Main Dr. Shippensburg, PA 17257</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WUSR </t>
+  </si>
+  <si>
+    <t>communication@scranton.edu</t>
+  </si>
+  <si>
+    <t>800 Linden St., Scranton, PA 18510</t>
+  </si>
+  <si>
+    <t>https://www.scranton.edu/academics/cas/communication-and-media/wusr</t>
+  </si>
+  <si>
+    <t>instagram.com/wusr</t>
+  </si>
+  <si>
+    <t>WVYC</t>
+  </si>
+  <si>
+    <t>jschiffm@ycp.edu</t>
+  </si>
+  <si>
+    <t>http://wvyc.ycp.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/ycpwvyc </t>
+  </si>
+  <si>
+    <t>wvycradio</t>
+  </si>
+  <si>
+    <t>441 Country Club Rd. Iosue Student Union, 3rd Fl. York, PA 17403</t>
+  </si>
+  <si>
+    <t>WXPN</t>
+  </si>
+  <si>
+    <t>wxpndesk@xpn.org</t>
+  </si>
+  <si>
+    <t>http://xpn.org</t>
+  </si>
+  <si>
+    <t>facebook.com/885wxpn</t>
+  </si>
+  <si>
+    <t>wxpnfm</t>
+  </si>
+  <si>
+    <t>3025 Walnut St., Philadelphia, PA 19104</t>
+  </si>
+  <si>
+    <t>WXVU</t>
+  </si>
+  <si>
+    <t>wxvu891@villanova.edu</t>
+  </si>
+  <si>
+    <t>https://wxvu.villanova.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instagram.com/wxvuradio </t>
+  </si>
+  <si>
+    <t>wxvu</t>
+  </si>
+  <si>
+    <t>210 Dougherty Hall, 800 Lancaster Ave. Villanova, PA 19085-1699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WYBF </t>
+  </si>
+  <si>
+    <t>wybf891@gmail.com</t>
+  </si>
+  <si>
+    <t>http://cavalierradio.com</t>
+  </si>
+  <si>
+    <t>instagram.com/cavalierradio</t>
+  </si>
+  <si>
+    <t>610 King of Prussia Rd. Radnor, PA 19087</t>
+  </si>
+  <si>
+    <t>WBSR</t>
+  </si>
+  <si>
+    <t>bsrlive@brown.edu</t>
+  </si>
+  <si>
+    <t>https://www.bsrlive.com</t>
+  </si>
+  <si>
+    <t>PO Box 1934, Providence, RI 02912</t>
+  </si>
+  <si>
+    <t>WJMF</t>
+  </si>
+  <si>
+    <t>wjmf@bryant.edu</t>
+  </si>
+  <si>
+    <t>https://wjmf.bryant.edu</t>
+  </si>
+  <si>
+    <t>1150 Douglas Pike, Smithfield, RI 02917</t>
+  </si>
+  <si>
+    <t>WRIU</t>
+  </si>
+  <si>
+    <t>rocksubmissions@wriu.org</t>
+  </si>
+  <si>
+    <t>https://www.wriu.org</t>
+  </si>
+  <si>
+    <t>326 Memorial Union, Kingston, RI 02881</t>
+  </si>
+  <si>
+    <t>instagram.com/wriuradio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/wriuradio </t>
+  </si>
+  <si>
+    <t>WOHM</t>
+  </si>
+  <si>
+    <t>ohmradio963@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.ohmradio963.org</t>
+  </si>
+  <si>
+    <t>PO Box 20241, Charleston, SC 29413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/OhmRadio963 </t>
+  </si>
+  <si>
+    <t>instagram.com/ohmradio963</t>
+  </si>
+  <si>
+    <t>KLND</t>
+  </si>
+  <si>
+    <t>klndradio89.5@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.klndradio895.com</t>
+  </si>
+  <si>
+    <t>facebook.com/klndfmradioSGMS</t>
+  </si>
+  <si>
+    <t>11420 SD Hwy. 63, McLaughlin, SD 57642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KTEQ </t>
+  </si>
+  <si>
+    <t>kteq@mines.sdsmt.edu</t>
+  </si>
+  <si>
+    <t>https://www.kteq.org</t>
+  </si>
+  <si>
+    <t>Surbeck Ctr. 501 E. St. Joseph St., Rapid City, SD 57701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Indie Underground Hour </t>
+  </si>
+  <si>
+    <t>studio@lightning100.com</t>
+  </si>
+  <si>
+    <t>http://www.lightning100.com</t>
+  </si>
+  <si>
+    <t>1310 Clinton St. #200, Nashville, TN 37203</t>
+  </si>
+  <si>
+    <t>Lightning100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Songs on the Wire </t>
+  </si>
+  <si>
+    <t>songsonthewire@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/songsonthewire</t>
+  </si>
+  <si>
+    <t>PO Box 60205, Nashville, TN 37206</t>
+  </si>
+  <si>
+    <t>WXNAfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/annemccue1 </t>
+  </si>
+  <si>
+    <t>Voices</t>
+  </si>
+  <si>
+    <t>joycecobb@wevl.org</t>
+  </si>
+  <si>
+    <t>https://wevl.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/WEVL89.9 </t>
+  </si>
+  <si>
+    <t>WEVL</t>
+  </si>
+  <si>
+    <t>PO Box 40952, Memphis, TN 38174</t>
+  </si>
+  <si>
+    <t>WAWL</t>
+  </si>
+  <si>
+    <t>don.hixson@chattanoogastate.edu</t>
+  </si>
+  <si>
+    <t>https://wawl.org</t>
+  </si>
+  <si>
+    <t>4501 Amnicola Hwy. Chattanooga, TN 37406-1097</t>
+  </si>
+  <si>
+    <t>briancraig@wevl.org</t>
+  </si>
+  <si>
+    <t>WMTS</t>
+  </si>
+  <si>
+    <t>music@wmts.org</t>
+  </si>
+  <si>
+    <t>https://www.wmts.org</t>
+  </si>
+  <si>
+    <t>instagram.com/mtsuwmtsradio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/wmts.fm </t>
+  </si>
+  <si>
+    <t>SPC 58, 1301 E. Main St., Murfreesboro, TN 37132</t>
+  </si>
+  <si>
+    <t>WRVU</t>
+  </si>
+  <si>
+    <t>wrvumd@gmail.com</t>
+  </si>
+  <si>
+    <t>http://wrvu.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instagram.com/wrvunashville </t>
+  </si>
+  <si>
+    <t>WRVUNashville</t>
+  </si>
+  <si>
+    <t>Box 9100, Stn. B, Nashville, TN 37235</t>
+  </si>
+  <si>
+    <t>The Nest</t>
+  </si>
+  <si>
+    <t>wttu@tntech.edu</t>
+  </si>
+  <si>
+    <t>https://www.tntech.edu/wttu</t>
+  </si>
+  <si>
+    <t>PO Box 5113, Cookeville, TN 38505</t>
+  </si>
+  <si>
+    <t>WUMC</t>
+  </si>
+  <si>
+    <t>wumc@milligan.edu</t>
+  </si>
+  <si>
+    <t>http://www.milliganradio.com</t>
+  </si>
+  <si>
+    <t>PO Box 500, Milligan College, TN 37682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WUTC </t>
+  </si>
+  <si>
+    <t>wutc@utc.edu</t>
+  </si>
+  <si>
+    <t>https://www.wutc.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/wutc88 </t>
+  </si>
+  <si>
+    <t>WUTC_FM</t>
+  </si>
+  <si>
+    <t>104 Cadek Hall/Dept. 1151, 615 McCallie Ave. Chattanooga, TN 37403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WUTK </t>
+  </si>
+  <si>
+    <t>wutkmusic@gmail.com</t>
+  </si>
+  <si>
+    <t>https://wutkradio.com</t>
+  </si>
+  <si>
+    <t>P105 Andy Holt Tower, Knoxville, TN 37996-0333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/wutkfm </t>
+  </si>
+  <si>
+    <t>WUTKTheRock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WUTM </t>
+  </si>
+  <si>
+    <t>wutm@utm.edu</t>
+  </si>
+  <si>
+    <t>https://www.wutmradio.com</t>
+  </si>
+  <si>
+    <t>WUTM_Radio</t>
+  </si>
+  <si>
+    <t>538 University St. Gooch Hall 220, Martin, TN 38238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday Morning Blend </t>
+  </si>
+  <si>
+    <t>music893@knon.org</t>
+  </si>
+  <si>
+    <t>http://www.knon.org</t>
+  </si>
+  <si>
+    <t>facebook.com/KNON893</t>
+  </si>
+  <si>
+    <t>KNON893FM</t>
+  </si>
+  <si>
+    <t>13154 Coit Rd. #200, Dallas, TX 75240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KANM </t>
+  </si>
+  <si>
+    <t>mdkanm@gmail.com</t>
+  </si>
+  <si>
+    <t>https://kanm.tamu.edu</t>
+  </si>
+  <si>
+    <t>KANMRadio</t>
+  </si>
+  <si>
+    <t>1236 TAMU-Student Services Bldg. College Station, TX 77843-0001</t>
+  </si>
+  <si>
+    <t>KEOS</t>
+  </si>
+  <si>
+    <t>musdir@keos.org</t>
+  </si>
+  <si>
+    <t>http://www.keos.org</t>
+  </si>
+  <si>
+    <t>PO Box 78, College Station, TX 77841</t>
+  </si>
+  <si>
+    <t>facebook.com/keos891fm</t>
+  </si>
+  <si>
+    <t>KNON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/KNON893 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSAU </t>
+  </si>
+  <si>
+    <t>swilliford@sfasu.edu</t>
+  </si>
+  <si>
+    <t>https://www.ksauradio.com</t>
+  </si>
+  <si>
+    <t>instagram.com/ksauradio</t>
+  </si>
+  <si>
+    <t>KSAURADIO</t>
+  </si>
+  <si>
+    <t>PO Box 13048, Nacogdoches, TX 75962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSYM </t>
+  </si>
+  <si>
+    <t>musicdirectorksym@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.ksym.org</t>
+  </si>
+  <si>
+    <t>1819 N. Main Ave. San Antonio, TX 78212-4299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/ksymradio </t>
+  </si>
+  <si>
+    <t>ksymradio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KTSW </t>
+  </si>
+  <si>
+    <t>ktswmusic@txstate.edu</t>
+  </si>
+  <si>
+    <t>https://ktsw.txstate.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/ktsw899 </t>
+  </si>
+  <si>
+    <t>KTSW_899</t>
+  </si>
+  <si>
+    <t>601 University Dr. Trinity Bldg. San Marcos, TX 78666-4605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUT/KUTX </t>
+  </si>
+  <si>
+    <t>music@kut.org</t>
+  </si>
+  <si>
+    <t>https://www.kut.org</t>
+  </si>
+  <si>
+    <t>300 W. Dean Keeton (A0704), Room BMC 1.108, Austin, TX 78712-1061</t>
+  </si>
+  <si>
+    <t>KUT</t>
+  </si>
+  <si>
+    <t>KVRX</t>
+  </si>
+  <si>
+    <t>music@kvrx.org</t>
+  </si>
+  <si>
+    <t>https://www.kvrx.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/kvrxaustin </t>
+  </si>
+  <si>
+    <t>PO Box D, Austin, TX 78713-7209</t>
+  </si>
+  <si>
+    <t>KWTS</t>
+  </si>
+  <si>
+    <t>kwtsmusic@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kwts91.1</t>
+  </si>
+  <si>
+    <t>kwtsradio</t>
+  </si>
+  <si>
+    <t>PO Box 60747, Canyon, TX 79016-2818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music For Listeners </t>
+  </si>
+  <si>
+    <t>michael@musicforlisteners.com</t>
+  </si>
+  <si>
+    <t>http://www.musicforlisteners.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/musicforlisteners </t>
+  </si>
+  <si>
+    <t>music4listeners</t>
+  </si>
+  <si>
+    <t>One Trinity Pl. San Antonio, TX 78212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afternoon Delight </t>
+  </si>
+  <si>
+    <t>afternoondelight@krcl.org</t>
+  </si>
+  <si>
+    <t>https://www.krcl.org</t>
+  </si>
+  <si>
+    <t>535 W. 300 N. Ste. A, Salt Lake City, UT 84116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/KRCLradio </t>
+  </si>
+  <si>
+    <t>afternoondlight</t>
+  </si>
+  <si>
+    <t>KPCW</t>
+  </si>
+  <si>
+    <t>music@kpcw.org</t>
+  </si>
+  <si>
+    <t>https://www.kpcw.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/kpcwradio </t>
+  </si>
+  <si>
+    <t>KPCWRadio</t>
+  </si>
+  <si>
+    <t>PO Box 1372, Park City, UT 84060</t>
+  </si>
+  <si>
+    <t>KRCL</t>
+  </si>
+  <si>
+    <t>ebayh@krcl.org</t>
+  </si>
+  <si>
+    <t>KRCLradio</t>
+  </si>
+  <si>
+    <t>KZMU</t>
+  </si>
+  <si>
+    <t>crystal@kzmu.org</t>
+  </si>
+  <si>
+    <t>https://www.kzmu.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/KZMUMoab </t>
+  </si>
+  <si>
+    <t>instagram.com/kzmu.moab</t>
+  </si>
+  <si>
+    <t>PO Box 1076, 1734 Rocky Rd. Moab, UT 84532</t>
+  </si>
+  <si>
+    <t>Mixtape</t>
+  </si>
+  <si>
+    <t>emily.jeskie@krcl.org</t>
+  </si>
+  <si>
+    <t>EmilyJeskie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Fresh With DJ Llu </t>
+  </si>
+  <si>
+    <t>djllu@wruv.org</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DJLlu</t>
+  </si>
+  <si>
+    <t>djllu</t>
+  </si>
+  <si>
+    <t>Davis Student Ctr. UVM, Burlington, VT 05405</t>
+  </si>
+  <si>
+    <t>WGDR</t>
+  </si>
+  <si>
+    <t>music@wgdr.org</t>
+  </si>
+  <si>
+    <t>https://www.wgdr.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instagram.com/wgdrwgdhvt </t>
+  </si>
+  <si>
+    <t>wgdrwgdhvt</t>
+  </si>
+  <si>
+    <t>123 Pitkin Rd. Plainfield, VT 05667</t>
+  </si>
+  <si>
+    <t>WRMC</t>
+  </si>
+  <si>
+    <t>wrmc911@gmail.com</t>
+  </si>
+  <si>
+    <t>http://wrmc.middlebury.edu</t>
+  </si>
+  <si>
+    <t>instagram.com/wrmc911</t>
+  </si>
+  <si>
+    <t>Middlebury, VT 05753</t>
+  </si>
+  <si>
+    <t>WRUV</t>
+  </si>
+  <si>
+    <t>musicdirector@wruv.org</t>
+  </si>
+  <si>
+    <t>http://www.wruv.org</t>
+  </si>
+  <si>
+    <t>WRUVFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Breakfast Snob </t>
+  </si>
+  <si>
+    <t>ab.coberly@gmail.com</t>
+  </si>
+  <si>
+    <t>https://wrir.org</t>
+  </si>
+  <si>
+    <t>WRIR</t>
+  </si>
+  <si>
+    <t>facebook.com/wrir973</t>
+  </si>
+  <si>
+    <t>PO Box 4787, Richmond, VA 23220</t>
+  </si>
+  <si>
+    <t>info@wrir.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/wrir973 </t>
+  </si>
+  <si>
+    <t>WEBR</t>
+  </si>
+  <si>
+    <t>askfpa@fcac.org</t>
+  </si>
+  <si>
+    <t>https://www.fcac.org</t>
+  </si>
+  <si>
+    <t>facebook.com/FairfaxPublicAccess</t>
+  </si>
+  <si>
+    <t>2929 Eskridge Rd. Ste. S, Fairfax, VA 22031</t>
+  </si>
+  <si>
+    <t>WGMU</t>
+  </si>
+  <si>
+    <t>wgmu@gmu.edu</t>
+  </si>
+  <si>
+    <t>http://www.wgmuradio.com</t>
+  </si>
+  <si>
+    <t>instagram.com/wgmuradio</t>
+  </si>
+  <si>
+    <t>4400 University Dr. MS4B7, Fairfax, VA 22031-4444</t>
+  </si>
+  <si>
+    <t>WLUR</t>
+  </si>
+  <si>
+    <t>wlur915@wlu.edu</t>
+  </si>
+  <si>
+    <t>https://www.wlu.edu/wlur</t>
+  </si>
+  <si>
+    <t>John W. Elrod Commons, 204 W. Washington St., Lexington, VA 24450-2116</t>
+  </si>
+  <si>
+    <t>WNRN</t>
+  </si>
+  <si>
+    <t>music@wnrn.org</t>
+  </si>
+  <si>
+    <t>http://www.wnrn.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instagram.com/wnrnradio </t>
+  </si>
+  <si>
+    <t>WNRNradio</t>
+  </si>
+  <si>
+    <t>2250 Old Ivy Rd. #2, Charlottesville, VA 22903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WODU </t>
+  </si>
+  <si>
+    <t>wodumusic@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.wodustudios.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instagram.com/wodustudios </t>
+  </si>
+  <si>
+    <t>WoduStudios</t>
+  </si>
+  <si>
+    <t>1071 Webb Center, Norfolk, VA 23529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRIR </t>
+  </si>
+  <si>
+    <t>WVCW</t>
+  </si>
+  <si>
+    <t>music@wvcw.org</t>
+  </si>
+  <si>
+    <t>https://wvcw.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/WVCWRadio </t>
+  </si>
+  <si>
+    <t>instagram.com/wvcw</t>
+  </si>
+  <si>
+    <t>817 W. Broad St., Richmond, VA 23284</t>
+  </si>
+  <si>
+    <t>WVRU</t>
+  </si>
+  <si>
+    <t>aclaud@radford.edu</t>
+  </si>
+  <si>
+    <t>https://www.wvru.org</t>
+  </si>
+  <si>
+    <t>PO Box 6973, Radford, VA 24142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WXJM </t>
+  </si>
+  <si>
+    <t>wxjmindependent@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.wxjm.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/WxjmHarrisonburg </t>
+  </si>
+  <si>
+    <t>WXJM_radio</t>
+  </si>
+  <si>
+    <t>983 Reservoir St., Harrisonburg, VA 22801-4350</t>
+  </si>
+  <si>
+    <t>KBCS</t>
+  </si>
+  <si>
+    <t>music@kbcs.fm</t>
+  </si>
+  <si>
+    <t>https://www.kbcs.fm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/KBCSBellevueSeattle </t>
+  </si>
+  <si>
+    <t>3000 Landerholm Cir. SE. Bellevue, WA 98007-6484</t>
+  </si>
+  <si>
+    <t>KEXP</t>
+  </si>
+  <si>
+    <t>don@kexp.org</t>
+  </si>
+  <si>
+    <t>https://www.kexp.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instagram.com/kexp </t>
+  </si>
+  <si>
+    <t>kexp</t>
+  </si>
+  <si>
+    <t>472 1st Ave. N., Seattle, WA 98109</t>
+  </si>
+  <si>
+    <t>KPTZ</t>
+  </si>
+  <si>
+    <t>contactus@kptz.org</t>
+  </si>
+  <si>
+    <t>https://kptz.org</t>
+  </si>
+  <si>
+    <t>facebook.com/KPTZRadioPortTownsend</t>
+  </si>
+  <si>
+    <t>PO Box 2091, Port Townsend, WA 98368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSVR </t>
+  </si>
+  <si>
+    <t>mail@ksvr.org</t>
+  </si>
+  <si>
+    <t>http://www.ksvr.org</t>
+  </si>
+  <si>
+    <t>facebook.com/ksvr.fm</t>
+  </si>
+  <si>
+    <t>2405 E. College Way, Mount Vernon, WA 98273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUGS </t>
+  </si>
+  <si>
+    <t>kugs.musicdirector@wwu.edu</t>
+  </si>
+  <si>
+    <t>https://as.wwu.edu/kugs</t>
+  </si>
+  <si>
+    <t>MS 9106 VU 700, Bellingham, WA 98225</t>
+  </si>
+  <si>
+    <t>KUGSFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/KUGSFM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KWCW </t>
+  </si>
+  <si>
+    <t>kwcw@whitman.edu</t>
+  </si>
+  <si>
+    <t>https://kwcwradio.tumblr.com</t>
+  </si>
+  <si>
+    <t>200 E. Boyer Ave. Walla Walla, WA 99362</t>
+  </si>
+  <si>
+    <t>KYRS</t>
+  </si>
+  <si>
+    <t>musiclibrarian@kyrs.org</t>
+  </si>
+  <si>
+    <t>https://www.kyrs.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZUU </t>
+  </si>
+  <si>
+    <t>kxuu90.7fm@gmail.com</t>
+  </si>
+  <si>
+    <t>https://kzuu.org</t>
+  </si>
+  <si>
+    <t>PO Box 647204, WSU, Pullman, WA 99164-7204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lute Air Student Radio </t>
+  </si>
+  <si>
+    <t>lasr@plu.edu</t>
+  </si>
+  <si>
+    <t>https://www.plu.edu/kccr</t>
+  </si>
+  <si>
+    <t>instagram.com/lasrradio</t>
+  </si>
+  <si>
+    <t>Martin J. Neeb Center 125, PLU, Tacoma, WA 98447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainy Dawg Radio </t>
+  </si>
+  <si>
+    <t>asuwrdmd@uw.edu</t>
+  </si>
+  <si>
+    <t>http://www.rainydawg.org</t>
+  </si>
+  <si>
+    <t>instagram.com/rainydawgradio</t>
+  </si>
+  <si>
+    <t>SAO 254, Box 352238, Seattle, WA 98195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRGW </t>
+  </si>
+  <si>
+    <t>music@gwradio.com</t>
+  </si>
+  <si>
+    <t>http://www.gwradio.com</t>
+  </si>
+  <si>
+    <r>
+      <t>800 21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">st </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>St. NW. #G02, Washington, DC 20052</t>
+    </r>
+  </si>
+  <si>
+    <t>WVAU</t>
+  </si>
+  <si>
+    <t>wvaumusic@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.wvau.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/WVAU.ORG </t>
+  </si>
+  <si>
+    <t>Mary Graydon Ctr. #256, 4400 Massachusetts Ave. NW, Washington, DC 20016</t>
+  </si>
+  <si>
+    <t>WMUL</t>
+  </si>
+  <si>
+    <t>wmul@marshall.edu</t>
+  </si>
+  <si>
+    <t>https://www.marshall.edu/wmul</t>
+  </si>
+  <si>
+    <t>1 John Marshall Dr. Huntington, WV 25755-2635</t>
+  </si>
+  <si>
+    <t>West Virginia Public Broadcasting</t>
+  </si>
+  <si>
+    <t>eisom@wvpublic.org</t>
+  </si>
+  <si>
+    <t>http://www.wvpubcast.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/WVPublic </t>
+  </si>
+  <si>
+    <t>wvpublic</t>
+  </si>
+  <si>
+    <t>600 Capitol St., Charleston, WV 25301</t>
+  </si>
+  <si>
+    <t>leaudown@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.wmse.org</t>
+  </si>
+  <si>
+    <t>WMSE</t>
+  </si>
+  <si>
+    <t>facebook.com/wmse917</t>
+  </si>
+  <si>
+    <t>1025 N. Broadway, Milwaukee, WI 53202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Dumplings, Analog </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feed Me Weird Things </t>
+  </si>
+  <si>
+    <t>din@beenfed.com</t>
+  </si>
+  <si>
+    <t>https://www.wortfm.org</t>
+  </si>
+  <si>
+    <t>118 S. Bedford St., Madison, WI 53703-2692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/WORTFM </t>
+  </si>
+  <si>
+    <t>WORTRADIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday on my Mind </t>
+  </si>
+  <si>
+    <t>musicdirector@wortfm.org</t>
+  </si>
+  <si>
+    <t>WBCR</t>
+  </si>
+  <si>
+    <t>wbcrmanager@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.wbcr903.com</t>
+  </si>
+  <si>
+    <t>facebook.com/wbcr.fm</t>
+  </si>
+  <si>
+    <t>Box 39, 700 College St., Beloit, WI 53511</t>
+  </si>
+  <si>
+    <t>WDRT</t>
+  </si>
+  <si>
+    <t>jhallberg@wdrt.org</t>
+  </si>
+  <si>
+    <t>https://wdrt.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/wdrt91.9fm </t>
+  </si>
+  <si>
+    <t>instagram.com/wdrt91.9fm</t>
+  </si>
+  <si>
+    <t>311 S. Main St., Viroqua, WI 54665</t>
+  </si>
+  <si>
+    <t>WHYS</t>
+  </si>
+  <si>
+    <t>md@whysradio.org</t>
+  </si>
+  <si>
+    <t>https://www.whysradio.org</t>
+  </si>
+  <si>
+    <t>facebook.com/whysRadio</t>
+  </si>
+  <si>
+    <t>405 S. Farwell St. #23, Eau Claire, WI 54703</t>
+  </si>
+  <si>
+    <t>Wisconsin Public Radio</t>
+  </si>
+  <si>
+    <t>listener@wpr.org</t>
+  </si>
+  <si>
+    <t>https://www.wpr.org</t>
+  </si>
+  <si>
+    <t>PO Box 2000, Superior, WI 54880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/wisconsinpublicradio </t>
+  </si>
+  <si>
+    <t>WPR</t>
+  </si>
+  <si>
+    <t>WLFM</t>
+  </si>
+  <si>
+    <t>wlfm.top200@gmail.com</t>
+  </si>
+  <si>
+    <t>https://wlfmradio.lawrence.edu</t>
+  </si>
+  <si>
+    <t>Music Ctr. 420 E. College Ave. Appleton, WI 54911</t>
+  </si>
+  <si>
+    <t>WOJB</t>
+  </si>
+  <si>
+    <t>musicdirector@wojb.org</t>
+  </si>
+  <si>
+    <t>https://www.wojb.org</t>
+  </si>
+  <si>
+    <t>facebook.com/WOJB88.9</t>
+  </si>
+  <si>
+    <t>13386 W. Trepania Rd. Hayward, WI 54843</t>
+  </si>
+  <si>
+    <t>Pure Radio</t>
+  </si>
+  <si>
+    <t>sam.fristed@my.uwrf.edu</t>
+  </si>
+  <si>
+    <t>http://www.wrfw887.com</t>
+  </si>
+  <si>
+    <r>
+      <t>306 N. Hall, 410 S. 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">rd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>St., River Falls, WI 54022</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WSUM </t>
+  </si>
+  <si>
+    <t>music@wsum.wisc.edu</t>
+  </si>
+  <si>
+    <t>https://wsum.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/wsum.fm </t>
+  </si>
+  <si>
+    <t>WSUM</t>
+  </si>
+  <si>
+    <t>PO Box 260020, Madison, WI 53726</t>
+  </si>
+  <si>
+    <t>WVMO</t>
+  </si>
+  <si>
+    <t>98.7wvmo@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.wvmo.fm</t>
+  </si>
+  <si>
+    <t>facebook.com/98.7WVMO</t>
+  </si>
+  <si>
+    <t>5211 Schluter Rd. Monona, WI 53716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By All Means </t>
+  </si>
+  <si>
+    <t>musicdirector@jhcr.org</t>
+  </si>
+  <si>
+    <t>https://www.891khol.org</t>
+  </si>
+  <si>
+    <t>PO Box 588, Jackson, WY 83001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/891KHOL </t>
+  </si>
+  <si>
+    <t>891KHOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freeform Friday </t>
+  </si>
+  <si>
+    <t>jalwrence@yahoo.com</t>
+  </si>
+  <si>
+    <t>facebook.com/891KHOL</t>
+  </si>
+  <si>
+    <t>KHOL</t>
+  </si>
+  <si>
+    <t>#BlogtalkwithMJRacadio</t>
+  </si>
+  <si>
+    <t>blogtalkwithMJRacadio@gmail.com</t>
+  </si>
+  <si>
+    <t>https://blogtalkwithmjracadio.wordpress.com</t>
+  </si>
+  <si>
+    <t>MJRacadio</t>
+  </si>
+  <si>
+    <t>facebook.com/mjracadio</t>
+  </si>
+  <si>
+    <t>420RADIO</t>
+  </si>
+  <si>
+    <t>music@420radio.org</t>
+  </si>
+  <si>
+    <t>http://420radio.org</t>
+  </si>
+  <si>
+    <t>3608 NE 75th Ave. Portland, OR 97213-5752</t>
+  </si>
+  <si>
+    <t>facebook.com/420radioorg</t>
+  </si>
+  <si>
+    <t>AccuRadio</t>
+  </si>
+  <si>
+    <t>artist-contact@accuradio.com</t>
+  </si>
+  <si>
+    <t>https://www.accuradio.com</t>
+  </si>
+  <si>
+    <t>10 W. Hubbard St. 5W, Chicago, IL 60654</t>
+  </si>
+  <si>
+    <t>facebook.com/accuradio</t>
+  </si>
+  <si>
+    <t>accuradio</t>
+  </si>
+  <si>
+    <t>The Bitterest Pill</t>
+  </si>
+  <si>
+    <t>pill@danklass.com</t>
+  </si>
+  <si>
+    <t>https://www.danklass.com/pill</t>
+  </si>
+  <si>
+    <t>Coverville</t>
+  </si>
+  <si>
+    <t>coverville@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.coverville.com</t>
+  </si>
+  <si>
+    <r>
+      <t>PMB 12, 15400 W. 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">th </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ave. #E-9, Arvada, CO 80007</t>
+    </r>
+  </si>
+  <si>
+    <t>DKFM Shoegaze Radio</t>
+  </si>
+  <si>
+    <t>https://decayfm.com</t>
+  </si>
+  <si>
+    <t>dkfm@decayfm.com</t>
+  </si>
+  <si>
+    <t>decayfm</t>
+  </si>
+  <si>
+    <t>facebook.com/DecayFM</t>
+  </si>
+  <si>
+    <t>Feature.FM</t>
+  </si>
+  <si>
+    <t>community@feature.fm</t>
+  </si>
+  <si>
+    <t>https://www.feature.fm</t>
+  </si>
+  <si>
+    <t>85 Broad St. #17.089, New York, NY 10004</t>
+  </si>
+  <si>
+    <t>Featurefm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Future Pop with Dan Digs </t>
+  </si>
+  <si>
+    <t>dan@dandigs.com</t>
+  </si>
+  <si>
+    <t>https://dandigs.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/dandigs </t>
+  </si>
+  <si>
+    <t>DanDigs</t>
+  </si>
+  <si>
+    <t>IMC Radio</t>
+  </si>
+  <si>
+    <t>braintrust@imcradio.com</t>
+  </si>
+  <si>
+    <t>https://www.imcradio.com</t>
+  </si>
+  <si>
+    <t>Attn: The Style Council, 311 Pear Orchard Pl. Ridgeland, MS 39157</t>
+  </si>
+  <si>
+    <t>7692186453f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/IMCRadio </t>
+  </si>
+  <si>
+    <t>IMCRADIO</t>
+  </si>
+  <si>
+    <t>The Josie Show</t>
+  </si>
+  <si>
+    <t>tina@josieshow.com</t>
+  </si>
+  <si>
+    <t>https://www.josieshow.com</t>
+  </si>
+  <si>
+    <t>PO Box 8017, Bartlett, IL 60103</t>
+  </si>
+  <si>
+    <t>facebook.com/josieshow</t>
+  </si>
+  <si>
+    <t>JosieShow</t>
+  </si>
+  <si>
+    <t>Maximum Fun</t>
+  </si>
+  <si>
+    <t>hello@maximumfun.org</t>
+  </si>
+  <si>
+    <t>https://www.maximumfun.org</t>
+  </si>
+  <si>
+    <t>2404 Wilshire Blvd. #9A, Los Angeles, CA 90057</t>
+  </si>
+  <si>
+    <t>facebook.com/groups/maximumfun.org</t>
+  </si>
+  <si>
+    <t>MaxFunHQ</t>
+  </si>
+  <si>
+    <t>Mood Media</t>
+  </si>
+  <si>
+    <t>musicsubmissions@moodmedia.com</t>
+  </si>
+  <si>
+    <t>https://www.moodmedia.com</t>
+  </si>
+  <si>
+    <t>moodmedia</t>
+  </si>
+  <si>
+    <t>Newtown Radio</t>
+  </si>
+  <si>
+    <t>newtownradio@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.newtownradio.com</t>
+  </si>
+  <si>
+    <t>newtownradio</t>
+  </si>
+  <si>
+    <t>facebook.com/newtownradiodotcom</t>
+  </si>
+  <si>
+    <t>The Quinn Spinn</t>
+  </si>
+  <si>
+    <t>umusiccollective@gmail.com</t>
+  </si>
+  <si>
+    <t>https://anchor.fm/the-quinn-spinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/thequinnspinn </t>
+  </si>
+  <si>
+    <t>TheQuinnSpinn</t>
+  </si>
+  <si>
+    <t>Radio Crystal Blue</t>
+  </si>
+  <si>
+    <t>2106 Dickens Dr. Killeen, TX 76543</t>
+  </si>
+  <si>
+    <t>dan@radiocrystalblue.net</t>
+  </si>
+  <si>
+    <t>https://radiocrystalblue.net</t>
+  </si>
+  <si>
+    <t>radiocblue</t>
+  </si>
+  <si>
+    <t>SiriusXM Radio</t>
+  </si>
+  <si>
+    <t>1221 Avenue of the Americas, New York, NY 10020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/siriusxm </t>
+  </si>
+  <si>
+    <t>SIRIUSXM</t>
+  </si>
+  <si>
+    <t>https://www.siriusxm.com</t>
+  </si>
+  <si>
+    <t>SomaFM</t>
+  </si>
+  <si>
+    <t>somafm@somafm.com</t>
+  </si>
+  <si>
+    <t>https://www.somafm.com</t>
+  </si>
+  <si>
+    <t>2180 Bryant St. #208, San Francisco, CA 94110</t>
+  </si>
+  <si>
+    <t>instagram.com/somafm_official</t>
+  </si>
+  <si>
+    <t>somafm</t>
+  </si>
+  <si>
+    <t>The Sounds in My Head</t>
+  </si>
+  <si>
+    <t>daniel@thesoundsinmyhead.com</t>
+  </si>
+  <si>
+    <t>https://www.thesoundsinmyhead.com</t>
+  </si>
+  <si>
+    <t>facebook.com/thesoundsinmyhead</t>
+  </si>
+  <si>
+    <t>TSiMH</t>
+  </si>
+  <si>
+    <t>Take 2 Radio</t>
+  </si>
+  <si>
+    <t>take2radio@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.take2radio.com</t>
+  </si>
+  <si>
+    <t>take2radio</t>
+  </si>
+  <si>
+    <t>The Talkhouse Music Podcast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/talkhouse </t>
+  </si>
+  <si>
+    <t>Gangstaville Radio</t>
+  </si>
+  <si>
+    <t>music@gangstavilleradio.com</t>
+  </si>
+  <si>
+    <t>https://gangstavilleradio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instagram.com/gangstaville247 </t>
+  </si>
+  <si>
+    <t>Gangstaville247</t>
+  </si>
+  <si>
+    <t>LIVE From the Basement!</t>
+  </si>
+  <si>
+    <t>info@livefromthebasement.com</t>
+  </si>
+  <si>
+    <t>http://www.livefromthebasement.com</t>
+  </si>
+  <si>
+    <t>livethebasement</t>
+  </si>
+  <si>
+    <t>Urban Flosarus</t>
+  </si>
+  <si>
+    <t>urban.flosarus@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Urban.Flosarus</t>
+  </si>
+  <si>
+    <t>100 Seattle St., Lafayette, LA 70506</t>
+  </si>
+  <si>
+    <t>WeRocx R920</t>
+  </si>
+  <si>
+    <t>werocxr920@gmail.com</t>
+  </si>
+  <si>
+    <t>https://maintainurbrainz.com/r920.html</t>
+  </si>
+  <si>
+    <t>Maintainurbrain</t>
+  </si>
+  <si>
+    <t>facebook.com/MaintainurbrainzLlc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blazin' Midnight Hitz </t>
+  </si>
+  <si>
+    <t>aaronsraza@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bombay Mix </t>
+  </si>
+  <si>
+    <t>djx1@kpoo.com</t>
+  </si>
+  <si>
+    <t>http://www.kpoo.com</t>
+  </si>
+  <si>
+    <t>facebook.com/kpooradio</t>
+  </si>
+  <si>
+    <t>PO Box 156650, San Francisco, CA 94115-6650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flipside Radio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yo! KALX Raps </t>
+  </si>
+  <si>
+    <t>26 Barrows Hall #5650, Berkeley, CA 94720-5650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmission 28 Dayze LATER </t>
+  </si>
+  <si>
+    <t>b4dhshow@yahoo.com</t>
+  </si>
+  <si>
+    <t>djsabatoge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undaground Railroad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krush Korner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wreck </t>
+  </si>
+  <si>
+    <t>djjasond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA Radio </t>
+  </si>
+  <si>
+    <t>rap@whpk.org</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Hip Hop Xpress </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WEFT</t>
+    </r>
+  </si>
+  <si>
+    <t>wefturban@gmail.com</t>
+  </si>
+  <si>
+    <t>http://weft.org</t>
+  </si>
+  <si>
+    <t>facebook.com/weftcommunityradio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip-Hop Fundamentals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Best Part: Hip Hop 101 </t>
+  </si>
+  <si>
+    <t>music@lexingtoncommunityradio.org</t>
+  </si>
+  <si>
+    <t>facebook.com/RADIOLEX.ENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip Hop with Blue Heff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yall Betta Recognize Radio Show </t>
+  </si>
+  <si>
+    <t>sendtrax@gmail.com</t>
+  </si>
+  <si>
+    <t>https://wdsrradio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/WDSRRADIO </t>
+  </si>
+  <si>
+    <t>RadioWDSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature’s Rising </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Krate Radio </t>
+  </si>
+  <si>
+    <t>deepkrate@kdhx.org</t>
+  </si>
+  <si>
+    <t>3504 Magnolia, St. Louis, MO 63118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elevated Rhymestate </t>
+  </si>
+  <si>
+    <t>rhymestate@kdhx.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard Knock Radio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Record Sto' </t>
+  </si>
+  <si>
+    <t>recordsto@kdhx.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mr R Show </t>
+  </si>
+  <si>
+    <t>mrrshow@yahoo.com</t>
+  </si>
+  <si>
+    <t>https://rnrradiovegas.com</t>
+  </si>
+  <si>
+    <t>MrR68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up in the Mix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Chu Been Missin' </t>
+  </si>
+  <si>
+    <t>wsou.wcbm@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diggin' in the Crates </t>
+  </si>
+  <si>
+    <t>hiphop@wvkr.org</t>
+  </si>
+  <si>
+    <t>Box 726, Vassar, 124 Raymond Ave. Poughkeepsie, NY 12604</t>
+  </si>
+  <si>
+    <t>HOT 97</t>
+  </si>
+  <si>
+    <t>whosnext@hot97.com</t>
+  </si>
+  <si>
+    <t>https://www.hot97.com</t>
+  </si>
+  <si>
+    <t>395 Hudson St., New York, NY 10014</t>
+  </si>
+  <si>
+    <t>facebook.com/HOT97OFFICIAL</t>
+  </si>
+  <si>
+    <t>HOT97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Idea's Original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slay the Mic </t>
+  </si>
+  <si>
+    <t>slaythemic@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/slaythemic</t>
+  </si>
+  <si>
+    <t>instagram.com/slaythemic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya Don’t Stop </t>
+  </si>
+  <si>
+    <t>facebook.com/AshevilleFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catch A Break </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ILL Nation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Union Radio </t>
+  </si>
+  <si>
+    <t>grandunionradio@gmail.com</t>
+  </si>
+  <si>
+    <t>http://kosu.org</t>
+  </si>
+  <si>
+    <t>726 W. Sheridan Ave. Oklahoma City, OK 73102</t>
+  </si>
+  <si>
+    <t>facebook.com/kosuradio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No One Man </t>
+  </si>
+  <si>
+    <t>dondata405@gmail.com</t>
+  </si>
+  <si>
+    <t>urbanmd@kboo.fm</t>
+  </si>
+  <si>
+    <t>20 SE. 8th Ave. Portland, OR 97214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Movement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They Gave Us A Show? </t>
+  </si>
+  <si>
+    <t>5511 N. Albina Ave. Portland, OR 97217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/freeformpdx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broccoli Robs Hip Hop Lounge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Scientists Laboratory </t>
+  </si>
+  <si>
+    <t>duhscientist@yahoo.com</t>
+  </si>
+  <si>
+    <t>Edutainment</t>
+  </si>
+  <si>
+    <t>theeegroup4u@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Gold Standard Hip Hop Show </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapper’s Delight </t>
+  </si>
+  <si>
+    <t>andria@wevl.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip Hop Hooray </t>
+  </si>
+  <si>
+    <t>hiphophooray@koop.org</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/hiphophoorayradio</t>
+  </si>
+  <si>
+    <t>hip_hop_hooray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday Night Fallout </t>
+  </si>
+  <si>
+    <t>danegrodomus@gmail.com</t>
+  </si>
+  <si>
+    <t>facebook.com/KRCLradio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip Hop for the Rest of Us </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip Hop Vibes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Other Black Music </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret Bonus Level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip Hop Knuckles </t>
+  </si>
+  <si>
+    <t>dj@kbcs.fm</t>
+  </si>
+  <si>
+    <t>3000 Landerholm Cir. SE, Bellevue, WA 98007-6484</t>
+  </si>
+  <si>
+    <t>Streetsounds</t>
+  </si>
+  <si>
+    <t>stas@kexp.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zulu Radio </t>
+  </si>
+  <si>
+    <t>zuluradio@206zulu.com</t>
+  </si>
+  <si>
+    <t>facebook.com/KBCSBellevueSeattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Diner </t>
+  </si>
+  <si>
+    <t>wwvumusic@gmail.com</t>
+  </si>
+  <si>
+    <t>https://wwvu-fm.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/U92FM </t>
+  </si>
+  <si>
+    <t>U92_FM</t>
+  </si>
+  <si>
+    <t>PO Box 6446, Morgantown, WV 26506-6446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40oz of Hip Hop </t>
+  </si>
+  <si>
+    <t>40ozofhiphop@gmail.com</t>
+  </si>
+  <si>
+    <t>https://90fm.org</t>
+  </si>
+  <si>
+    <t>1101 Reserve St. (CAC 105) Stevens Point, WI 54481</t>
+  </si>
+  <si>
+    <t>WWSP90FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Jing Jong Triple Play </t>
+  </si>
+  <si>
+    <t>wmse@msoe.edu</t>
+  </si>
+  <si>
+    <t>Afropop Worldwide</t>
+  </si>
+  <si>
+    <t>info@afropop.org</t>
+  </si>
+  <si>
+    <t>https://www.afropop.org</t>
+  </si>
+  <si>
+    <t>facebook.com/afropop</t>
+  </si>
+  <si>
+    <t>afropopww</t>
+  </si>
+  <si>
+    <t>463 Lincoln Pl. #246, Brooklyn, NY 11238</t>
+  </si>
+  <si>
+    <t>New World Buzz Radio</t>
+  </si>
+  <si>
+    <t>info@newworldbuzz.com</t>
+  </si>
+  <si>
+    <t>http://www.newworldbuzz.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music of the World </t>
+  </si>
+  <si>
+    <t>http://www.glaciercity.us</t>
+  </si>
+  <si>
+    <t>KUYI</t>
+  </si>
+  <si>
+    <t>info@kuyi.net</t>
+  </si>
+  <si>
+    <t>http://www.kuyi.net</t>
+  </si>
+  <si>
+    <t>facebook.com/KUYIRadio</t>
+  </si>
+  <si>
+    <t>PO Box 301, Kykotsmovi, AZ 86039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creole Stomp </t>
+  </si>
+  <si>
+    <t>kyle@kzfr.org</t>
+  </si>
+  <si>
+    <t>http://kzfr.org</t>
+  </si>
+  <si>
+    <t>KIDE</t>
+  </si>
+  <si>
+    <t>jorozco@kidefm.org</t>
+  </si>
+  <si>
+    <t>https://www.kidefm.org</t>
+  </si>
+  <si>
+    <t>PO Box 1220, Hoopa, CA 95546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One World Music </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planet San </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planet Waves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Verdad Musical </t>
+  </si>
+  <si>
+    <t>avotcja@kpoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Beat Show </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Express </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Groove </t>
+  </si>
+  <si>
+    <t>boeschenstein.bennett0@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culture Cafe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C'est la Vie </t>
+  </si>
+  <si>
+    <t>wfit@fit.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-Saharan Vibes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Rhythm Nation </t>
+  </si>
+  <si>
+    <t>ahzjah@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRFY World Mix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folks of the World </t>
+  </si>
+  <si>
+    <t>folksoftheworld@kdhx.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/881kdhx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Grooves </t>
+  </si>
+  <si>
+    <t>nextexit@kdhx.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motherland Jam </t>
+  </si>
+  <si>
+    <t>motherland-jam@kopn.org</t>
+  </si>
+  <si>
+    <t>https://www.kopn.org</t>
+  </si>
+  <si>
+    <t>facebook.com/KOPNfm</t>
+  </si>
+  <si>
+    <t>915 E. Broadway St., Columbia, MO 65201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radio Free Zorca </t>
+  </si>
+  <si>
+    <t>facebook.com/KBMF102.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Language of Music </t>
+  </si>
+  <si>
+    <t>music@kzum.org</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TheLanguageOfMusicKzum</t>
+  </si>
+  <si>
+    <t>3534 S 48th St. #6, Lincoln, NE 68506</t>
+  </si>
+  <si>
+    <t>renaeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyond Borders </t>
+  </si>
+  <si>
+    <t>beyondborders@ksfr.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Music </t>
+  </si>
+  <si>
+    <t>michaelhess@kunm.org</t>
+  </si>
+  <si>
+    <t>MSC06 3520, Onate Hall 1 U. New Mexico, Albuquerque, NM 87131-0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splinters &amp; Candy </t>
+  </si>
+  <si>
+    <t>alex@splintersandcandy.com</t>
+  </si>
+  <si>
+    <t>http://splintersandcandy.com</t>
+  </si>
+  <si>
+    <t>splinterscandy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Beat Radio </t>
+  </si>
+  <si>
+    <t>worldmusicdirector@wvkr.org</t>
+  </si>
+  <si>
+    <t>KWSO</t>
+  </si>
+  <si>
+    <t>kwso@wstribes.org</t>
+  </si>
+  <si>
+    <t>https://www.kwso.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/KWSOnews </t>
+  </si>
+  <si>
+    <t>4174 Highway 3, PO Box 489, Warm Springs, OR 97761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Bop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Wide Waves </t>
+  </si>
+  <si>
+    <t>worldsubmissions@wriu.org</t>
+  </si>
+  <si>
+    <t>facebook.com/wriuradio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel Notes </t>
+  </si>
+  <si>
+    <t>grace.mcnally.music@gmail.com</t>
+  </si>
+  <si>
+    <t>facebook.com/OhmRadio963</t>
+  </si>
+  <si>
+    <t>FlowRadio</t>
+  </si>
+  <si>
+    <t>maryjane@wevl.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Music Dance Party </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Estereo </t>
+  </si>
+  <si>
+    <t>krclnightestereo40@gmail.com</t>
+  </si>
+  <si>
+    <t>instagram.com/krclradio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambiance Congo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If Music Could Talk </t>
+  </si>
+  <si>
+    <t>djcarlito765@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Caravan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music of Africa </t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>music@kser.org</t>
+  </si>
+  <si>
+    <t>http://www.kser.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com/KSERfm </t>
+  </si>
+  <si>
+    <t>KSERfm</t>
+  </si>
+  <si>
+    <t>2623 Wetmore Ave. Everett, WA 98201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spin the Globe </t>
+  </si>
+  <si>
+    <t>spintheglobe@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.earball.net/spintheglobe</t>
+  </si>
+  <si>
+    <t>facebook.com/spintheglobe</t>
+  </si>
+  <si>
+    <t>CAB 101, 2700 Evergreen Pkwy. NW, Olympia, WA 98505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wo' Pop </t>
+  </si>
+  <si>
+    <t>darek@kexp.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Music Mondays </t>
+  </si>
+  <si>
+    <t>crawford@msoe.edu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9615,6 +12578,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -9637,7 +12618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9681,6 +12662,13 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10047,8 +13035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B53813-76F7-4E64-937E-CDEC69F32CA0}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11472,12 +14460,44 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD77530C-EE09-4495-8956-3E79EC870CDA}">
+  <dimension ref="A2:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3739</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3740</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6720E4D-9D5E-4E29-A3B7-B145B88A400E}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11712,7 +14732,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11814,7 +14834,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11893,7 +14913,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12006,7 +15026,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A17" sqref="A2:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12338,8 +15358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A6A3AF-62F5-4C78-98DC-37EEC5A78B58}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView topLeftCell="B65" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView topLeftCell="B54" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13999,8 +17019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF7842E-30DE-4CF5-9B0E-49CE2A73BCB7}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14702,10 +17722,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F15D6B-1986-4C98-8246-F389BFC561C5}">
-  <dimension ref="A1:K510"/>
+  <dimension ref="A1:K721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="J480" sqref="J480"/>
+    <sheetView tabSelected="1" topLeftCell="A719" workbookViewId="0">
+      <selection activeCell="C737" sqref="C737"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14716,7 +17736,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -26814,251 +29834,6438 @@
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A480" s="8" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B480" s="6" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C480" s="6" t="s">
+        <v>2193</v>
+      </c>
       <c r="D480" t="s">
         <v>13</v>
       </c>
       <c r="E480" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="481" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F480" s="2" t="s">
+        <v>3055</v>
+      </c>
+      <c r="H480" s="2" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I480" s="6" t="s">
+        <v>2192</v>
+      </c>
+      <c r="J480">
+        <v>7012416900</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A481" s="8" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B481" s="6" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C481" s="6" t="s">
+        <v>2191</v>
+      </c>
       <c r="D481" t="s">
         <v>13</v>
       </c>
       <c r="E481" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="482" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F481" s="7" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I481" s="6" t="s">
+        <v>2190</v>
+      </c>
+      <c r="J481">
+        <v>7014784959</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A482" s="8" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C482" s="6" t="s">
+        <v>2191</v>
+      </c>
       <c r="D482" t="s">
         <v>13</v>
       </c>
       <c r="E482" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="483" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F482" s="7" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I482" s="6" t="s">
+        <v>2190</v>
+      </c>
+      <c r="J482">
+        <v>7014784959</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A483" s="8" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B483" s="5" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C483" s="6" t="s">
+        <v>2191</v>
+      </c>
       <c r="D483" t="s">
         <v>13</v>
       </c>
       <c r="E483" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="484" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F483" s="7" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I483" s="6" t="s">
+        <v>2190</v>
+      </c>
+      <c r="J483">
+        <v>7014784959</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A484" s="8" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C484" s="6" t="s">
+        <v>3063</v>
+      </c>
       <c r="D484" t="s">
         <v>13</v>
       </c>
       <c r="E484" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="485" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F484" s="2" t="s">
+        <v>3064</v>
+      </c>
+      <c r="G484" s="7" t="s">
+        <v>3061</v>
+      </c>
+      <c r="I484" s="6" t="s">
+        <v>3065</v>
+      </c>
+      <c r="J484">
+        <v>7405934910</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A485" s="8" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C485" s="6" t="s">
+        <v>3068</v>
+      </c>
       <c r="D485" t="s">
         <v>13</v>
       </c>
       <c r="E485" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="486" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F485" s="2" t="s">
+        <v>3070</v>
+      </c>
+      <c r="G485" s="2" t="s">
+        <v>3071</v>
+      </c>
+      <c r="I485" s="5" t="s">
+        <v>3069</v>
+      </c>
+      <c r="J485">
+        <v>5135566578</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A486" s="8" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B486" s="6" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C486" s="6" t="s">
+        <v>3074</v>
+      </c>
       <c r="D486" t="s">
         <v>13</v>
       </c>
       <c r="E486" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="487" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F486" s="7" t="s">
+        <v>3075</v>
+      </c>
+      <c r="I486" s="6" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A487" s="8" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B487" s="6" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C487" s="6" t="s">
+        <v>3079</v>
+      </c>
       <c r="D487" t="s">
         <v>13</v>
       </c>
       <c r="E487" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="488" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G487" s="2" t="s">
+        <v>3081</v>
+      </c>
+      <c r="I487" s="6" t="s">
+        <v>3080</v>
+      </c>
+      <c r="J487">
+        <v>4193720328</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A488" s="4" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B488" s="6" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C488" s="6" t="s">
+        <v>3084</v>
+      </c>
       <c r="D488" t="s">
         <v>13</v>
       </c>
       <c r="E488" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="489" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F488" s="2" t="s">
+        <v>3085</v>
+      </c>
+      <c r="G488" s="7" t="s">
+        <v>3086</v>
+      </c>
+      <c r="I488" s="6" t="s">
+        <v>3087</v>
+      </c>
+      <c r="J488">
+        <v>6148219223</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A489" s="8" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C489" s="6" t="s">
+        <v>3090</v>
+      </c>
       <c r="D489" t="s">
         <v>13</v>
       </c>
       <c r="E489" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="490" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F489" s="7" t="s">
+        <v>3091</v>
+      </c>
+      <c r="I489" s="6" t="s">
+        <v>3092</v>
+      </c>
+      <c r="J489">
+        <v>2166873721</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A490" s="23" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C490" s="6" t="s">
+        <v>3095</v>
+      </c>
       <c r="D490" t="s">
         <v>13</v>
       </c>
       <c r="E490" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="491" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F490" s="2" t="s">
+        <v>3096</v>
+      </c>
+      <c r="G490" s="2" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I490" s="6" t="s">
+        <v>3098</v>
+      </c>
+      <c r="J490">
+        <v>2163974937</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A491" s="8" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B491" s="5" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C491" s="6" t="s">
+        <v>3101</v>
+      </c>
       <c r="D491" t="s">
         <v>13</v>
       </c>
       <c r="E491" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="492" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="H491" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="I491" s="6" t="s">
+        <v>3103</v>
+      </c>
+      <c r="J491">
+        <v>5135291985</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A492" s="8" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C492" s="6" t="s">
+        <v>3074</v>
+      </c>
       <c r="D492" t="s">
         <v>13</v>
       </c>
       <c r="E492" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="493" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F492" s="2" t="s">
+        <v>3105</v>
+      </c>
+      <c r="G492" s="2" t="s">
+        <v>3106</v>
+      </c>
+      <c r="I492" s="6" t="s">
+        <v>3076</v>
+      </c>
+      <c r="J492">
+        <v>2163682207</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A493" s="8" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B493" s="5" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C493" s="6" t="s">
+        <v>3109</v>
+      </c>
       <c r="D493" t="s">
         <v>13</v>
       </c>
       <c r="E493" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="494" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F493" s="2" t="s">
+        <v>3110</v>
+      </c>
+      <c r="G493" s="2" t="s">
+        <v>3111</v>
+      </c>
+      <c r="I493" s="6" t="s">
+        <v>3112</v>
+      </c>
+      <c r="J493">
+        <v>9377755554</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A494" s="8" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C494" s="6" t="s">
+        <v>3115</v>
+      </c>
       <c r="D494" t="s">
         <v>13</v>
       </c>
       <c r="E494" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="495" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G494" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="I494" s="6" t="s">
+        <v>3116</v>
+      </c>
+      <c r="J494">
+        <v>4195308400</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A495" s="8" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B495" s="6" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C495" s="6" t="s">
+        <v>3119</v>
+      </c>
       <c r="D495" t="s">
         <v>13</v>
       </c>
       <c r="E495" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="496" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F495" s="2" t="s">
+        <v>3120</v>
+      </c>
+      <c r="G495" s="2" t="s">
+        <v>3117</v>
+      </c>
+      <c r="I495" s="6" t="s">
+        <v>3121</v>
+      </c>
+      <c r="J495">
+        <v>9377691387</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A496" s="8" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>3123</v>
+      </c>
+      <c r="C496" s="6" t="s">
+        <v>3124</v>
+      </c>
       <c r="D496" t="s">
         <v>13</v>
       </c>
       <c r="E496" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="497" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F496" s="7" t="s">
+        <v>3125</v>
+      </c>
+      <c r="I496" s="6" t="s">
+        <v>3126</v>
+      </c>
+      <c r="J496">
+        <v>9183437955</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A497" s="8" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B497" s="5" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C497" s="6" t="s">
+        <v>3129</v>
+      </c>
       <c r="D497" t="s">
         <v>13</v>
       </c>
       <c r="E497" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="498" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G497" s="2" t="s">
+        <v>3131</v>
+      </c>
+      <c r="I497" s="6" t="s">
+        <v>3130</v>
+      </c>
+      <c r="J497">
+        <v>4063250311</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A498" s="8" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C498" s="6" t="s">
+        <v>3134</v>
+      </c>
       <c r="D498" t="s">
         <v>13</v>
       </c>
       <c r="E498" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="499" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G498" s="2" t="s">
+        <v>3136</v>
+      </c>
+      <c r="H498" s="7" t="s">
+        <v>3135</v>
+      </c>
+      <c r="I498" s="6" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A499" s="8" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B499" s="6" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C499" s="6" t="s">
+        <v>3140</v>
+      </c>
       <c r="D499" t="s">
         <v>13</v>
       </c>
       <c r="E499" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="500" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F499" s="2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="G499" s="2" t="s">
+        <v>3143</v>
+      </c>
+      <c r="I499" s="6" t="s">
+        <v>3141</v>
+      </c>
+      <c r="J499">
+        <v>5033218187</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A500" s="4" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B500" s="6" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C500" s="6" t="s">
+        <v>3146</v>
+      </c>
       <c r="D500" t="s">
         <v>13</v>
       </c>
       <c r="E500" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="501" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F500" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="G500" s="2" t="s">
+        <v>3148</v>
+      </c>
+      <c r="I500" s="6" t="s">
+        <v>3147</v>
+      </c>
+      <c r="J500">
+        <v>5416715337</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A501" s="8" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B501" s="5" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C501" s="6" t="s">
+        <v>3152</v>
+      </c>
       <c r="D501" t="s">
         <v>13</v>
       </c>
       <c r="E501" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="502" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G501" s="2" t="s">
+        <v>3154</v>
+      </c>
+      <c r="H501" s="2" t="s">
+        <v>3153</v>
+      </c>
+      <c r="I501" s="6" t="s">
+        <v>3155</v>
+      </c>
+      <c r="J501">
+        <v>5417372008</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A502" s="8" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B502" s="6" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C502" s="6" t="s">
+        <v>3158</v>
+      </c>
       <c r="D502" t="s">
         <v>13</v>
       </c>
       <c r="E502" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="503" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="I502" s="6" t="s">
+        <v>3159</v>
+      </c>
+      <c r="J502">
+        <v>5419623698</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A503" s="8" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B503" s="6" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C503" s="6" t="s">
+        <v>3162</v>
+      </c>
       <c r="D503" t="s">
         <v>13</v>
       </c>
       <c r="E503" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="504" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="H503" s="7" t="s">
+        <v>3164</v>
+      </c>
+      <c r="I503" s="6" t="s">
+        <v>3163</v>
+      </c>
+      <c r="J503">
+        <v>5037687104</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A504" s="4" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B504" s="6" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C504" s="6" t="s">
+        <v>3167</v>
+      </c>
       <c r="D504" t="s">
         <v>13</v>
       </c>
       <c r="E504" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="505" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="I504" s="6" t="s">
+        <v>3168</v>
+      </c>
+      <c r="J504">
+        <v>5033250010</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A505" s="8" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B505" s="6" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C505" s="6" t="s">
+        <v>3171</v>
+      </c>
       <c r="D505" t="s">
         <v>13</v>
       </c>
       <c r="E505" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="506" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="H505" s="7" t="s">
+        <v>3172</v>
+      </c>
+      <c r="I505" s="6" t="s">
+        <v>3173</v>
+      </c>
+      <c r="J505">
+        <v>5037255669</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A506" s="8" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>3175</v>
+      </c>
+      <c r="C506" s="6" t="s">
+        <v>3176</v>
+      </c>
       <c r="D506" t="s">
         <v>13</v>
       </c>
       <c r="E506" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="507" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="I506" s="6" t="s">
+        <v>3177</v>
+      </c>
+      <c r="J506">
+        <v>5417906686</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A507" s="8" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B507" s="6" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C507" s="6" t="s">
+        <v>3180</v>
+      </c>
       <c r="D507" t="s">
         <v>13</v>
       </c>
       <c r="E507" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="508" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="I507" s="6" t="s">
+        <v>3181</v>
+      </c>
+      <c r="J507">
+        <v>5412385093</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A508" s="8" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>3183</v>
+      </c>
+      <c r="C508" s="6" t="s">
+        <v>3184</v>
+      </c>
       <c r="D508" t="s">
         <v>13</v>
       </c>
       <c r="E508" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="509" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F508" s="2" t="s">
+        <v>3185</v>
+      </c>
+      <c r="G508" s="2" t="s">
+        <v>3186</v>
+      </c>
+      <c r="I508" s="5" t="s">
+        <v>3187</v>
+      </c>
+      <c r="J508">
+        <v>5413464091</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A509" s="8" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B509" s="6" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C509" s="6" t="s">
+        <v>3190</v>
+      </c>
       <c r="D509" t="s">
         <v>13</v>
       </c>
       <c r="E509" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="510" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="H509" s="7" t="s">
+        <v>3191</v>
+      </c>
+      <c r="I509" s="6" t="s">
+        <v>3192</v>
+      </c>
+      <c r="J509">
+        <v>8143323376</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A510" s="8" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B510" s="6" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C510" s="6" t="s">
+        <v>3195</v>
+      </c>
       <c r="D510" t="s">
         <v>13</v>
       </c>
       <c r="E510" t="s">
         <v>14</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>3196</v>
+      </c>
+      <c r="G510" s="2" t="s">
+        <v>3197</v>
+      </c>
+      <c r="I510" s="6" t="s">
+        <v>3198</v>
+      </c>
+      <c r="J510">
+        <v>7172451444</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A511" s="4" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B511" s="6" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C511" s="6" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D511" t="s">
+        <v>13</v>
+      </c>
+      <c r="E511" t="s">
+        <v>14</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>2933</v>
+      </c>
+      <c r="G511" s="2" t="s">
+        <v>2932</v>
+      </c>
+      <c r="I511" s="6" t="s">
+        <v>2197</v>
+      </c>
+      <c r="J511">
+        <v>6106948100</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A512" s="8" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B512" s="5" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C512" s="6" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D512" t="s">
+        <v>13</v>
+      </c>
+      <c r="E512" t="s">
+        <v>14</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>3203</v>
+      </c>
+      <c r="G512" s="2" t="s">
+        <v>3204</v>
+      </c>
+      <c r="I512" s="6" t="s">
+        <v>3205</v>
+      </c>
+      <c r="J512">
+        <v>8148715841</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A513" s="8" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B513" s="6" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C513" s="6" t="s">
+        <v>3208</v>
+      </c>
+      <c r="D513" t="s">
+        <v>13</v>
+      </c>
+      <c r="E513" t="s">
+        <v>14</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>3209</v>
+      </c>
+      <c r="H513" s="2" t="s">
+        <v>3210</v>
+      </c>
+      <c r="I513" s="6" t="s">
+        <v>3211</v>
+      </c>
+      <c r="J513">
+        <v>7243577971</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A514" s="8" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C514" s="6" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D514" t="s">
+        <v>13</v>
+      </c>
+      <c r="E514" t="s">
+        <v>14</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>3215</v>
+      </c>
+      <c r="G514" s="2" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I514" s="6" t="s">
+        <v>3217</v>
+      </c>
+      <c r="J514">
+        <v>7178717075</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A515" s="8" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B515" s="6" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C515" s="6" t="s">
+        <v>3220</v>
+      </c>
+      <c r="D515" t="s">
+        <v>13</v>
+      </c>
+      <c r="E515" t="s">
+        <v>14</v>
+      </c>
+      <c r="H515" s="2" t="s">
+        <v>3222</v>
+      </c>
+      <c r="I515" s="6" t="s">
+        <v>3221</v>
+      </c>
+      <c r="J515">
+        <v>6103305316</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A516" s="8" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B516" s="6" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C516" s="6" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D516" t="s">
+        <v>13</v>
+      </c>
+      <c r="E516" t="s">
+        <v>14</v>
+      </c>
+      <c r="F516" s="7" t="s">
+        <v>3226</v>
+      </c>
+      <c r="I516" s="6" t="s">
+        <v>3227</v>
+      </c>
+      <c r="J516">
+        <v>7179489136</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A517" s="8" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B517" s="6" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C517" s="6" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D517" t="s">
+        <v>13</v>
+      </c>
+      <c r="E517" t="s">
+        <v>14</v>
+      </c>
+      <c r="I517" s="6" t="s">
+        <v>3231</v>
+      </c>
+      <c r="J517">
+        <v>4846643239</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A518" s="8" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B518" s="6" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C518" s="6" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D518" t="s">
+        <v>13</v>
+      </c>
+      <c r="E518" t="s">
+        <v>14</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>3236</v>
+      </c>
+      <c r="G518" s="2" t="s">
+        <v>3237</v>
+      </c>
+      <c r="I518" s="6" t="s">
+        <v>3235</v>
+      </c>
+      <c r="J518">
+        <v>4126487990</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A519" s="8" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B519" s="6" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C519" s="6" t="s">
+        <v>3240</v>
+      </c>
+      <c r="D519" t="s">
+        <v>13</v>
+      </c>
+      <c r="E519" t="s">
+        <v>14</v>
+      </c>
+      <c r="F519" s="7" t="s">
+        <v>3242</v>
+      </c>
+      <c r="I519" s="6" t="s">
+        <v>3241</v>
+      </c>
+      <c r="J519">
+        <v>5703724374</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A520" s="8" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B520" s="6" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C520" s="6" t="s">
+        <v>3245</v>
+      </c>
+      <c r="D520" t="s">
+        <v>13</v>
+      </c>
+      <c r="E520" t="s">
+        <v>14</v>
+      </c>
+      <c r="F520" s="7" t="s">
+        <v>3247</v>
+      </c>
+      <c r="I520" s="6" t="s">
+        <v>3246</v>
+      </c>
+      <c r="J520">
+        <v>4126210728</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A521" s="8" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B521" s="6" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C521" s="6" t="s">
+        <v>3250</v>
+      </c>
+      <c r="D521" t="s">
+        <v>13</v>
+      </c>
+      <c r="E521" t="s">
+        <v>14</v>
+      </c>
+      <c r="F521" s="7" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I521" s="6" t="s">
+        <v>3251</v>
+      </c>
+      <c r="J521">
+        <v>5702085931</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A522" s="8" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C522" s="6" t="s">
+        <v>3255</v>
+      </c>
+      <c r="D522" t="s">
+        <v>13</v>
+      </c>
+      <c r="E522" t="s">
+        <v>14</v>
+      </c>
+      <c r="I522" s="6" t="s">
+        <v>3256</v>
+      </c>
+      <c r="J522">
+        <v>7174771489</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A523" s="8" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B523" s="5" t="s">
+        <v>3258</v>
+      </c>
+      <c r="C523" s="24" t="s">
+        <v>3260</v>
+      </c>
+      <c r="D523" t="s">
+        <v>13</v>
+      </c>
+      <c r="E523" t="s">
+        <v>14</v>
+      </c>
+      <c r="H523" s="7" t="s">
+        <v>3261</v>
+      </c>
+      <c r="I523" s="6" t="s">
+        <v>3259</v>
+      </c>
+      <c r="J523">
+        <v>5709414279</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A524" s="8" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B524" s="5" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C524" s="6" t="s">
+        <v>3264</v>
+      </c>
+      <c r="D524" t="s">
+        <v>13</v>
+      </c>
+      <c r="E524" t="s">
+        <v>14</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>3265</v>
+      </c>
+      <c r="G524" s="2" t="s">
+        <v>3266</v>
+      </c>
+      <c r="I524" s="6" t="s">
+        <v>3267</v>
+      </c>
+      <c r="J524">
+        <v>7178151388</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A525" s="8" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B525" s="6" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C525" s="6" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D525" t="s">
+        <v>13</v>
+      </c>
+      <c r="E525" t="s">
+        <v>14</v>
+      </c>
+      <c r="F525" s="7" t="s">
+        <v>3271</v>
+      </c>
+      <c r="G525" s="2" t="s">
+        <v>3272</v>
+      </c>
+      <c r="I525" s="6" t="s">
+        <v>3273</v>
+      </c>
+      <c r="J525">
+        <v>2158986677</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A526" s="8" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B526" s="6" t="s">
+        <v>3275</v>
+      </c>
+      <c r="C526" s="6" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D526" t="s">
+        <v>13</v>
+      </c>
+      <c r="E526" t="s">
+        <v>14</v>
+      </c>
+      <c r="G526" s="2" t="s">
+        <v>3278</v>
+      </c>
+      <c r="H526" s="2" t="s">
+        <v>3277</v>
+      </c>
+      <c r="I526" s="6" t="s">
+        <v>3279</v>
+      </c>
+      <c r="J526">
+        <v>6105197200</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A527" s="8" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B527" s="5" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C527" s="6" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D527" t="s">
+        <v>13</v>
+      </c>
+      <c r="E527" t="s">
+        <v>14</v>
+      </c>
+      <c r="H527" s="7" t="s">
+        <v>3283</v>
+      </c>
+      <c r="I527" s="6" t="s">
+        <v>3284</v>
+      </c>
+      <c r="J527">
+        <v>6109028457</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A528" s="8" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B528" s="6" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C528" s="6" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D528" t="s">
+        <v>13</v>
+      </c>
+      <c r="E528" t="s">
+        <v>14</v>
+      </c>
+      <c r="I528" s="6" t="s">
+        <v>3288</v>
+      </c>
+      <c r="J528">
+        <v>4018639277</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A529" s="8" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B529" s="6" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C529" s="6" t="s">
+        <v>3291</v>
+      </c>
+      <c r="D529" t="s">
+        <v>13</v>
+      </c>
+      <c r="E529" t="s">
+        <v>14</v>
+      </c>
+      <c r="I529" s="6" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J529">
+        <v>4012326150</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A530" s="8" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B530" s="6" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C530" s="6" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D530" t="s">
+        <v>13</v>
+      </c>
+      <c r="E530" t="s">
+        <v>14</v>
+      </c>
+      <c r="F530" s="2" t="s">
+        <v>3298</v>
+      </c>
+      <c r="H530" s="2" t="s">
+        <v>3297</v>
+      </c>
+      <c r="I530" s="5" t="s">
+        <v>3296</v>
+      </c>
+      <c r="J530">
+        <v>4017929030</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A531" s="8" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B531" s="6" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C531" s="6" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D531" t="s">
+        <v>13</v>
+      </c>
+      <c r="E531" t="s">
+        <v>14</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>3303</v>
+      </c>
+      <c r="H531" s="2" t="s">
+        <v>3304</v>
+      </c>
+      <c r="I531" s="6" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A532" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B532" s="6" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C532" s="6" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D532" t="s">
+        <v>13</v>
+      </c>
+      <c r="E532" t="s">
+        <v>14</v>
+      </c>
+      <c r="F532" s="7" t="s">
+        <v>3308</v>
+      </c>
+      <c r="I532" s="6" t="s">
+        <v>3309</v>
+      </c>
+      <c r="J532">
+        <v>6058234661</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A533" s="8" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B533" s="6" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C533" s="6" t="s">
+        <v>3312</v>
+      </c>
+      <c r="D533" t="s">
+        <v>13</v>
+      </c>
+      <c r="E533" t="s">
+        <v>14</v>
+      </c>
+      <c r="I533" s="6" t="s">
+        <v>3313</v>
+      </c>
+      <c r="J533">
+        <v>6053946667</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A534" s="8" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B534" s="5" t="s">
+        <v>3315</v>
+      </c>
+      <c r="C534" s="6" t="s">
+        <v>3316</v>
+      </c>
+      <c r="D534" t="s">
+        <v>13</v>
+      </c>
+      <c r="E534" t="s">
+        <v>14</v>
+      </c>
+      <c r="G534" s="7" t="s">
+        <v>3318</v>
+      </c>
+      <c r="I534" s="6" t="s">
+        <v>3317</v>
+      </c>
+      <c r="J534">
+        <v>6157775100</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A535" s="8" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B535" s="5" t="s">
+        <v>3320</v>
+      </c>
+      <c r="C535" s="6" t="s">
+        <v>3321</v>
+      </c>
+      <c r="D535" t="s">
+        <v>13</v>
+      </c>
+      <c r="E535" t="s">
+        <v>14</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G535" s="2" t="s">
+        <v>3323</v>
+      </c>
+      <c r="I535" s="6" t="s">
+        <v>3322</v>
+      </c>
+      <c r="J535">
+        <v>6159339962</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A536" s="8" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B536" s="6" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C536" s="6" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D536" t="s">
+        <v>13</v>
+      </c>
+      <c r="E536" t="s">
+        <v>14</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>3328</v>
+      </c>
+      <c r="G536" s="2" t="s">
+        <v>3329</v>
+      </c>
+      <c r="I536" s="6" t="s">
+        <v>3330</v>
+      </c>
+      <c r="J536">
+        <v>9015280560</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A537" s="8" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B537" s="5" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C537" s="6" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D537" t="s">
+        <v>13</v>
+      </c>
+      <c r="E537" t="s">
+        <v>14</v>
+      </c>
+      <c r="I537" s="6" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J537">
+        <v>4236974470</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A538" s="4" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B538" s="5" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C538" s="6" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D538" t="s">
+        <v>13</v>
+      </c>
+      <c r="E538" t="s">
+        <v>14</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>3328</v>
+      </c>
+      <c r="G538" s="2" t="s">
+        <v>3329</v>
+      </c>
+      <c r="I538" s="6" t="s">
+        <v>3330</v>
+      </c>
+      <c r="J538">
+        <v>9015280560</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A539" s="8" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B539" s="5" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C539" s="6" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D539" t="s">
+        <v>13</v>
+      </c>
+      <c r="E539" t="s">
+        <v>14</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>3340</v>
+      </c>
+      <c r="H539" s="2" t="s">
+        <v>3339</v>
+      </c>
+      <c r="I539" s="6" t="s">
+        <v>3341</v>
+      </c>
+      <c r="J539">
+        <v>6158982636</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A540" s="8" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B540" s="5" t="s">
+        <v>3343</v>
+      </c>
+      <c r="C540" s="6" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D540" t="s">
+        <v>13</v>
+      </c>
+      <c r="E540" t="s">
+        <v>14</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="H540" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="I540" s="6" t="s">
+        <v>3347</v>
+      </c>
+      <c r="J540">
+        <v>6153223691</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A541" s="8" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B541" s="6" t="s">
+        <v>3349</v>
+      </c>
+      <c r="C541" s="6" t="s">
+        <v>3350</v>
+      </c>
+      <c r="D541" t="s">
+        <v>13</v>
+      </c>
+      <c r="E541" t="s">
+        <v>14</v>
+      </c>
+      <c r="I541" s="6" t="s">
+        <v>3351</v>
+      </c>
+      <c r="J541">
+        <v>9313723688</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A542" s="8" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B542" s="6" t="s">
+        <v>3353</v>
+      </c>
+      <c r="C542" s="6" t="s">
+        <v>3354</v>
+      </c>
+      <c r="D542" t="s">
+        <v>13</v>
+      </c>
+      <c r="E542" t="s">
+        <v>14</v>
+      </c>
+      <c r="I542" s="6" t="s">
+        <v>3355</v>
+      </c>
+      <c r="J542">
+        <v>4234618464</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A543" s="8" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B543" s="6" t="s">
+        <v>3357</v>
+      </c>
+      <c r="C543" s="6" t="s">
+        <v>3358</v>
+      </c>
+      <c r="D543" t="s">
+        <v>13</v>
+      </c>
+      <c r="E543" t="s">
+        <v>14</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>3359</v>
+      </c>
+      <c r="G543" s="2" t="s">
+        <v>3360</v>
+      </c>
+      <c r="I543" s="6" t="s">
+        <v>3361</v>
+      </c>
+      <c r="J543">
+        <v>4234254790</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A544" s="8" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B544" s="6" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C544" s="6" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D544" t="s">
+        <v>13</v>
+      </c>
+      <c r="E544" t="s">
+        <v>14</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>3366</v>
+      </c>
+      <c r="G544" s="2" t="s">
+        <v>3367</v>
+      </c>
+      <c r="I544" s="6" t="s">
+        <v>3365</v>
+      </c>
+      <c r="J544">
+        <v>8659742229</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A545" s="8" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B545" s="6" t="s">
+        <v>3369</v>
+      </c>
+      <c r="C545" s="6" t="s">
+        <v>3370</v>
+      </c>
+      <c r="D545" t="s">
+        <v>13</v>
+      </c>
+      <c r="E545" t="s">
+        <v>14</v>
+      </c>
+      <c r="G545" s="7" t="s">
+        <v>3371</v>
+      </c>
+      <c r="I545" s="6" t="s">
+        <v>3372</v>
+      </c>
+      <c r="J545">
+        <v>7318817095</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A546" s="8" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B546" s="6" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C546" s="6" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D546" t="s">
+        <v>13</v>
+      </c>
+      <c r="E546" t="s">
+        <v>14</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>3376</v>
+      </c>
+      <c r="G546" s="2" t="s">
+        <v>3377</v>
+      </c>
+      <c r="I546" s="5" t="s">
+        <v>3378</v>
+      </c>
+      <c r="J546">
+        <v>9726471893</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A547" s="8" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B547" s="5" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C547" s="6" t="s">
+        <v>3381</v>
+      </c>
+      <c r="D547" t="s">
+        <v>13</v>
+      </c>
+      <c r="E547" t="s">
+        <v>14</v>
+      </c>
+      <c r="G547" s="2" t="s">
+        <v>3382</v>
+      </c>
+      <c r="I547" s="6" t="s">
+        <v>3383</v>
+      </c>
+      <c r="J547">
+        <v>9798622516</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A548" s="4" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B548" s="6" t="s">
+        <v>3385</v>
+      </c>
+      <c r="C548" s="6" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D548" t="s">
+        <v>13</v>
+      </c>
+      <c r="E548" t="s">
+        <v>14</v>
+      </c>
+      <c r="F548" s="7" t="s">
+        <v>3388</v>
+      </c>
+      <c r="I548" s="6" t="s">
+        <v>3387</v>
+      </c>
+      <c r="J548">
+        <v>9797795367</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A549" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B549" s="5" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C549" s="6" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D549" t="s">
+        <v>13</v>
+      </c>
+      <c r="E549" t="s">
+        <v>14</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>3390</v>
+      </c>
+      <c r="G549" s="2" t="s">
+        <v>3377</v>
+      </c>
+      <c r="I549" s="6" t="s">
+        <v>3378</v>
+      </c>
+      <c r="J549">
+        <v>2148289500</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A550" s="8" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B550" s="5" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C550" s="6" t="s">
+        <v>3393</v>
+      </c>
+      <c r="D550" t="s">
+        <v>13</v>
+      </c>
+      <c r="E550" t="s">
+        <v>14</v>
+      </c>
+      <c r="G550" s="2" t="s">
+        <v>3395</v>
+      </c>
+      <c r="H550" s="2" t="s">
+        <v>3394</v>
+      </c>
+      <c r="I550" s="6" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A551" s="8" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B551" s="5" t="s">
+        <v>3398</v>
+      </c>
+      <c r="C551" s="6" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D551" t="s">
+        <v>13</v>
+      </c>
+      <c r="E551" t="s">
+        <v>14</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>3401</v>
+      </c>
+      <c r="G551" s="7" t="s">
+        <v>3402</v>
+      </c>
+      <c r="I551" s="6" t="s">
+        <v>3400</v>
+      </c>
+      <c r="J551">
+        <v>2104861371</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A552" s="8" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C552" s="6" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D552" t="s">
+        <v>13</v>
+      </c>
+      <c r="E552" t="s">
+        <v>14</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>3406</v>
+      </c>
+      <c r="G552" s="2" t="s">
+        <v>3407</v>
+      </c>
+      <c r="I552" s="6" t="s">
+        <v>3408</v>
+      </c>
+      <c r="J552">
+        <v>5122458089</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A553" s="8" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B553" s="6" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C553" s="6" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D553" t="s">
+        <v>13</v>
+      </c>
+      <c r="E553" t="s">
+        <v>14</v>
+      </c>
+      <c r="G553" s="2" t="s">
+        <v>3413</v>
+      </c>
+      <c r="I553" s="6" t="s">
+        <v>3412</v>
+      </c>
+      <c r="J553">
+        <v>5124711631</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A554" s="8" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B554" s="6" t="s">
+        <v>3415</v>
+      </c>
+      <c r="C554" s="6" t="s">
+        <v>3416</v>
+      </c>
+      <c r="D554" t="s">
+        <v>13</v>
+      </c>
+      <c r="E554" t="s">
+        <v>14</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>3417</v>
+      </c>
+      <c r="G554" s="2" t="s">
+        <v>3414</v>
+      </c>
+      <c r="I554" s="6" t="s">
+        <v>3418</v>
+      </c>
+      <c r="J554">
+        <v>5124715431</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A555" s="8" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B555" s="6" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C555" s="6" t="s">
+        <v>3421</v>
+      </c>
+      <c r="D555" t="s">
+        <v>13</v>
+      </c>
+      <c r="E555" t="s">
+        <v>14</v>
+      </c>
+      <c r="G555" s="2" t="s">
+        <v>3422</v>
+      </c>
+      <c r="I555" s="6" t="s">
+        <v>3423</v>
+      </c>
+      <c r="J555">
+        <v>8066512801</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A556" s="8" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B556" s="5" t="s">
+        <v>3425</v>
+      </c>
+      <c r="C556" s="6" t="s">
+        <v>3426</v>
+      </c>
+      <c r="D556" t="s">
+        <v>13</v>
+      </c>
+      <c r="E556" t="s">
+        <v>14</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>3427</v>
+      </c>
+      <c r="G556" s="2" t="s">
+        <v>3428</v>
+      </c>
+      <c r="I556" s="6" t="s">
+        <v>3429</v>
+      </c>
+      <c r="J556">
+        <v>2109998313</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A557" s="8" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B557" s="5" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C557" s="6" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D557" t="s">
+        <v>13</v>
+      </c>
+      <c r="E557" t="s">
+        <v>14</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>3434</v>
+      </c>
+      <c r="G557" s="2" t="s">
+        <v>3435</v>
+      </c>
+      <c r="I557" s="6" t="s">
+        <v>3433</v>
+      </c>
+      <c r="J557">
+        <v>8013599191</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A558" s="4" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B558" s="6" t="s">
+        <v>3437</v>
+      </c>
+      <c r="C558" s="6" t="s">
+        <v>3438</v>
+      </c>
+      <c r="D558" t="s">
+        <v>13</v>
+      </c>
+      <c r="E558" t="s">
+        <v>14</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>3439</v>
+      </c>
+      <c r="G558" s="2" t="s">
+        <v>3440</v>
+      </c>
+      <c r="I558" s="6" t="s">
+        <v>3441</v>
+      </c>
+      <c r="J558">
+        <v>4356499004</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A559" s="4" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B559" s="5" t="s">
+        <v>3443</v>
+      </c>
+      <c r="C559" s="6" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D559" t="s">
+        <v>13</v>
+      </c>
+      <c r="E559" t="s">
+        <v>14</v>
+      </c>
+      <c r="F559" s="2" t="s">
+        <v>3434</v>
+      </c>
+      <c r="G559" s="2" t="s">
+        <v>3444</v>
+      </c>
+      <c r="I559" s="6" t="s">
+        <v>3433</v>
+      </c>
+      <c r="J559">
+        <v>8013631818</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A560" s="4" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B560" s="5" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C560" s="6" t="s">
+        <v>3447</v>
+      </c>
+      <c r="D560" t="s">
+        <v>13</v>
+      </c>
+      <c r="E560" t="s">
+        <v>14</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>3448</v>
+      </c>
+      <c r="H560" s="2" t="s">
+        <v>3449</v>
+      </c>
+      <c r="I560" s="6" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J560">
+        <v>4352598824</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A561" s="8" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B561" s="6" t="s">
+        <v>3452</v>
+      </c>
+      <c r="C561" s="6" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D561" t="s">
+        <v>13</v>
+      </c>
+      <c r="E561" t="s">
+        <v>14</v>
+      </c>
+      <c r="G561" s="2" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I561" s="6" t="s">
+        <v>3433</v>
+      </c>
+      <c r="J561">
+        <v>8013599191</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A562" s="8" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B562" s="5" t="s">
+        <v>3455</v>
+      </c>
+      <c r="C562" s="6" t="s">
+        <v>3456</v>
+      </c>
+      <c r="D562" t="s">
+        <v>13</v>
+      </c>
+      <c r="E562" t="s">
+        <v>14</v>
+      </c>
+      <c r="G562" s="2" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I562" s="5" t="s">
+        <v>3458</v>
+      </c>
+      <c r="J562">
+        <v>8026564399</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A563" s="8" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B563" s="6" t="s">
+        <v>3460</v>
+      </c>
+      <c r="C563" s="6" t="s">
+        <v>3461</v>
+      </c>
+      <c r="D563" t="s">
+        <v>13</v>
+      </c>
+      <c r="E563" t="s">
+        <v>14</v>
+      </c>
+      <c r="G563" s="2" t="s">
+        <v>3463</v>
+      </c>
+      <c r="H563" s="2" t="s">
+        <v>3462</v>
+      </c>
+      <c r="I563" s="6" t="s">
+        <v>3464</v>
+      </c>
+      <c r="J563">
+        <v>8023221721</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A564" s="8" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B564" s="6" t="s">
+        <v>3466</v>
+      </c>
+      <c r="C564" s="6" t="s">
+        <v>3467</v>
+      </c>
+      <c r="D564" t="s">
+        <v>13</v>
+      </c>
+      <c r="E564" t="s">
+        <v>14</v>
+      </c>
+      <c r="H564" s="7" t="s">
+        <v>3468</v>
+      </c>
+      <c r="I564" s="6" t="s">
+        <v>3469</v>
+      </c>
+      <c r="J564">
+        <v>8024436324</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A565" s="8" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B565" s="6" t="s">
+        <v>3471</v>
+      </c>
+      <c r="C565" s="6" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D565" t="s">
+        <v>13</v>
+      </c>
+      <c r="E565" t="s">
+        <v>14</v>
+      </c>
+      <c r="G565" s="2" t="s">
+        <v>3473</v>
+      </c>
+      <c r="I565" s="6" t="s">
+        <v>3458</v>
+      </c>
+      <c r="J565">
+        <v>8026564399</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A566" s="8" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B566" s="5" t="s">
+        <v>3475</v>
+      </c>
+      <c r="C566" s="6" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D566" t="s">
+        <v>13</v>
+      </c>
+      <c r="E566" t="s">
+        <v>14</v>
+      </c>
+      <c r="F566" s="7" t="s">
+        <v>3478</v>
+      </c>
+      <c r="G566" s="2" t="s">
+        <v>3477</v>
+      </c>
+      <c r="I566" s="6" t="s">
+        <v>3479</v>
+      </c>
+      <c r="J566">
+        <v>8046499737</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A567" s="4" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B567" s="5" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C567" s="5" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D567" t="s">
+        <v>13</v>
+      </c>
+      <c r="E567" t="s">
+        <v>14</v>
+      </c>
+      <c r="F567" s="7" t="s">
+        <v>3485</v>
+      </c>
+      <c r="I567" s="6" t="s">
+        <v>3486</v>
+      </c>
+      <c r="J567">
+        <v>5717491100</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A568" s="8" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B568" s="6" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C568" s="6" t="s">
+        <v>3489</v>
+      </c>
+      <c r="D568" t="s">
+        <v>13</v>
+      </c>
+      <c r="E568" t="s">
+        <v>14</v>
+      </c>
+      <c r="G568" s="2" t="s">
+        <v>3487</v>
+      </c>
+      <c r="H568" s="7" t="s">
+        <v>3490</v>
+      </c>
+      <c r="I568" s="6" t="s">
+        <v>3491</v>
+      </c>
+      <c r="J568">
+        <v>7039932935</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A569" s="8" t="s">
+        <v>3492</v>
+      </c>
+      <c r="B569" s="6" t="s">
+        <v>3493</v>
+      </c>
+      <c r="C569" s="6" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D569" t="s">
+        <v>13</v>
+      </c>
+      <c r="E569" t="s">
+        <v>14</v>
+      </c>
+      <c r="I569" s="6" t="s">
+        <v>3495</v>
+      </c>
+      <c r="J569">
+        <v>5404584365</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A570" s="4" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B570" s="6" t="s">
+        <v>3497</v>
+      </c>
+      <c r="C570" s="6" t="s">
+        <v>3498</v>
+      </c>
+      <c r="D570" t="s">
+        <v>13</v>
+      </c>
+      <c r="E570" t="s">
+        <v>14</v>
+      </c>
+      <c r="G570" s="2" t="s">
+        <v>3500</v>
+      </c>
+      <c r="H570" s="2" t="s">
+        <v>3499</v>
+      </c>
+      <c r="I570" s="6" t="s">
+        <v>3501</v>
+      </c>
+      <c r="J570">
+        <v>4349790919</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A571" s="8" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B571" s="6" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C571" s="6" t="s">
+        <v>3504</v>
+      </c>
+      <c r="D571" t="s">
+        <v>13</v>
+      </c>
+      <c r="E571" t="s">
+        <v>14</v>
+      </c>
+      <c r="G571" s="2" t="s">
+        <v>3506</v>
+      </c>
+      <c r="H571" s="2" t="s">
+        <v>3505</v>
+      </c>
+      <c r="I571" s="6" t="s">
+        <v>3507</v>
+      </c>
+      <c r="J571">
+        <v>7576836391</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A572" s="8" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B572" s="6" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C572" s="6" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D572" t="s">
+        <v>13</v>
+      </c>
+      <c r="E572" t="s">
+        <v>14</v>
+      </c>
+      <c r="F572" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G572" s="2" t="s">
+        <v>3477</v>
+      </c>
+      <c r="I572" s="6" t="s">
+        <v>3479</v>
+      </c>
+      <c r="J572">
+        <v>8046499737</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A573" s="8" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B573" s="6" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C573" s="6" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D573" t="s">
+        <v>13</v>
+      </c>
+      <c r="E573" t="s">
+        <v>14</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>3512</v>
+      </c>
+      <c r="H573" s="2" t="s">
+        <v>3513</v>
+      </c>
+      <c r="I573" s="6" t="s">
+        <v>3514</v>
+      </c>
+      <c r="J573">
+        <v>8048281055</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A574" s="8" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B574" s="5" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C574" s="14" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D574" t="s">
+        <v>13</v>
+      </c>
+      <c r="E574" t="s">
+        <v>14</v>
+      </c>
+      <c r="I574" s="6" t="s">
+        <v>3518</v>
+      </c>
+      <c r="J574">
+        <v>5408316059</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A575" s="8" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B575" s="6" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C575" s="6" t="s">
+        <v>3521</v>
+      </c>
+      <c r="D575" t="s">
+        <v>13</v>
+      </c>
+      <c r="E575" t="s">
+        <v>14</v>
+      </c>
+      <c r="F575" s="2" t="s">
+        <v>3522</v>
+      </c>
+      <c r="H575" s="2" t="s">
+        <v>3523</v>
+      </c>
+      <c r="I575" s="6" t="s">
+        <v>3524</v>
+      </c>
+      <c r="J575">
+        <v>5405683425</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A576" s="4" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C576" s="6" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D576" t="s">
+        <v>13</v>
+      </c>
+      <c r="E576" t="s">
+        <v>14</v>
+      </c>
+      <c r="F576" s="2" t="s">
+        <v>3528</v>
+      </c>
+      <c r="G576" s="2" t="s">
+        <v>3525</v>
+      </c>
+      <c r="I576" s="6" t="s">
+        <v>3529</v>
+      </c>
+      <c r="J576">
+        <v>4255646171</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A577" s="8" t="s">
+        <v>3530</v>
+      </c>
+      <c r="B577" s="5" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C577" s="6" t="s">
+        <v>3532</v>
+      </c>
+      <c r="D577" t="s">
+        <v>13</v>
+      </c>
+      <c r="E577" t="s">
+        <v>14</v>
+      </c>
+      <c r="G577" s="2" t="s">
+        <v>3534</v>
+      </c>
+      <c r="H577" s="2" t="s">
+        <v>3533</v>
+      </c>
+      <c r="I577" s="6" t="s">
+        <v>3535</v>
+      </c>
+      <c r="J577">
+        <v>2065205800</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A578" s="4" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C578" s="6" t="s">
+        <v>3538</v>
+      </c>
+      <c r="D578" t="s">
+        <v>13</v>
+      </c>
+      <c r="E578" t="s">
+        <v>14</v>
+      </c>
+      <c r="F578" s="7" t="s">
+        <v>3539</v>
+      </c>
+      <c r="I578" s="6" t="s">
+        <v>3540</v>
+      </c>
+      <c r="J578">
+        <v>3603796886</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A579" s="8" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B579" s="6" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C579" s="6" t="s">
+        <v>3543</v>
+      </c>
+      <c r="D579" t="s">
+        <v>13</v>
+      </c>
+      <c r="E579" t="s">
+        <v>14</v>
+      </c>
+      <c r="F579" s="7" t="s">
+        <v>3544</v>
+      </c>
+      <c r="I579" s="6" t="s">
+        <v>3545</v>
+      </c>
+      <c r="J579">
+        <v>3604167001</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A580" s="8" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B580" s="5" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C580" s="6" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D580" t="s">
+        <v>13</v>
+      </c>
+      <c r="E580" t="s">
+        <v>14</v>
+      </c>
+      <c r="F580" s="2" t="s">
+        <v>3551</v>
+      </c>
+      <c r="G580" s="2" t="s">
+        <v>3550</v>
+      </c>
+      <c r="I580" s="6" t="s">
+        <v>3549</v>
+      </c>
+      <c r="J580">
+        <v>3606502936</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A581" s="8" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B581" s="6" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C581" s="6" t="s">
+        <v>3554</v>
+      </c>
+      <c r="D581" t="s">
+        <v>13</v>
+      </c>
+      <c r="E581" t="s">
+        <v>14</v>
+      </c>
+      <c r="I581" s="6" t="s">
+        <v>3555</v>
+      </c>
+      <c r="J581">
+        <v>5095285285</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A582" s="4" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B582" s="6" t="s">
+        <v>3557</v>
+      </c>
+      <c r="C582" s="6" t="s">
+        <v>3558</v>
+      </c>
+      <c r="D582" t="s">
+        <v>13</v>
+      </c>
+      <c r="E582" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A583" s="8" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B583" s="6" t="s">
+        <v>3560</v>
+      </c>
+      <c r="C583" s="6" t="s">
+        <v>3561</v>
+      </c>
+      <c r="D583" t="s">
+        <v>13</v>
+      </c>
+      <c r="E583" t="s">
+        <v>14</v>
+      </c>
+      <c r="I583" s="6" t="s">
+        <v>3562</v>
+      </c>
+      <c r="J583">
+        <v>5093352208</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A584" s="8" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B584" s="5" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C584" s="6" t="s">
+        <v>3565</v>
+      </c>
+      <c r="D584" t="s">
+        <v>13</v>
+      </c>
+      <c r="E584" t="s">
+        <v>14</v>
+      </c>
+      <c r="H584" s="7" t="s">
+        <v>3566</v>
+      </c>
+      <c r="I584" s="6" t="s">
+        <v>3567</v>
+      </c>
+      <c r="J584">
+        <v>2535357752</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A585" s="8" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B585" s="6" t="s">
+        <v>3569</v>
+      </c>
+      <c r="C585" s="6" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D585" t="s">
+        <v>13</v>
+      </c>
+      <c r="E585" t="s">
+        <v>14</v>
+      </c>
+      <c r="H585" s="7" t="s">
+        <v>3571</v>
+      </c>
+      <c r="I585" s="6" t="s">
+        <v>3572</v>
+      </c>
+      <c r="J585">
+        <v>2065437675</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A586" s="8" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B586" s="5" t="s">
+        <v>3574</v>
+      </c>
+      <c r="C586" s="6" t="s">
+        <v>3575</v>
+      </c>
+      <c r="D586" t="s">
+        <v>13</v>
+      </c>
+      <c r="E586" t="s">
+        <v>14</v>
+      </c>
+      <c r="I586" s="6" t="s">
+        <v>3576</v>
+      </c>
+      <c r="J586">
+        <v>2029949749</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A587" s="8" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B587" s="6" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C587" s="6" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D587" t="s">
+        <v>13</v>
+      </c>
+      <c r="E587" t="s">
+        <v>14</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>3580</v>
+      </c>
+      <c r="G587" s="7" t="s">
+        <v>3577</v>
+      </c>
+      <c r="I587" s="6" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A588" s="8" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B588" s="6" t="s">
+        <v>3583</v>
+      </c>
+      <c r="C588" s="6" t="s">
+        <v>3584</v>
+      </c>
+      <c r="D588" t="s">
+        <v>13</v>
+      </c>
+      <c r="E588" t="s">
+        <v>14</v>
+      </c>
+      <c r="G588" s="25"/>
+      <c r="I588" s="5" t="s">
+        <v>3585</v>
+      </c>
+      <c r="J588">
+        <v>3046962295</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A589" s="8" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B589" s="6" t="s">
+        <v>3587</v>
+      </c>
+      <c r="C589" s="6" t="s">
+        <v>3588</v>
+      </c>
+      <c r="D589" t="s">
+        <v>13</v>
+      </c>
+      <c r="E589" t="s">
+        <v>14</v>
+      </c>
+      <c r="F589" s="2" t="s">
+        <v>3589</v>
+      </c>
+      <c r="G589" s="2" t="s">
+        <v>3590</v>
+      </c>
+      <c r="I589" s="6" t="s">
+        <v>3591</v>
+      </c>
+      <c r="J589">
+        <v>3045564912</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A590" s="8" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B590" s="5" t="s">
+        <v>3592</v>
+      </c>
+      <c r="C590" s="6" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D590" t="s">
+        <v>13</v>
+      </c>
+      <c r="E590" t="s">
+        <v>14</v>
+      </c>
+      <c r="F590" s="2" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G590" s="2" t="s">
+        <v>3594</v>
+      </c>
+      <c r="I590" s="6" t="s">
+        <v>3596</v>
+      </c>
+      <c r="J590">
+        <v>4142779673</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A591" s="8" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B591" s="5" t="s">
+        <v>3599</v>
+      </c>
+      <c r="C591" s="5" t="s">
+        <v>3600</v>
+      </c>
+      <c r="D591" t="s">
+        <v>13</v>
+      </c>
+      <c r="E591" t="s">
+        <v>14</v>
+      </c>
+      <c r="F591" s="2" t="s">
+        <v>3602</v>
+      </c>
+      <c r="G591" s="2" t="s">
+        <v>3603</v>
+      </c>
+      <c r="I591" s="6" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A592" s="8" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B592" s="6" t="s">
+        <v>3605</v>
+      </c>
+      <c r="C592" s="6" t="s">
+        <v>3600</v>
+      </c>
+      <c r="D592" t="s">
+        <v>13</v>
+      </c>
+      <c r="E592" t="s">
+        <v>14</v>
+      </c>
+      <c r="I592" s="6" t="s">
+        <v>3601</v>
+      </c>
+      <c r="J592">
+        <v>6082562001</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A593" s="8" t="s">
+        <v>3606</v>
+      </c>
+      <c r="B593" s="6" t="s">
+        <v>3607</v>
+      </c>
+      <c r="C593" s="6" t="s">
+        <v>3608</v>
+      </c>
+      <c r="D593" t="s">
+        <v>13</v>
+      </c>
+      <c r="E593" t="s">
+        <v>14</v>
+      </c>
+      <c r="F593" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="I593" s="6" t="s">
+        <v>3610</v>
+      </c>
+      <c r="J593">
+        <v>6083632402</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A594" s="4" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B594" s="5" t="s">
+        <v>3612</v>
+      </c>
+      <c r="C594" s="6" t="s">
+        <v>3613</v>
+      </c>
+      <c r="D594" t="s">
+        <v>13</v>
+      </c>
+      <c r="E594" t="s">
+        <v>14</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>3614</v>
+      </c>
+      <c r="H594" s="2" t="s">
+        <v>3615</v>
+      </c>
+      <c r="I594" s="6" t="s">
+        <v>3616</v>
+      </c>
+      <c r="J594">
+        <v>6086389378</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A595" s="4" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B595" s="5" t="s">
+        <v>3618</v>
+      </c>
+      <c r="C595" s="6" t="s">
+        <v>3619</v>
+      </c>
+      <c r="D595" t="s">
+        <v>13</v>
+      </c>
+      <c r="E595" t="s">
+        <v>14</v>
+      </c>
+      <c r="F595" s="7" t="s">
+        <v>3620</v>
+      </c>
+      <c r="I595" s="6" t="s">
+        <v>3621</v>
+      </c>
+      <c r="J595">
+        <v>7158319497</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A596" s="4" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B596" s="6" t="s">
+        <v>3623</v>
+      </c>
+      <c r="C596" s="6" t="s">
+        <v>3624</v>
+      </c>
+      <c r="D596" t="s">
+        <v>13</v>
+      </c>
+      <c r="E596" t="s">
+        <v>14</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>3626</v>
+      </c>
+      <c r="G596" s="5" t="s">
+        <v>3627</v>
+      </c>
+      <c r="I596" s="6" t="s">
+        <v>3625</v>
+      </c>
+      <c r="J596">
+        <v>7153948530</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A597" s="8" t="s">
+        <v>3628</v>
+      </c>
+      <c r="B597" s="6" t="s">
+        <v>3629</v>
+      </c>
+      <c r="C597" s="6" t="s">
+        <v>3630</v>
+      </c>
+      <c r="D597" t="s">
+        <v>13</v>
+      </c>
+      <c r="E597" t="s">
+        <v>14</v>
+      </c>
+      <c r="I597" s="6" t="s">
+        <v>3631</v>
+      </c>
+      <c r="J597">
+        <v>9208326567</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A598" s="8" t="s">
+        <v>3632</v>
+      </c>
+      <c r="B598" s="5" t="s">
+        <v>3633</v>
+      </c>
+      <c r="C598" s="6" t="s">
+        <v>3634</v>
+      </c>
+      <c r="D598" t="s">
+        <v>13</v>
+      </c>
+      <c r="E598" t="s">
+        <v>14</v>
+      </c>
+      <c r="F598" s="7" t="s">
+        <v>3635</v>
+      </c>
+      <c r="I598" s="6" t="s">
+        <v>3636</v>
+      </c>
+      <c r="J598">
+        <v>7156342100</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A599" s="8" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B599" s="6" t="s">
+        <v>3638</v>
+      </c>
+      <c r="C599" s="6" t="s">
+        <v>3639</v>
+      </c>
+      <c r="D599" t="s">
+        <v>13</v>
+      </c>
+      <c r="E599" t="s">
+        <v>14</v>
+      </c>
+      <c r="I599" s="6" t="s">
+        <v>3640</v>
+      </c>
+      <c r="J599">
+        <v>7154253887</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A600" s="8" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B600" s="5" t="s">
+        <v>3642</v>
+      </c>
+      <c r="C600" s="6" t="s">
+        <v>3643</v>
+      </c>
+      <c r="D600" t="s">
+        <v>13</v>
+      </c>
+      <c r="E600" t="s">
+        <v>14</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>3644</v>
+      </c>
+      <c r="G600" s="2" t="s">
+        <v>3645</v>
+      </c>
+      <c r="I600" s="6" t="s">
+        <v>3646</v>
+      </c>
+      <c r="J600">
+        <v>6082619786</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A601" s="4" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B601" s="6" t="s">
+        <v>3648</v>
+      </c>
+      <c r="C601" s="6" t="s">
+        <v>3649</v>
+      </c>
+      <c r="D601" t="s">
+        <v>13</v>
+      </c>
+      <c r="E601" t="s">
+        <v>14</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>3650</v>
+      </c>
+      <c r="I601" s="6" t="s">
+        <v>3651</v>
+      </c>
+      <c r="J601">
+        <v>6082167431</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A602" s="8" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B602" s="5" t="s">
+        <v>3653</v>
+      </c>
+      <c r="C602" s="6" t="s">
+        <v>3654</v>
+      </c>
+      <c r="D602" t="s">
+        <v>13</v>
+      </c>
+      <c r="E602" t="s">
+        <v>14</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>3656</v>
+      </c>
+      <c r="G602" s="2" t="s">
+        <v>3657</v>
+      </c>
+      <c r="I602" s="6" t="s">
+        <v>3655</v>
+      </c>
+      <c r="J602">
+        <v>3077334365</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A603" s="8" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B603" s="5" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C603" s="6" t="s">
+        <v>3654</v>
+      </c>
+      <c r="D603" t="s">
+        <v>13</v>
+      </c>
+      <c r="E603" t="s">
+        <v>14</v>
+      </c>
+      <c r="F603" s="7" t="s">
+        <v>3660</v>
+      </c>
+      <c r="G603" s="2" t="s">
+        <v>3657</v>
+      </c>
+      <c r="I603" s="6" t="s">
+        <v>3655</v>
+      </c>
+      <c r="J603">
+        <v>3077335465</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A604" s="4" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B604" s="6" t="s">
+        <v>3653</v>
+      </c>
+      <c r="C604" s="6" t="s">
+        <v>3654</v>
+      </c>
+      <c r="D604" t="s">
+        <v>13</v>
+      </c>
+      <c r="E604" t="s">
+        <v>14</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>3656</v>
+      </c>
+      <c r="G604" s="2" t="s">
+        <v>3657</v>
+      </c>
+      <c r="I604" s="5" t="s">
+        <v>3655</v>
+      </c>
+      <c r="J604">
+        <v>3077334030</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A605" s="4" t="s">
+        <v>3662</v>
+      </c>
+      <c r="B605" s="6" t="s">
+        <v>3663</v>
+      </c>
+      <c r="C605" s="6" t="s">
+        <v>3664</v>
+      </c>
+      <c r="D605" t="s">
+        <v>13</v>
+      </c>
+      <c r="E605" t="s">
+        <v>14</v>
+      </c>
+      <c r="F605" s="7" t="s">
+        <v>3666</v>
+      </c>
+      <c r="G605" s="2" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A606" s="4" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B606" s="6" t="s">
+        <v>3668</v>
+      </c>
+      <c r="C606" s="6" t="s">
+        <v>3669</v>
+      </c>
+      <c r="D606" t="s">
+        <v>13</v>
+      </c>
+      <c r="E606" t="s">
+        <v>14</v>
+      </c>
+      <c r="F606" s="7" t="s">
+        <v>3671</v>
+      </c>
+      <c r="I606" s="6" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J606">
+        <v>9715337111</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A607" s="4" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B607" s="5" t="s">
+        <v>3673</v>
+      </c>
+      <c r="C607" s="6" t="s">
+        <v>3674</v>
+      </c>
+      <c r="D607" t="s">
+        <v>13</v>
+      </c>
+      <c r="E607" t="s">
+        <v>14</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>3676</v>
+      </c>
+      <c r="G607" s="2" t="s">
+        <v>3677</v>
+      </c>
+      <c r="I607" s="6" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A608" s="4" t="s">
+        <v>3678</v>
+      </c>
+      <c r="B608" s="6" t="s">
+        <v>3679</v>
+      </c>
+      <c r="C608" s="6" t="s">
+        <v>3680</v>
+      </c>
+      <c r="D608" t="s">
+        <v>13</v>
+      </c>
+      <c r="E608" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A609" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B609" s="5" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C609" s="6" t="s">
+        <v>3683</v>
+      </c>
+      <c r="D609" t="s">
+        <v>13</v>
+      </c>
+      <c r="E609" t="s">
+        <v>14</v>
+      </c>
+      <c r="G609" s="2" t="s">
+        <v>3681</v>
+      </c>
+      <c r="I609" s="6" t="s">
+        <v>3684</v>
+      </c>
+      <c r="J609">
+        <v>2062222683</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A610" s="4" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B610" s="5" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C610" s="6" t="s">
+        <v>3686</v>
+      </c>
+      <c r="D610" t="s">
+        <v>13</v>
+      </c>
+      <c r="E610" t="s">
+        <v>14</v>
+      </c>
+      <c r="F610" s="2" t="s">
+        <v>3689</v>
+      </c>
+      <c r="G610" s="2" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A611" s="4" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B611" s="6" t="s">
+        <v>3691</v>
+      </c>
+      <c r="C611" s="6" t="s">
+        <v>3692</v>
+      </c>
+      <c r="D611" t="s">
+        <v>13</v>
+      </c>
+      <c r="E611" t="s">
+        <v>14</v>
+      </c>
+      <c r="G611" s="2" t="s">
+        <v>3694</v>
+      </c>
+      <c r="I611" s="6" t="s">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A612" s="8" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B612" s="5" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C612" s="6" t="s">
+        <v>3697</v>
+      </c>
+      <c r="D612" t="s">
+        <v>13</v>
+      </c>
+      <c r="E612" t="s">
+        <v>14</v>
+      </c>
+      <c r="F612" s="2" t="s">
+        <v>3698</v>
+      </c>
+      <c r="G612" s="2" t="s">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A613" s="4" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B613" s="6" t="s">
+        <v>3701</v>
+      </c>
+      <c r="C613" s="6" t="s">
+        <v>3702</v>
+      </c>
+      <c r="D613" t="s">
+        <v>13</v>
+      </c>
+      <c r="E613" t="s">
+        <v>14</v>
+      </c>
+      <c r="F613" s="2" t="s">
+        <v>3705</v>
+      </c>
+      <c r="G613" s="2" t="s">
+        <v>3706</v>
+      </c>
+      <c r="I613" s="6" t="s">
+        <v>3703</v>
+      </c>
+      <c r="J613" t="s">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A614" s="4" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B614" s="5" t="s">
+        <v>3708</v>
+      </c>
+      <c r="C614" s="6" t="s">
+        <v>3709</v>
+      </c>
+      <c r="D614" t="s">
+        <v>13</v>
+      </c>
+      <c r="E614" t="s">
+        <v>14</v>
+      </c>
+      <c r="F614" s="7" t="s">
+        <v>3711</v>
+      </c>
+      <c r="G614" s="2" t="s">
+        <v>3712</v>
+      </c>
+      <c r="I614" s="6" t="s">
+        <v>3710</v>
+      </c>
+      <c r="J614">
+        <v>3316458336</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A615" s="4" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B615" s="5" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C615" s="6" t="s">
+        <v>3715</v>
+      </c>
+      <c r="D615" t="s">
+        <v>13</v>
+      </c>
+      <c r="E615" t="s">
+        <v>14</v>
+      </c>
+      <c r="F615" s="7" t="s">
+        <v>3717</v>
+      </c>
+      <c r="G615" s="2" t="s">
+        <v>3718</v>
+      </c>
+      <c r="I615" s="6" t="s">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A616" s="4" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B616" s="6" t="s">
+        <v>3720</v>
+      </c>
+      <c r="C616" s="6" t="s">
+        <v>3721</v>
+      </c>
+      <c r="D616" t="s">
+        <v>13</v>
+      </c>
+      <c r="E616" t="s">
+        <v>14</v>
+      </c>
+      <c r="F616" s="2" t="s">
+        <v>3722</v>
+      </c>
+      <c r="G616" s="2" t="s">
+        <v>3722</v>
+      </c>
+      <c r="J616">
+        <v>8003455000</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A617" s="4" t="s">
+        <v>3723</v>
+      </c>
+      <c r="B617" s="5" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C617" s="6" t="s">
+        <v>3725</v>
+      </c>
+      <c r="D617" t="s">
+        <v>13</v>
+      </c>
+      <c r="E617" t="s">
+        <v>14</v>
+      </c>
+      <c r="F617" s="7" t="s">
+        <v>3727</v>
+      </c>
+      <c r="G617" s="2" t="s">
+        <v>3726</v>
+      </c>
+      <c r="J617">
+        <v>3477254163</v>
+      </c>
+    </row>
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A618" s="4" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B618" s="5" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C618" s="6" t="s">
+        <v>3730</v>
+      </c>
+      <c r="D618" t="s">
+        <v>13</v>
+      </c>
+      <c r="E618" t="s">
+        <v>14</v>
+      </c>
+      <c r="F618" s="2" t="s">
+        <v>3731</v>
+      </c>
+      <c r="G618" s="2" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A619" s="4" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B619" s="5" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C619" s="6" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D619" t="s">
+        <v>13</v>
+      </c>
+      <c r="E619" t="s">
+        <v>14</v>
+      </c>
+      <c r="G619" s="2" t="s">
+        <v>3737</v>
+      </c>
+      <c r="I619" s="6" t="s">
+        <v>3734</v>
+      </c>
+      <c r="J619">
+        <v>2534680061</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A620" s="4" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B620" s="6" t="s">
+        <v>3744</v>
+      </c>
+      <c r="C620" s="6" t="s">
+        <v>3745</v>
+      </c>
+      <c r="D620" t="s">
+        <v>13</v>
+      </c>
+      <c r="E620" t="s">
+        <v>14</v>
+      </c>
+      <c r="G620" s="2" t="s">
+        <v>3748</v>
+      </c>
+      <c r="H620" s="2" t="s">
+        <v>3747</v>
+      </c>
+      <c r="I620" s="6" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A621" s="4" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B621" s="5" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C621" s="6" t="s">
+        <v>3751</v>
+      </c>
+      <c r="D621" t="s">
+        <v>13</v>
+      </c>
+      <c r="E621" t="s">
+        <v>14</v>
+      </c>
+      <c r="F621" s="7" t="s">
+        <v>3752</v>
+      </c>
+      <c r="G621" s="2" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A622" s="4" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B622" s="6" t="s">
+        <v>3755</v>
+      </c>
+      <c r="C622" s="6" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D622" t="s">
+        <v>13</v>
+      </c>
+      <c r="E622" t="s">
+        <v>14</v>
+      </c>
+      <c r="G622" s="2" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A623" s="4" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B623" s="5" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C623" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D623" t="s">
+        <v>13</v>
+      </c>
+      <c r="E623" t="s">
+        <v>14</v>
+      </c>
+      <c r="F623" s="2" t="s">
+        <v>3759</v>
+      </c>
+      <c r="G623" s="2" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A624" s="4" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B624" s="6" t="s">
+        <v>3761</v>
+      </c>
+      <c r="C624" s="6" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D624" t="s">
+        <v>13</v>
+      </c>
+      <c r="E624" t="s">
+        <v>14</v>
+      </c>
+      <c r="G624" s="2" t="s">
+        <v>3764</v>
+      </c>
+      <c r="H624" s="2" t="s">
+        <v>3763</v>
+      </c>
+      <c r="J624">
+        <v>8777748416</v>
+      </c>
+    </row>
+    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A625" s="4" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B625" s="6" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C625" s="6" t="s">
+        <v>3767</v>
+      </c>
+      <c r="D625" t="s">
+        <v>13</v>
+      </c>
+      <c r="E625" t="s">
+        <v>14</v>
+      </c>
+      <c r="H625" s="2" t="s">
+        <v>3768</v>
+      </c>
+      <c r="J625">
+        <v>3137572576</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A626" s="4" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B626" s="5" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C626" s="6" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D626" t="s">
+        <v>13</v>
+      </c>
+      <c r="E626" t="s">
+        <v>14</v>
+      </c>
+      <c r="I626" s="6" t="s">
+        <v>3772</v>
+      </c>
+      <c r="J626">
+        <v>8708185572</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A627" s="4" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B627" s="6" t="s">
+        <v>3774</v>
+      </c>
+      <c r="C627" s="6" t="s">
+        <v>3775</v>
+      </c>
+      <c r="D627" t="s">
+        <v>13</v>
+      </c>
+      <c r="E627" t="s">
+        <v>14</v>
+      </c>
+      <c r="F627" s="7" t="s">
+        <v>3777</v>
+      </c>
+      <c r="G627" s="2" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A628" s="8" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B628" s="5" t="s">
+        <v>3779</v>
+      </c>
+      <c r="C628" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="D628" t="s">
+        <v>13</v>
+      </c>
+      <c r="E628" t="s">
+        <v>14</v>
+      </c>
+      <c r="F628" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G628" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="I628" s="6" t="s">
+        <v>1419</v>
+      </c>
+      <c r="J628">
+        <v>5206231000</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A629" s="8" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B629" s="5" t="s">
+        <v>3781</v>
+      </c>
+      <c r="C629" s="6" t="s">
+        <v>3782</v>
+      </c>
+      <c r="D629" t="s">
+        <v>13</v>
+      </c>
+      <c r="E629" t="s">
+        <v>14</v>
+      </c>
+      <c r="F629" s="2" t="s">
+        <v>3783</v>
+      </c>
+      <c r="I629" s="6" t="s">
+        <v>3784</v>
+      </c>
+      <c r="J629">
+        <v>4153465376</v>
+      </c>
+    </row>
+    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A630" s="8" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B630" s="5" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C630" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D630" t="s">
+        <v>13</v>
+      </c>
+      <c r="E630" t="s">
+        <v>14</v>
+      </c>
+      <c r="F630" s="7" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I630" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="J630">
+        <v>5308950131</v>
+      </c>
+    </row>
+    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A631" s="8" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B631" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="C631" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="D631" t="s">
+        <v>13</v>
+      </c>
+      <c r="E631" t="s">
+        <v>14</v>
+      </c>
+      <c r="G631" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="I631" s="6" t="s">
+        <v>3787</v>
+      </c>
+      <c r="J631">
+        <v>5106425259</v>
+      </c>
+    </row>
+    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A632" s="8" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B632" s="5" t="s">
+        <v>3789</v>
+      </c>
+      <c r="C632" s="6" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D632" t="s">
+        <v>13</v>
+      </c>
+      <c r="E632" t="s">
+        <v>14</v>
+      </c>
+      <c r="G632" s="2" t="s">
+        <v>3790</v>
+      </c>
+      <c r="I632" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="J632">
+        <v>8606857700</v>
+      </c>
+    </row>
+    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A633" s="8" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B633" s="6" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C633" s="6" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D633" t="s">
+        <v>13</v>
+      </c>
+      <c r="E633" t="s">
+        <v>14</v>
+      </c>
+      <c r="F633" s="7" t="s">
+        <v>2200</v>
+      </c>
+      <c r="G633" s="2" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I633" s="6" t="s">
+        <v>1659</v>
+      </c>
+      <c r="J633">
+        <v>8506443871</v>
+      </c>
+    </row>
+    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A634" s="8" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B634" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C634" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D634" t="s">
+        <v>13</v>
+      </c>
+      <c r="E634" t="s">
+        <v>14</v>
+      </c>
+      <c r="F634" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G634" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="I634" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="J634">
+        <v>2082582083</v>
+      </c>
+    </row>
+    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A635" s="8" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B635" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C635" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D635" t="s">
+        <v>13</v>
+      </c>
+      <c r="E635" t="s">
+        <v>14</v>
+      </c>
+      <c r="G635" s="2" t="s">
+        <v>3794</v>
+      </c>
+      <c r="I635" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="J635">
+        <v>2082582073</v>
+      </c>
+    </row>
+    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A636" s="8" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B636" s="5" t="s">
+        <v>3796</v>
+      </c>
+      <c r="C636" s="6" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D636" t="s">
+        <v>13</v>
+      </c>
+      <c r="E636" t="s">
+        <v>14</v>
+      </c>
+      <c r="F636" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I636" s="6" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J636">
+        <v>7737028424</v>
+      </c>
+    </row>
+    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A637" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B637" s="5" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C637" s="6" t="s">
+        <v>3799</v>
+      </c>
+      <c r="D637" t="s">
+        <v>13</v>
+      </c>
+      <c r="E637" t="s">
+        <v>14</v>
+      </c>
+      <c r="F637" s="7" t="s">
+        <v>3800</v>
+      </c>
+      <c r="G637" s="2" t="s">
+        <v>2689</v>
+      </c>
+      <c r="I637" s="6" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J637">
+        <v>2173599338</v>
+      </c>
+    </row>
+    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A638" s="8" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B638" s="5" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C638" s="6" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D638" t="s">
+        <v>13</v>
+      </c>
+      <c r="E638" t="s">
+        <v>14</v>
+      </c>
+      <c r="H638" s="2" t="s">
+        <v>2747</v>
+      </c>
+      <c r="I638" s="6" t="s">
+        <v>1786</v>
+      </c>
+      <c r="J638">
+        <v>5152949292</v>
+      </c>
+    </row>
+    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A639" s="8" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B639" s="5" t="s">
+        <v>3803</v>
+      </c>
+      <c r="C639" s="6" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D639" t="s">
+        <v>13</v>
+      </c>
+      <c r="E639" t="s">
+        <v>14</v>
+      </c>
+      <c r="F639" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="G639" s="7" t="s">
+        <v>2774</v>
+      </c>
+      <c r="I639" s="6" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J639">
+        <v>8597215690</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A640" s="8" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B640" s="5" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C640" s="6" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D640" t="s">
+        <v>13</v>
+      </c>
+      <c r="E640" t="s">
+        <v>14</v>
+      </c>
+      <c r="I640" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="J640">
+        <v>2075930013</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A641" s="8" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B641" s="5" t="s">
+        <v>3807</v>
+      </c>
+      <c r="C641" s="6" t="s">
+        <v>3808</v>
+      </c>
+      <c r="D641" t="s">
+        <v>13</v>
+      </c>
+      <c r="E641" t="s">
+        <v>14</v>
+      </c>
+      <c r="F641" s="2" t="s">
+        <v>3809</v>
+      </c>
+      <c r="G641" s="2" t="s">
+        <v>3810</v>
+      </c>
+      <c r="J641">
+        <v>4438427030</v>
+      </c>
+    </row>
+    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A642" s="8" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B642" s="6" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C642" s="6" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D642" t="s">
+        <v>13</v>
+      </c>
+      <c r="E642" t="s">
+        <v>14</v>
+      </c>
+      <c r="F642" s="2" t="s">
+        <v>2836</v>
+      </c>
+      <c r="G642" s="2" t="s">
+        <v>2837</v>
+      </c>
+      <c r="I642" s="6" t="s">
+        <v>2838</v>
+      </c>
+      <c r="J642">
+        <v>4135851033</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A643" s="8" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B643" s="5" t="s">
+        <v>3813</v>
+      </c>
+      <c r="C643" s="6" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D643" t="s">
+        <v>13</v>
+      </c>
+      <c r="E643" t="s">
+        <v>14</v>
+      </c>
+      <c r="F643" s="2" t="s">
+        <v>1990</v>
+      </c>
+      <c r="G643" s="2" t="s">
+        <v>2914</v>
+      </c>
+      <c r="I643" s="6" t="s">
+        <v>3814</v>
+      </c>
+      <c r="J643">
+        <v>3146643688</v>
+      </c>
+    </row>
+    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A644" s="8" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B644" s="5" t="s">
+        <v>3816</v>
+      </c>
+      <c r="C644" s="6" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D644" t="s">
+        <v>13</v>
+      </c>
+      <c r="E644" t="s">
+        <v>14</v>
+      </c>
+      <c r="G644" s="2" t="s">
+        <v>2914</v>
+      </c>
+      <c r="I644" s="6" t="s">
+        <v>1987</v>
+      </c>
+      <c r="J644">
+        <v>3146643688</v>
+      </c>
+    </row>
+    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A645" s="8" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B645" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C645" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D645" t="s">
+        <v>13</v>
+      </c>
+      <c r="E645" t="s">
+        <v>14</v>
+      </c>
+      <c r="H645" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="I645" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="J645">
+        <v>8169315534</v>
+      </c>
+    </row>
+    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A646" s="8" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B646" s="5" t="s">
+        <v>3819</v>
+      </c>
+      <c r="C646" s="6" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D646" t="s">
+        <v>13</v>
+      </c>
+      <c r="E646" t="s">
+        <v>14</v>
+      </c>
+      <c r="F646" s="7" t="s">
+        <v>1990</v>
+      </c>
+      <c r="G646" s="7"/>
+      <c r="H646" s="2" t="s">
+        <v>2914</v>
+      </c>
+      <c r="I646" s="6" t="s">
+        <v>1987</v>
+      </c>
+      <c r="J646">
+        <v>3146643688</v>
+      </c>
+    </row>
+    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A647" s="8" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B647" s="6" t="s">
+        <v>3821</v>
+      </c>
+      <c r="C647" s="6" t="s">
+        <v>3822</v>
+      </c>
+      <c r="D647" t="s">
+        <v>13</v>
+      </c>
+      <c r="E647" t="s">
+        <v>14</v>
+      </c>
+      <c r="G647" s="2" t="s">
+        <v>3823</v>
+      </c>
+      <c r="J647">
+        <v>8005530201</v>
+      </c>
+    </row>
+    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A648" s="8" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B648" s="5" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C648" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D648" t="s">
+        <v>13</v>
+      </c>
+      <c r="E648" t="s">
+        <v>14</v>
+      </c>
+      <c r="I648" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A649" s="8" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B649" s="6" t="s">
+        <v>3826</v>
+      </c>
+      <c r="C649" s="6" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D649" t="s">
+        <v>13</v>
+      </c>
+      <c r="E649" t="s">
+        <v>14</v>
+      </c>
+      <c r="H649" s="2" t="s">
+        <v>2953</v>
+      </c>
+      <c r="I649" s="6" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J649">
+        <v>9737617546</v>
+      </c>
+    </row>
+    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A650" s="8" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B650" s="5" t="s">
+        <v>3828</v>
+      </c>
+      <c r="C650" s="6" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D650" t="s">
+        <v>13</v>
+      </c>
+      <c r="E650" t="s">
+        <v>14</v>
+      </c>
+      <c r="F650" s="2" t="s">
+        <v>3028</v>
+      </c>
+      <c r="I650" s="5" t="s">
+        <v>3829</v>
+      </c>
+      <c r="J650">
+        <v>8454375476</v>
+      </c>
+    </row>
+    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A651" s="4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B651" s="6" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C651" s="6" t="s">
+        <v>3832</v>
+      </c>
+      <c r="D651" t="s">
+        <v>13</v>
+      </c>
+      <c r="E651" t="s">
+        <v>14</v>
+      </c>
+      <c r="F651" s="2" t="s">
+        <v>3834</v>
+      </c>
+      <c r="G651" s="2" t="s">
+        <v>3835</v>
+      </c>
+      <c r="I651" s="6" t="s">
+        <v>3833</v>
+      </c>
+      <c r="J651">
+        <v>8002239797</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A652" s="8" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B652" s="5" t="s">
+        <v>3828</v>
+      </c>
+      <c r="C652" s="6" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D652" t="s">
+        <v>13</v>
+      </c>
+      <c r="E652" t="s">
+        <v>14</v>
+      </c>
+      <c r="F652" s="2" t="s">
+        <v>3028</v>
+      </c>
+      <c r="I652" s="5" t="s">
+        <v>3829</v>
+      </c>
+      <c r="J652">
+        <v>8454375476</v>
+      </c>
+    </row>
+    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A653" s="8" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B653" s="5" t="s">
+        <v>3838</v>
+      </c>
+      <c r="C653" s="6" t="s">
+        <v>3839</v>
+      </c>
+      <c r="D653" t="s">
+        <v>13</v>
+      </c>
+      <c r="E653" t="s">
+        <v>14</v>
+      </c>
+      <c r="H653" s="7" t="s">
+        <v>3840</v>
+      </c>
+      <c r="I653" s="6" t="s">
+        <v>2158</v>
+      </c>
+      <c r="J653">
+        <v>8282593936</v>
+      </c>
+    </row>
+    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A654" s="8" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B654" s="6" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C654" s="6" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D654" t="s">
+        <v>13</v>
+      </c>
+      <c r="E654" t="s">
+        <v>14</v>
+      </c>
+      <c r="F654" s="7" t="s">
+        <v>3842</v>
+      </c>
+      <c r="G654" s="2" t="s">
+        <v>2157</v>
+      </c>
+      <c r="I654" s="6" t="s">
+        <v>2158</v>
+      </c>
+      <c r="J654">
+        <v>8282593936</v>
+      </c>
+    </row>
+    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A655" s="8" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B655" s="5" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C655" s="6" t="s">
+        <v>3090</v>
+      </c>
+      <c r="D655" t="s">
+        <v>13</v>
+      </c>
+      <c r="E655" t="s">
+        <v>14</v>
+      </c>
+      <c r="F655" s="7" t="s">
+        <v>3091</v>
+      </c>
+      <c r="I655" s="6" t="s">
+        <v>3092</v>
+      </c>
+      <c r="J655">
+        <v>2166873515</v>
+      </c>
+    </row>
+    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A656" s="8" t="s">
+        <v>3844</v>
+      </c>
+      <c r="B656" s="5" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C656" s="14" t="s">
+        <v>3090</v>
+      </c>
+      <c r="D656" t="s">
+        <v>13</v>
+      </c>
+      <c r="E656" t="s">
+        <v>14</v>
+      </c>
+      <c r="F656" s="7" t="s">
+        <v>3091</v>
+      </c>
+      <c r="I656" s="6" t="s">
+        <v>3092</v>
+      </c>
+      <c r="J656">
+        <v>2166873515</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A657" s="8" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B657" s="6" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C657" s="6" t="s">
+        <v>3847</v>
+      </c>
+      <c r="D657" t="s">
+        <v>13</v>
+      </c>
+      <c r="E657" t="s">
+        <v>14</v>
+      </c>
+      <c r="F657" s="7" t="s">
+        <v>3849</v>
+      </c>
+      <c r="I657" s="6" t="s">
+        <v>3848</v>
+      </c>
+      <c r="J657">
+        <v>8558085678</v>
+      </c>
+    </row>
+    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A658" s="8" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B658" s="5" t="s">
+        <v>3851</v>
+      </c>
+      <c r="C658" s="6" t="s">
+        <v>3847</v>
+      </c>
+      <c r="D658" t="s">
+        <v>13</v>
+      </c>
+      <c r="E658" t="s">
+        <v>14</v>
+      </c>
+      <c r="F658" s="7" t="s">
+        <v>3849</v>
+      </c>
+      <c r="I658" s="6" t="s">
+        <v>3848</v>
+      </c>
+      <c r="J658">
+        <v>8558085678</v>
+      </c>
+    </row>
+    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A659" s="8" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B659" s="6" t="s">
+        <v>3852</v>
+      </c>
+      <c r="C659" s="6" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D659" t="s">
+        <v>13</v>
+      </c>
+      <c r="E659" t="s">
+        <v>14</v>
+      </c>
+      <c r="F659" s="2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="G659" s="2" t="s">
+        <v>3143</v>
+      </c>
+      <c r="I659" s="6" t="s">
+        <v>3853</v>
+      </c>
+      <c r="J659">
+        <v>5032318187</v>
+      </c>
+    </row>
+    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A660" s="8" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B660" s="6" t="s">
+        <v>3852</v>
+      </c>
+      <c r="C660" s="6" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D660" t="s">
+        <v>13</v>
+      </c>
+      <c r="E660" t="s">
+        <v>14</v>
+      </c>
+      <c r="F660" s="2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="G660" s="2" t="s">
+        <v>3143</v>
+      </c>
+      <c r="I660" s="6" t="s">
+        <v>3853</v>
+      </c>
+      <c r="J660">
+        <v>5032318187</v>
+      </c>
+    </row>
+    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A661" s="8" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B661" s="5" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C661" s="6" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D661" t="s">
+        <v>13</v>
+      </c>
+      <c r="E661" t="s">
+        <v>14</v>
+      </c>
+      <c r="F661" s="2" t="s">
+        <v>3857</v>
+      </c>
+      <c r="G661" s="2" t="s">
+        <v>3148</v>
+      </c>
+      <c r="I661" s="6" t="s">
+        <v>3856</v>
+      </c>
+      <c r="J661">
+        <v>5416715337</v>
+      </c>
+    </row>
+    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A662" s="8" t="s">
+        <v>3858</v>
+      </c>
+      <c r="B662" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="C662" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="D662" t="s">
+        <v>13</v>
+      </c>
+      <c r="E662" t="s">
+        <v>14</v>
+      </c>
+      <c r="H662" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="I662" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="J662">
+        <v>2158983500</v>
+      </c>
+    </row>
+    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A663" s="8" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B663" s="5" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C663" s="6" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D663" t="s">
+        <v>13</v>
+      </c>
+      <c r="E663" t="s">
+        <v>14</v>
+      </c>
+      <c r="F663" s="2" t="s">
+        <v>3303</v>
+      </c>
+      <c r="H663" s="2" t="s">
+        <v>3304</v>
+      </c>
+      <c r="I663" s="6" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A664" s="8" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B664" s="5" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C664" s="6" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D664" t="s">
+        <v>13</v>
+      </c>
+      <c r="E664" t="s">
+        <v>14</v>
+      </c>
+      <c r="H664" s="2" t="s">
+        <v>3367</v>
+      </c>
+      <c r="I664" s="6" t="s">
+        <v>3365</v>
+      </c>
+      <c r="J664">
+        <v>8659742535</v>
+      </c>
+    </row>
+    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A665" s="8" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B665" s="5" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C665" s="6" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D665" t="s">
+        <v>13</v>
+      </c>
+      <c r="E665" t="s">
+        <v>14</v>
+      </c>
+      <c r="F665" s="2" t="s">
+        <v>3366</v>
+      </c>
+      <c r="G665" s="2" t="s">
+        <v>3367</v>
+      </c>
+      <c r="I665" s="6" t="s">
+        <v>3365</v>
+      </c>
+      <c r="J665">
+        <v>8659742535</v>
+      </c>
+    </row>
+    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A666" s="8" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B666" s="5" t="s">
+        <v>3865</v>
+      </c>
+      <c r="C666" s="6" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D666" t="s">
+        <v>13</v>
+      </c>
+      <c r="E666" t="s">
+        <v>14</v>
+      </c>
+      <c r="F666" s="2" t="s">
+        <v>3328</v>
+      </c>
+      <c r="G666" s="2" t="s">
+        <v>3329</v>
+      </c>
+      <c r="I666" s="6" t="s">
+        <v>3330</v>
+      </c>
+      <c r="J666">
+        <v>9015280560</v>
+      </c>
+    </row>
+    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A667" s="8" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B667" s="5" t="s">
+        <v>3867</v>
+      </c>
+      <c r="C667" s="6" t="s">
+        <v>3868</v>
+      </c>
+      <c r="D667" t="s">
+        <v>13</v>
+      </c>
+      <c r="E667" t="s">
+        <v>14</v>
+      </c>
+      <c r="G667" s="2" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A668" s="8" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B668" s="5" t="s">
+        <v>3871</v>
+      </c>
+      <c r="C668" s="6" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D668" t="s">
+        <v>13</v>
+      </c>
+      <c r="E668" t="s">
+        <v>14</v>
+      </c>
+      <c r="F668" s="7" t="s">
+        <v>3872</v>
+      </c>
+      <c r="G668" s="2" t="s">
+        <v>3444</v>
+      </c>
+      <c r="I668" s="6" t="s">
+        <v>3433</v>
+      </c>
+      <c r="J668">
+        <v>8013599191</v>
+      </c>
+    </row>
+    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A669" s="8" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B669" s="5" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C669" s="6" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D669" t="s">
+        <v>13</v>
+      </c>
+      <c r="E669" t="s">
+        <v>14</v>
+      </c>
+      <c r="F669" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G669" s="2" t="s">
+        <v>3477</v>
+      </c>
+      <c r="I669" s="6" t="s">
+        <v>3479</v>
+      </c>
+      <c r="J669">
+        <v>8046499737</v>
+      </c>
+    </row>
+    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A670" s="8" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B670" s="6" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C670" s="6" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D670" t="s">
+        <v>13</v>
+      </c>
+      <c r="E670" t="s">
+        <v>14</v>
+      </c>
+      <c r="F670" s="7" t="s">
+        <v>3485</v>
+      </c>
+      <c r="I670" s="6" t="s">
+        <v>3486</v>
+      </c>
+      <c r="J670">
+        <v>5717491100</v>
+      </c>
+    </row>
+    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A671" s="8" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B671" s="5" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C671" s="6" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D671" t="s">
+        <v>13</v>
+      </c>
+      <c r="E671" t="s">
+        <v>14</v>
+      </c>
+      <c r="F671" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G671" s="2" t="s">
+        <v>3477</v>
+      </c>
+      <c r="I671" s="6" t="s">
+        <v>3479</v>
+      </c>
+      <c r="J671">
+        <v>8046499737</v>
+      </c>
+    </row>
+    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A672" s="8" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B672" s="5" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C672" s="6" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D672" t="s">
+        <v>13</v>
+      </c>
+      <c r="E672" t="s">
+        <v>14</v>
+      </c>
+      <c r="F672" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G672" s="2" t="s">
+        <v>3477</v>
+      </c>
+      <c r="I672" s="6" t="s">
+        <v>3479</v>
+      </c>
+      <c r="J672">
+        <v>8046499737</v>
+      </c>
+    </row>
+    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A673" s="8" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B673" s="5" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C673" s="6" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D673" t="s">
+        <v>13</v>
+      </c>
+      <c r="E673" t="s">
+        <v>14</v>
+      </c>
+      <c r="F673" s="2" t="s">
+        <v>3528</v>
+      </c>
+      <c r="G673" s="2" t="s">
+        <v>3525</v>
+      </c>
+      <c r="I673" s="6" t="s">
+        <v>3879</v>
+      </c>
+      <c r="J673">
+        <v>4255642424</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A674" s="8" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B674" s="5" t="s">
+        <v>3881</v>
+      </c>
+      <c r="C674" s="6" t="s">
+        <v>3532</v>
+      </c>
+      <c r="D674" t="s">
+        <v>13</v>
+      </c>
+      <c r="E674" t="s">
+        <v>14</v>
+      </c>
+      <c r="G674" s="2" t="s">
+        <v>3534</v>
+      </c>
+      <c r="H674" s="2" t="s">
+        <v>3533</v>
+      </c>
+      <c r="I674" s="6" t="s">
+        <v>3535</v>
+      </c>
+      <c r="J674">
+        <v>2065205800</v>
+      </c>
+    </row>
+    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A675" s="8" t="s">
+        <v>3882</v>
+      </c>
+      <c r="B675" s="5" t="s">
+        <v>3883</v>
+      </c>
+      <c r="C675" s="6" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D675" t="s">
+        <v>13</v>
+      </c>
+      <c r="E675" t="s">
+        <v>14</v>
+      </c>
+      <c r="F675" s="2" t="s">
+        <v>3884</v>
+      </c>
+      <c r="G675" s="2" t="s">
+        <v>3525</v>
+      </c>
+      <c r="I675" s="6" t="s">
+        <v>3529</v>
+      </c>
+      <c r="J675">
+        <v>4255642424</v>
+      </c>
+    </row>
+    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A676" s="8" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B676" s="5" t="s">
+        <v>3886</v>
+      </c>
+      <c r="C676" s="6" t="s">
+        <v>3887</v>
+      </c>
+      <c r="D676" t="s">
+        <v>13</v>
+      </c>
+      <c r="E676" t="s">
+        <v>14</v>
+      </c>
+      <c r="F676" s="2" t="s">
+        <v>3888</v>
+      </c>
+      <c r="G676" s="2" t="s">
+        <v>3889</v>
+      </c>
+      <c r="I676" s="6" t="s">
+        <v>3890</v>
+      </c>
+      <c r="J676">
+        <v>3042933329</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A677" s="8" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B677" s="5" t="s">
+        <v>3892</v>
+      </c>
+      <c r="C677" s="6" t="s">
+        <v>3893</v>
+      </c>
+      <c r="D677" t="s">
+        <v>13</v>
+      </c>
+      <c r="E677" t="s">
+        <v>14</v>
+      </c>
+      <c r="G677" s="2" t="s">
+        <v>3895</v>
+      </c>
+      <c r="I677" s="6" t="s">
+        <v>3894</v>
+      </c>
+      <c r="J677">
+        <v>7153463755</v>
+      </c>
+    </row>
+    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A678" s="8" t="s">
+        <v>3896</v>
+      </c>
+      <c r="B678" s="5" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C678" s="6" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D678" t="s">
+        <v>13</v>
+      </c>
+      <c r="E678" t="s">
+        <v>14</v>
+      </c>
+      <c r="F678" s="7" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G678" s="2" t="s">
+        <v>3594</v>
+      </c>
+      <c r="I678" s="6" t="s">
+        <v>3596</v>
+      </c>
+      <c r="J678">
+        <v>4142779673</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A679" s="4" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B679" s="5" t="s">
+        <v>3899</v>
+      </c>
+      <c r="C679" s="6" t="s">
+        <v>3900</v>
+      </c>
+      <c r="D679" t="s">
+        <v>13</v>
+      </c>
+      <c r="E679" t="s">
+        <v>14</v>
+      </c>
+      <c r="F679" s="2" t="s">
+        <v>3901</v>
+      </c>
+      <c r="G679" s="2" t="s">
+        <v>3902</v>
+      </c>
+      <c r="I679" s="5" t="s">
+        <v>3903</v>
+      </c>
+      <c r="J679">
+        <v>7183982733</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A680" s="4" t="s">
+        <v>3904</v>
+      </c>
+      <c r="B680" s="6" t="s">
+        <v>3905</v>
+      </c>
+      <c r="C680" s="6" t="s">
+        <v>3906</v>
+      </c>
+      <c r="D680" t="s">
+        <v>13</v>
+      </c>
+      <c r="E680" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A681" s="4" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B681" s="5" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C681" s="6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D681" t="s">
+        <v>13</v>
+      </c>
+      <c r="E681" t="s">
+        <v>14</v>
+      </c>
+      <c r="G681" s="2" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I681" s="6" t="s">
+        <v>1384</v>
+      </c>
+      <c r="J681">
+        <v>9072795622</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A682" s="8" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B682" s="5" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C682" s="6" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D682" t="s">
+        <v>13</v>
+      </c>
+      <c r="E682" t="s">
+        <v>14</v>
+      </c>
+      <c r="I682" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="J682">
+        <v>9077542489</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A683" s="4" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B683" s="6" t="s">
+        <v>3910</v>
+      </c>
+      <c r="C683" s="6" t="s">
+        <v>3911</v>
+      </c>
+      <c r="D683" t="s">
+        <v>13</v>
+      </c>
+      <c r="E683" t="s">
+        <v>14</v>
+      </c>
+      <c r="F683" s="2" t="s">
+        <v>3912</v>
+      </c>
+      <c r="G683" s="2" t="s">
+        <v>3909</v>
+      </c>
+      <c r="I683" s="6" t="s">
+        <v>3913</v>
+      </c>
+      <c r="J683">
+        <v>9287385505</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A684" s="8" t="s">
+        <v>3914</v>
+      </c>
+      <c r="B684" s="6" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C684" s="6" t="s">
+        <v>3916</v>
+      </c>
+      <c r="D684" t="s">
+        <v>13</v>
+      </c>
+      <c r="E684" t="s">
+        <v>14</v>
+      </c>
+      <c r="F684" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I684" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="J684">
+        <v>5308950131</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A685" s="8" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B685" s="5" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C685" s="6" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D685" t="s">
+        <v>13</v>
+      </c>
+      <c r="E685" t="s">
+        <v>14</v>
+      </c>
+      <c r="I685" s="6" t="s">
+        <v>3920</v>
+      </c>
+      <c r="J685">
+        <v>5306254245</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A686" s="8" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B686" s="5" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C686" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D686" t="s">
+        <v>13</v>
+      </c>
+      <c r="E686" t="s">
+        <v>14</v>
+      </c>
+      <c r="F686" s="7" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I686" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="J686">
+        <v>5308950131</v>
+      </c>
+    </row>
+    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A687" s="8" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B687" s="5" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C687" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D687" t="s">
+        <v>13</v>
+      </c>
+      <c r="E687" t="s">
+        <v>14</v>
+      </c>
+      <c r="I687" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J687">
+        <v>8057722037</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A688" s="8" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B688" s="5" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C688" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D688" t="s">
+        <v>13</v>
+      </c>
+      <c r="E688" t="s">
+        <v>14</v>
+      </c>
+      <c r="F688" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I688" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="J688">
+        <v>5308950131</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A689" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B689" s="5" t="s">
+        <v>3925</v>
+      </c>
+      <c r="C689" s="6" t="s">
+        <v>3782</v>
+      </c>
+      <c r="D689" t="s">
+        <v>13</v>
+      </c>
+      <c r="E689" t="s">
+        <v>14</v>
+      </c>
+      <c r="F689" s="2" t="s">
+        <v>3783</v>
+      </c>
+      <c r="I689" s="6" t="s">
+        <v>3784</v>
+      </c>
+      <c r="J689">
+        <v>4153465376</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A690" s="8" t="s">
+        <v>3926</v>
+      </c>
+      <c r="B690" s="5" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C690" s="6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D690" t="s">
+        <v>13</v>
+      </c>
+      <c r="E690" t="s">
+        <v>14</v>
+      </c>
+      <c r="F690" s="7" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G690" s="2" t="s">
+        <v>2457</v>
+      </c>
+      <c r="I690" s="6" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J690">
+        <v>7079233911</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A691" s="8" t="s">
+        <v>3927</v>
+      </c>
+      <c r="B691" s="6" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C691" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D691" t="s">
+        <v>13</v>
+      </c>
+      <c r="E691" t="s">
+        <v>14</v>
+      </c>
+      <c r="F691" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I691" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J691">
+        <v>9705274868</v>
+      </c>
+    </row>
+    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A692" s="8" t="s">
+        <v>3928</v>
+      </c>
+      <c r="B692" s="5" t="s">
+        <v>3929</v>
+      </c>
+      <c r="C692" s="6" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D692" t="s">
+        <v>13</v>
+      </c>
+      <c r="E692" t="s">
+        <v>14</v>
+      </c>
+      <c r="F692" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I692" s="6" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J692">
+        <v>9702418801</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A693" s="8" t="s">
+        <v>3930</v>
+      </c>
+      <c r="B693" s="5" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C693" s="6" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D693" t="s">
+        <v>13</v>
+      </c>
+      <c r="E693" t="s">
+        <v>14</v>
+      </c>
+      <c r="F693" s="7" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I693" s="6" t="s">
+        <v>1630</v>
+      </c>
+      <c r="J693">
+        <v>8607684701</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A694" s="8" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B694" s="6" t="s">
+        <v>3932</v>
+      </c>
+      <c r="C694" s="6" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D694" t="s">
+        <v>13</v>
+      </c>
+      <c r="E694" t="s">
+        <v>14</v>
+      </c>
+      <c r="G694" s="2" t="s">
+        <v>2603</v>
+      </c>
+      <c r="I694" s="6" t="s">
+        <v>1642</v>
+      </c>
+      <c r="J694">
+        <v>3216748948</v>
+      </c>
+    </row>
+    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A695" s="8" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B695" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C695" s="6" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D695" t="s">
+        <v>13</v>
+      </c>
+      <c r="E695" t="s">
+        <v>14</v>
+      </c>
+      <c r="F695" s="2" t="s">
+        <v>2635</v>
+      </c>
+      <c r="G695" s="7" t="s">
+        <v>2626</v>
+      </c>
+      <c r="I695" s="6" t="s">
+        <v>1668</v>
+      </c>
+      <c r="J695">
+        <v>4048942468</v>
+      </c>
+    </row>
+    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A696" s="8" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B696" s="5" t="s">
+        <v>3935</v>
+      </c>
+      <c r="C696" s="6" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D696" t="s">
+        <v>13</v>
+      </c>
+      <c r="E696" t="s">
+        <v>14</v>
+      </c>
+      <c r="F696" s="7" t="s">
+        <v>1683</v>
+      </c>
+      <c r="I696" s="6" t="s">
+        <v>1680</v>
+      </c>
+      <c r="J696">
+        <v>4045238989</v>
+      </c>
+    </row>
+    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A697" s="8" t="s">
+        <v>3936</v>
+      </c>
+      <c r="B697" s="6" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C697" s="6" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D697" t="s">
+        <v>13</v>
+      </c>
+      <c r="E697" t="s">
+        <v>14</v>
+      </c>
+      <c r="F697" s="7" t="s">
+        <v>1708</v>
+      </c>
+      <c r="I697" s="6" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J697">
+        <v>2082652992</v>
+      </c>
+    </row>
+    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A698" s="8" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B698" s="5" t="s">
+        <v>3938</v>
+      </c>
+      <c r="C698" s="6" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D698" t="s">
+        <v>13</v>
+      </c>
+      <c r="E698" t="s">
+        <v>14</v>
+      </c>
+      <c r="F698" s="2" t="s">
+        <v>3939</v>
+      </c>
+      <c r="G698" s="2" t="s">
+        <v>2914</v>
+      </c>
+      <c r="I698" s="6" t="s">
+        <v>3814</v>
+      </c>
+      <c r="J698">
+        <v>3146643688</v>
+      </c>
+    </row>
+    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A699" s="8" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B699" s="6" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C699" s="6" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D699" t="s">
+        <v>13</v>
+      </c>
+      <c r="E699" t="s">
+        <v>14</v>
+      </c>
+      <c r="F699" s="2" t="s">
+        <v>3939</v>
+      </c>
+      <c r="G699" s="2" t="s">
+        <v>2914</v>
+      </c>
+      <c r="I699" s="5" t="s">
+        <v>1987</v>
+      </c>
+      <c r="J699">
+        <v>3146643688</v>
+      </c>
+    </row>
+    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A700" s="8" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B700" s="5" t="s">
+        <v>3943</v>
+      </c>
+      <c r="C700" s="6" t="s">
+        <v>3944</v>
+      </c>
+      <c r="D700" t="s">
+        <v>13</v>
+      </c>
+      <c r="E700" t="s">
+        <v>14</v>
+      </c>
+      <c r="F700" s="2" t="s">
+        <v>3945</v>
+      </c>
+      <c r="I700" s="5" t="s">
+        <v>3946</v>
+      </c>
+      <c r="J700">
+        <v>5738741139</v>
+      </c>
+    </row>
+    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A701" s="8" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B701" s="5" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C701" s="6" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D701" t="s">
+        <v>13</v>
+      </c>
+      <c r="E701" t="s">
+        <v>14</v>
+      </c>
+      <c r="F701" s="2" t="s">
+        <v>3948</v>
+      </c>
+      <c r="I701" s="6" t="s">
+        <v>2006</v>
+      </c>
+      <c r="J701">
+        <v>4067822263</v>
+      </c>
+    </row>
+    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A702" s="8" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B702" s="5" t="s">
+        <v>3950</v>
+      </c>
+      <c r="C702" s="6" t="s">
+        <v>3951</v>
+      </c>
+      <c r="D702" t="s">
+        <v>13</v>
+      </c>
+      <c r="E702" t="s">
+        <v>14</v>
+      </c>
+      <c r="G702" s="2" t="s">
+        <v>3953</v>
+      </c>
+      <c r="I702" s="6" t="s">
+        <v>3952</v>
+      </c>
+      <c r="J702">
+        <v>4024745086</v>
+      </c>
+    </row>
+    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A703" s="8" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B703" s="5" t="s">
+        <v>3955</v>
+      </c>
+      <c r="C703" s="6" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D703" t="s">
+        <v>13</v>
+      </c>
+      <c r="E703" t="s">
+        <v>14</v>
+      </c>
+      <c r="I703" s="6" t="s">
+        <v>2069</v>
+      </c>
+      <c r="J703">
+        <v>5054281382</v>
+      </c>
+    </row>
+    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A704" s="8" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B704" s="5" t="s">
+        <v>3957</v>
+      </c>
+      <c r="C704" s="6" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D704" t="s">
+        <v>13</v>
+      </c>
+      <c r="E704" t="s">
+        <v>14</v>
+      </c>
+      <c r="F704" s="7" t="s">
+        <v>2073</v>
+      </c>
+      <c r="I704" s="6" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J704">
+        <v>5052775615</v>
+      </c>
+    </row>
+    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A705" s="8" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B705" s="6" t="s">
+        <v>3960</v>
+      </c>
+      <c r="C705" s="6" t="s">
+        <v>3961</v>
+      </c>
+      <c r="D705" t="s">
+        <v>13</v>
+      </c>
+      <c r="E705" t="s">
+        <v>14</v>
+      </c>
+      <c r="F705" s="7" t="s">
+        <v>3028</v>
+      </c>
+      <c r="G705" s="2" t="s">
+        <v>3962</v>
+      </c>
+      <c r="I705" s="5" t="s">
+        <v>2154</v>
+      </c>
+      <c r="J705">
+        <v>8454375476</v>
+      </c>
+    </row>
+    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A706" s="8" t="s">
+        <v>3963</v>
+      </c>
+      <c r="B706" s="5" t="s">
+        <v>3964</v>
+      </c>
+      <c r="C706" s="6" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D706" t="s">
+        <v>13</v>
+      </c>
+      <c r="E706" t="s">
+        <v>14</v>
+      </c>
+      <c r="I706" s="6" t="s">
+        <v>3829</v>
+      </c>
+      <c r="J706">
+        <v>8454375476</v>
+      </c>
+    </row>
+    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A707" s="4" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B707" s="6" t="s">
+        <v>3966</v>
+      </c>
+      <c r="C707" s="6" t="s">
+        <v>3967</v>
+      </c>
+      <c r="D707" t="s">
+        <v>13</v>
+      </c>
+      <c r="E707" t="s">
+        <v>14</v>
+      </c>
+      <c r="F707" s="2" t="s">
+        <v>3968</v>
+      </c>
+      <c r="G707" s="2" t="s">
+        <v>3965</v>
+      </c>
+      <c r="I707" s="6" t="s">
+        <v>3969</v>
+      </c>
+      <c r="J707">
+        <v>5415531968</v>
+      </c>
+    </row>
+    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A708" s="8" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B708" s="5" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C708" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D708" t="s">
+        <v>13</v>
+      </c>
+      <c r="E708" t="s">
+        <v>14</v>
+      </c>
+      <c r="F708" s="2" t="s">
+        <v>2933</v>
+      </c>
+      <c r="G708" s="2" t="s">
+        <v>2932</v>
+      </c>
+      <c r="I708" s="6" t="s">
+        <v>2197</v>
+      </c>
+      <c r="J708">
+        <v>6106948100</v>
+      </c>
+    </row>
+    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A709" s="8" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B709" s="5" t="s">
+        <v>3972</v>
+      </c>
+      <c r="C709" s="6" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D709" t="s">
+        <v>13</v>
+      </c>
+      <c r="E709" t="s">
+        <v>14</v>
+      </c>
+      <c r="F709" s="2" t="s">
+        <v>3973</v>
+      </c>
+      <c r="I709" s="6" t="s">
+        <v>3296</v>
+      </c>
+      <c r="J709">
+        <v>4017929030</v>
+      </c>
+    </row>
+    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A710" s="8" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B710" s="5" t="s">
+        <v>3975</v>
+      </c>
+      <c r="C710" s="6" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D710" t="s">
+        <v>13</v>
+      </c>
+      <c r="E710" t="s">
+        <v>14</v>
+      </c>
+      <c r="F710" s="7" t="s">
+        <v>3976</v>
+      </c>
+      <c r="H710" s="7" t="s">
+        <v>3304</v>
+      </c>
+      <c r="I710" s="6" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A711" s="8" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B711" s="5" t="s">
+        <v>3978</v>
+      </c>
+      <c r="C711" s="6" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D711" t="s">
+        <v>13</v>
+      </c>
+      <c r="E711" t="s">
+        <v>14</v>
+      </c>
+      <c r="F711" s="2" t="s">
+        <v>3328</v>
+      </c>
+      <c r="G711" s="2" t="s">
+        <v>3329</v>
+      </c>
+      <c r="I711" s="6" t="s">
+        <v>3330</v>
+      </c>
+      <c r="J711">
+        <v>9015280560</v>
+      </c>
+    </row>
+    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A712" s="8" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B712" s="6" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C712" s="5" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D712" t="s">
+        <v>13</v>
+      </c>
+      <c r="E712" t="s">
+        <v>14</v>
+      </c>
+      <c r="F712" s="2" t="s">
+        <v>3328</v>
+      </c>
+      <c r="G712" s="2" t="s">
+        <v>3329</v>
+      </c>
+      <c r="I712" s="6" t="s">
+        <v>3330</v>
+      </c>
+      <c r="J712">
+        <v>9015280560</v>
+      </c>
+    </row>
+    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A713" s="8" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B713" s="5" t="s">
+        <v>3981</v>
+      </c>
+      <c r="C713" s="6" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D713" t="s">
+        <v>13</v>
+      </c>
+      <c r="E713" t="s">
+        <v>14</v>
+      </c>
+      <c r="H713" s="7" t="s">
+        <v>3982</v>
+      </c>
+      <c r="I713" s="6" t="s">
+        <v>3433</v>
+      </c>
+      <c r="J713">
+        <v>8013599191</v>
+      </c>
+    </row>
+    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A714" s="8" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B714" s="5" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C714" s="6" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D714" t="s">
+        <v>13</v>
+      </c>
+      <c r="E714" t="s">
+        <v>14</v>
+      </c>
+      <c r="F714" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G714" s="2" t="s">
+        <v>3477</v>
+      </c>
+      <c r="I714" s="6" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A715" s="8" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B715" s="5" t="s">
+        <v>3985</v>
+      </c>
+      <c r="C715" s="6" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D715" t="s">
+        <v>13</v>
+      </c>
+      <c r="E715" t="s">
+        <v>14</v>
+      </c>
+      <c r="F715" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G715" s="2" t="s">
+        <v>3477</v>
+      </c>
+      <c r="I715" s="6" t="s">
+        <v>3479</v>
+      </c>
+      <c r="J715">
+        <v>8046499737</v>
+      </c>
+    </row>
+    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A716" s="8" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B716" s="5" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C716" s="6" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D716" t="s">
+        <v>13</v>
+      </c>
+      <c r="E716" t="s">
+        <v>14</v>
+      </c>
+      <c r="F716" s="7" t="s">
+        <v>3884</v>
+      </c>
+      <c r="G716" s="2" t="s">
+        <v>3525</v>
+      </c>
+      <c r="I716" s="6" t="s">
+        <v>3879</v>
+      </c>
+      <c r="J716">
+        <v>4255642424</v>
+      </c>
+    </row>
+    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A717" s="8" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B717" s="5" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C717" s="6" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D717" t="s">
+        <v>13</v>
+      </c>
+      <c r="E717" t="s">
+        <v>14</v>
+      </c>
+      <c r="F717" s="7" t="s">
+        <v>3884</v>
+      </c>
+      <c r="G717" s="2" t="s">
+        <v>3525</v>
+      </c>
+      <c r="I717" s="6" t="s">
+        <v>3879</v>
+      </c>
+      <c r="J717">
+        <v>4255642424</v>
+      </c>
+    </row>
+    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A718" s="8" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B718" s="5" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C718" s="6" t="s">
+        <v>3990</v>
+      </c>
+      <c r="D718" t="s">
+        <v>13</v>
+      </c>
+      <c r="E718" t="s">
+        <v>14</v>
+      </c>
+      <c r="F718" s="2" t="s">
+        <v>3991</v>
+      </c>
+      <c r="G718" s="2" t="s">
+        <v>3992</v>
+      </c>
+      <c r="I718" s="6" t="s">
+        <v>3993</v>
+      </c>
+      <c r="J718">
+        <v>4253039070</v>
+      </c>
+    </row>
+    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A719" s="8" t="s">
+        <v>3994</v>
+      </c>
+      <c r="B719" s="5" t="s">
+        <v>3995</v>
+      </c>
+      <c r="C719" s="6" t="s">
+        <v>3996</v>
+      </c>
+      <c r="D719" t="s">
+        <v>13</v>
+      </c>
+      <c r="E719" t="s">
+        <v>14</v>
+      </c>
+      <c r="F719" s="7" t="s">
+        <v>3997</v>
+      </c>
+      <c r="I719" s="6" t="s">
+        <v>3998</v>
+      </c>
+      <c r="J719">
+        <v>3608675267</v>
+      </c>
+    </row>
+    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A720" s="8" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B720" s="5" t="s">
+        <v>4000</v>
+      </c>
+      <c r="C720" s="6" t="s">
+        <v>3532</v>
+      </c>
+      <c r="D720" t="s">
+        <v>13</v>
+      </c>
+      <c r="E720" t="s">
+        <v>14</v>
+      </c>
+      <c r="G720" s="2" t="s">
+        <v>3534</v>
+      </c>
+      <c r="H720" s="2" t="s">
+        <v>3533</v>
+      </c>
+      <c r="I720" s="6" t="s">
+        <v>3535</v>
+      </c>
+      <c r="J720">
+        <v>2065205800</v>
+      </c>
+    </row>
+    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A721" s="8" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C721" s="6" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D721" t="s">
+        <v>13</v>
+      </c>
+      <c r="E721" t="s">
+        <v>14</v>
+      </c>
+      <c r="F721" s="2" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G721" s="2" t="s">
+        <v>3594</v>
+      </c>
+      <c r="I721" s="6" t="s">
+        <v>3596</v>
+      </c>
+      <c r="J721">
+        <v>4142779673</v>
       </c>
     </row>
   </sheetData>
@@ -27084,8 +36291,11 @@
     <hyperlink ref="C414" r:id="rId19" xr:uid="{3774EDB4-5F52-4DB0-8EB8-BB5254C55CCA}"/>
     <hyperlink ref="B425" r:id="rId20" xr:uid="{06E751C8-4CB4-4BD7-B30E-EAFFE5143133}"/>
     <hyperlink ref="B472" r:id="rId21" xr:uid="{BE2A0376-E685-4248-A4A0-C60135D0F78E}"/>
+    <hyperlink ref="C574" r:id="rId22" xr:uid="{648D7000-2AB5-40D3-8D50-A349ECFD6FAA}"/>
+    <hyperlink ref="C656" r:id="rId23" xr:uid="{F6FC12AB-F0C5-4EF1-BFF1-389CEB1210A6}"/>
+    <hyperlink ref="B721" r:id="rId24" xr:uid="{BE80E066-CF2D-42CA-9176-DBF1D954DB67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>